--- a/RSA_2019_08/X3_Data/x3_simpleRSA_KLandParams_20191221.xlsx
+++ b/RSA_2019_08/X3_Data/x3_simpleRSA_KLandParams_20191221.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="x3KLDivs_simpleRSA_indOpt_1OPT" sheetId="1" r:id="rId1"/>
@@ -1356,7 +1356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A63" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
@@ -12042,8 +12042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W280"/>
   <sheetViews>
-    <sheetView topLeftCell="A186" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A197" sqref="A197"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J180" sqref="J180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25546,7 +25546,10 @@
       <c r="G197" s="48"/>
       <c r="H197" s="48"/>
       <c r="I197" s="48"/>
-      <c r="J197" s="49"/>
+      <c r="J197" s="49">
+        <f>AVERAGE(J179:J195)</f>
+        <v>-2.067683188898632E-7</v>
+      </c>
       <c r="K197" s="48"/>
       <c r="L197" s="48"/>
       <c r="M197" s="48"/>

--- a/RSA_2019_08/X3_Data/x3_simpleRSA_KLandParams_20191221.xlsx
+++ b/RSA_2019_08/X3_Data/x3_simpleRSA_KLandParams_20191221.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="48">
   <si>
     <t>V1</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Maximizers</t>
+  </si>
+  <si>
+    <t>Lazy / Unpredictable Workers.</t>
   </si>
 </sst>
 </file>
@@ -901,7 +904,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1007,6 +1010,13 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1579,10 +1589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X191"/>
+  <dimension ref="A1:X219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H154" sqref="H154"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q150" sqref="Q150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7514,1064 +7524,1064 @@
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="B88" s="6">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="C88" s="6">
-        <v>0.53285367585436205</v>
+        <v>26.953581677111899</v>
       </c>
       <c r="D88" s="6">
-        <v>0.47500998206714901</v>
+        <v>26.241094232224299</v>
       </c>
       <c r="E88" s="6">
-        <v>0.42166096700228001</v>
+        <v>25.286926603721799</v>
       </c>
       <c r="F88" s="6">
-        <v>0.37196390537385898</v>
+        <v>20.125429229993099</v>
       </c>
       <c r="G88" s="6">
-        <v>0.343413510973272</v>
+        <v>20.125429229993099</v>
       </c>
       <c r="H88" s="6">
-        <v>0.31008936419907701</v>
+        <v>20.125429229993099</v>
       </c>
       <c r="I88" s="6">
-        <v>0.372145156280206</v>
+        <v>25.279477321791401</v>
       </c>
       <c r="J88" s="6"/>
       <c r="K88" s="11">
-        <f t="shared" ref="K88:K120" si="0">C88-F88</f>
-        <v>0.16088977048050307</v>
+        <f>C88-F88</f>
+        <v>6.8281524471188</v>
       </c>
       <c r="L88" s="11">
-        <f t="shared" ref="L88:L120" si="1">F88-H88</f>
-        <v>6.1874541174781972E-2</v>
+        <f>F88-H88</f>
+        <v>0</v>
       </c>
       <c r="M88" s="6"/>
       <c r="N88" s="6">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="O88" s="6">
-        <v>0.69983309453009401</v>
+        <v>0.223961740939804</v>
       </c>
       <c r="P88" s="6">
-        <v>0.20968782863982299</v>
+        <v>4.5808180841367899E-3</v>
       </c>
       <c r="Q88" s="6">
-        <v>-2.9209657913836999E-2</v>
+        <v>-7.1078241480357498</v>
       </c>
       <c r="R88" s="6">
-        <v>2.3000354463412798E-2</v>
+        <v>0</v>
       </c>
       <c r="S88" s="6">
-        <v>3.5122673032158001</v>
+        <v>-10</v>
       </c>
       <c r="T88" s="6">
-        <v>0.32029747479225601</v>
+        <v>0</v>
       </c>
       <c r="U88" s="6">
-        <v>-4.1450660144946099</v>
+        <v>-5.9262243459818702</v>
       </c>
       <c r="V88" s="6">
         <v>0</v>
       </c>
       <c r="W88" s="6">
-        <v>9.7574157340626596E-4</v>
+        <v>4.2949917938913803E-3</v>
       </c>
       <c r="X88" s="7">
-        <v>2.7290090325541101</v>
+        <v>0.89783189167403199</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
-        <v>63</v>
-      </c>
-      <c r="B89" s="6">
-        <v>69</v>
-      </c>
-      <c r="C89" s="6">
-        <v>0.855014086062857</v>
-      </c>
-      <c r="D89" s="6">
-        <v>0.80366202623465099</v>
-      </c>
-      <c r="E89" s="6">
-        <v>0.74846363560171003</v>
-      </c>
-      <c r="F89" s="6">
-        <v>0.543871785834804</v>
-      </c>
-      <c r="G89" s="6">
-        <v>0.750030149844511</v>
-      </c>
-      <c r="H89" s="6">
-        <v>0.52107038801362004</v>
-      </c>
-      <c r="I89" s="6">
-        <v>0.65389980205522402</v>
-      </c>
-      <c r="J89" s="6"/>
+      <c r="A89" s="2">
+        <v>33</v>
+      </c>
+      <c r="B89" s="3">
+        <v>36</v>
+      </c>
+      <c r="C89" s="3">
+        <v>24.756357099775698</v>
+      </c>
+      <c r="D89" s="3">
+        <v>24.331911214460899</v>
+      </c>
+      <c r="E89" s="3">
+        <v>23.584970505121898</v>
+      </c>
+      <c r="F89" s="3">
+        <v>19.185534124771401</v>
+      </c>
+      <c r="G89" s="3">
+        <v>23.474933005608101</v>
+      </c>
+      <c r="H89" s="3">
+        <v>19.185534124771401</v>
+      </c>
+      <c r="I89" s="3">
+        <v>19.185534124771401</v>
+      </c>
+      <c r="J89" s="3"/>
       <c r="K89" s="11">
-        <f t="shared" si="0"/>
-        <v>0.311142300228053</v>
+        <f>C89-F89</f>
+        <v>5.5708229750042975</v>
       </c>
       <c r="L89" s="11">
-        <f t="shared" si="1"/>
-        <v>2.2801397821183955E-2</v>
-      </c>
-      <c r="M89" s="6"/>
-      <c r="N89" s="6">
-        <v>69</v>
-      </c>
-      <c r="O89" s="6">
-        <v>0.803612657378457</v>
-      </c>
-      <c r="P89" s="6">
-        <v>0.208358760516729</v>
-      </c>
-      <c r="Q89" s="6">
-        <v>-5.9782579055625902E-2</v>
-      </c>
-      <c r="R89" s="6">
-        <v>0.24799167306157799</v>
-      </c>
-      <c r="S89" s="6">
-        <v>0.201597477842414</v>
-      </c>
-      <c r="T89" s="6">
-        <v>0.21081568446447699</v>
-      </c>
-      <c r="U89" s="6">
-        <v>-4.4071405229962402</v>
-      </c>
-      <c r="V89" s="6">
-        <v>0</v>
-      </c>
-      <c r="W89" s="6">
-        <v>3.3070742538466397E-2</v>
-      </c>
-      <c r="X89" s="7">
-        <v>4.1822073303293399</v>
+        <f>F89-H89</f>
+        <v>0</v>
+      </c>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3">
+        <v>36</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0.30320602369684801</v>
+      </c>
+      <c r="P89" s="3">
+        <v>4.4363369068585196E-3</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-7.1073669431027096</v>
+      </c>
+      <c r="R89" s="3">
+        <v>9.6273001885421004E-4</v>
+      </c>
+      <c r="S89" s="3">
+        <v>2.53831742005774E-2</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>-5.6884335112434599</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="4">
+        <v>-10</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>69</v>
-      </c>
-      <c r="B90" s="3">
-        <v>75</v>
-      </c>
-      <c r="C90" s="3">
-        <v>10.3414023653689</v>
-      </c>
-      <c r="D90" s="3">
-        <v>10.1498728706612</v>
-      </c>
-      <c r="E90" s="3">
-        <v>9.9370973611965105</v>
-      </c>
-      <c r="F90" s="3">
-        <v>9.8884977290550307</v>
-      </c>
-      <c r="G90" s="3">
-        <v>9.9235839814555806</v>
-      </c>
-      <c r="H90" s="3">
-        <v>9.8866667967861108</v>
-      </c>
-      <c r="I90" s="3">
-        <v>9.9370137984848093</v>
-      </c>
-      <c r="J90" s="3"/>
+      <c r="A90" s="5">
+        <v>78</v>
+      </c>
+      <c r="B90" s="6">
+        <v>84</v>
+      </c>
+      <c r="C90" s="6">
+        <v>4.9815358602177398</v>
+      </c>
+      <c r="D90" s="6">
+        <v>4.8838845751347604</v>
+      </c>
+      <c r="E90" s="6">
+        <v>4.4940955660190403</v>
+      </c>
+      <c r="F90" s="6">
+        <v>0.53608175379219003</v>
+      </c>
+      <c r="G90" s="6">
+        <v>0.53608175379219003</v>
+      </c>
+      <c r="H90" s="6">
+        <v>0.53608175379219003</v>
+      </c>
+      <c r="I90" s="6">
+        <v>4.4935192773554702</v>
+      </c>
+      <c r="J90" s="6"/>
       <c r="K90" s="11">
-        <f t="shared" si="0"/>
-        <v>0.45290463631386935</v>
+        <f>C90-F90</f>
+        <v>4.4454541064255499</v>
       </c>
       <c r="L90" s="11">
-        <f t="shared" si="1"/>
-        <v>1.8309322689198382E-3</v>
-      </c>
-      <c r="M90" s="3"/>
-      <c r="N90" s="3">
-        <v>75</v>
-      </c>
-      <c r="O90" s="3">
-        <v>0.23331045361163699</v>
-      </c>
-      <c r="P90" s="9">
-        <v>5.8811045049606999E-5</v>
-      </c>
-      <c r="Q90" s="3">
-        <v>-1.4732537681973299E-2</v>
-      </c>
-      <c r="R90" s="3">
-        <v>5.0816115622906097E-4</v>
-      </c>
-      <c r="S90" s="3">
-        <v>0.16830042999168199</v>
-      </c>
-      <c r="T90" s="3">
-        <v>1.14515027698883E-3</v>
-      </c>
-      <c r="U90" s="3">
-        <v>-0.13351528251998401</v>
-      </c>
-      <c r="V90" s="3">
-        <v>0</v>
-      </c>
-      <c r="W90" s="3">
-        <v>7.0042538239044197E-4</v>
-      </c>
-      <c r="X90" s="4">
-        <v>0.97890624149655903</v>
+        <f>F90-H90</f>
+        <v>0</v>
+      </c>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6">
+        <v>84</v>
+      </c>
+      <c r="O90" s="6">
+        <v>0.94099090705372901</v>
+      </c>
+      <c r="P90" s="6">
+        <v>3.7279086774110799E-2</v>
+      </c>
+      <c r="Q90" s="6">
+        <v>-7.0894649164514698</v>
+      </c>
+      <c r="R90" s="6">
+        <v>0</v>
+      </c>
+      <c r="S90" s="6">
+        <v>-10</v>
+      </c>
+      <c r="T90" s="6">
+        <v>0</v>
+      </c>
+      <c r="U90" s="6">
+        <v>-10</v>
+      </c>
+      <c r="V90" s="6">
+        <v>0</v>
+      </c>
+      <c r="W90" s="6">
+        <v>3.5771691846188697E-2</v>
+      </c>
+      <c r="X90" s="7">
+        <v>0.90270626712837199</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B91" s="6">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C91" s="6">
-        <v>0.71528295871918601</v>
+        <v>6.7366670880689501</v>
       </c>
       <c r="D91" s="6">
-        <v>0.66113308675598903</v>
+        <v>6.5454335304276698</v>
       </c>
       <c r="E91" s="6">
-        <v>0.57969961006480097</v>
+        <v>5.9672160978697599</v>
       </c>
       <c r="F91" s="6">
-        <v>0.25851236050146897</v>
+        <v>1.81402019803662</v>
       </c>
       <c r="G91" s="6">
-        <v>0.30481375681427297</v>
+        <v>5.8932898840498096</v>
       </c>
       <c r="H91" s="6">
-        <v>0.228045693646722</v>
+        <v>1.81402019803763</v>
       </c>
       <c r="I91" s="6">
-        <v>0.442916738220623</v>
+        <v>5.9628418672196997</v>
       </c>
       <c r="J91" s="6"/>
       <c r="K91" s="11">
-        <f t="shared" si="0"/>
-        <v>0.45677059821771704</v>
+        <f>C91-F91</f>
+        <v>4.9226468900323299</v>
       </c>
       <c r="L91" s="11">
-        <f t="shared" si="1"/>
-        <v>3.0466666854746971E-2</v>
+        <f>F91-H91</f>
+        <v>-1.0100809078039674E-12</v>
       </c>
       <c r="M91" s="6"/>
       <c r="N91" s="6">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="O91" s="6">
-        <v>0.89158482341618805</v>
+        <v>0.58341918396452497</v>
       </c>
       <c r="P91" s="6">
-        <v>0.143211414202951</v>
+        <v>1.7364962780687498E-2</v>
       </c>
       <c r="Q91" s="6">
-        <v>-5.3858448679083903E-2</v>
+        <v>-0.57175818583398996</v>
       </c>
       <c r="R91" s="6">
-        <v>8.2519922087263692E-3</v>
+        <v>7.6547062033590805E-4</v>
       </c>
       <c r="S91" s="6">
-        <v>-10</v>
+        <v>7.9473794390482105E-2</v>
       </c>
       <c r="T91" s="6">
-        <v>0.172390503999517</v>
+        <v>0</v>
       </c>
       <c r="U91" s="6">
-        <v>-3.7960181246964702</v>
+        <v>-0.57175855390563401</v>
       </c>
       <c r="V91" s="6">
         <v>0</v>
       </c>
       <c r="W91" s="6">
-        <v>3.1550146447615897E-2</v>
+        <v>1.58735152880808E-2</v>
       </c>
       <c r="X91" s="7">
-        <v>4.0106027279244998</v>
+        <v>0.88312884748022502</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>66</v>
-      </c>
-      <c r="B92" s="3">
-        <v>72</v>
-      </c>
-      <c r="C92" s="3">
-        <v>2.2614475030669698</v>
-      </c>
-      <c r="D92" s="3">
-        <v>2.25461657210161</v>
-      </c>
-      <c r="E92" s="3">
-        <v>2.2242171028150102</v>
-      </c>
-      <c r="F92" s="3">
-        <v>1.7181202167490801</v>
-      </c>
-      <c r="G92" s="3">
-        <v>1.72394092398181</v>
-      </c>
-      <c r="H92" s="3">
-        <v>1.7144128523887301</v>
-      </c>
-      <c r="I92" s="3">
-        <v>1.5727625992104599</v>
-      </c>
-      <c r="J92" s="3"/>
+      <c r="A92" s="5">
+        <v>9</v>
+      </c>
+      <c r="B92" s="6">
+        <v>11</v>
+      </c>
+      <c r="C92" s="6">
+        <v>6.9806370274044802</v>
+      </c>
+      <c r="D92" s="6">
+        <v>6.7340955563110798</v>
+      </c>
+      <c r="E92" s="6">
+        <v>6.1224023263370704</v>
+      </c>
+      <c r="F92" s="6">
+        <v>1.86084667277913</v>
+      </c>
+      <c r="G92" s="6">
+        <v>6.0610028955958404</v>
+      </c>
+      <c r="H92" s="6">
+        <v>1.8608466725150801</v>
+      </c>
+      <c r="I92" s="6">
+        <v>6.1238606734056704</v>
+      </c>
+      <c r="J92" s="6"/>
       <c r="K92" s="11">
-        <f t="shared" si="0"/>
-        <v>0.54332728631788973</v>
+        <f>C92-F92</f>
+        <v>5.1197903546253505</v>
       </c>
       <c r="L92" s="11">
-        <f t="shared" si="1"/>
-        <v>3.7073643603500184E-3</v>
-      </c>
-      <c r="M92" s="3"/>
-      <c r="N92" s="3">
-        <v>72</v>
-      </c>
-      <c r="O92" s="3">
-        <v>2.98416724216702</v>
-      </c>
-      <c r="P92" s="3">
-        <v>0.226802158068313</v>
-      </c>
-      <c r="Q92" s="3">
-        <v>-6.7855947857169002E-2</v>
-      </c>
-      <c r="R92" s="3">
-        <v>1.42676552123142E-2</v>
-      </c>
-      <c r="S92" s="3">
-        <v>4.2613596526689896</v>
-      </c>
-      <c r="T92" s="3">
-        <v>0.18413892279142299</v>
-      </c>
-      <c r="U92" s="3">
-        <v>-4.6551351271461696</v>
-      </c>
-      <c r="V92" s="3">
-        <v>5.3906304613240204E-4</v>
-      </c>
-      <c r="W92" s="3">
-        <v>0.11910394411061</v>
-      </c>
-      <c r="X92" s="4">
-        <v>-2.0194328020365799</v>
+        <f>F92-H92</f>
+        <v>2.6404989306172411E-10</v>
+      </c>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6">
+        <v>11</v>
+      </c>
+      <c r="O92" s="6">
+        <v>0.48045457539270597</v>
+      </c>
+      <c r="P92" s="6">
+        <v>1.9450539037194601E-2</v>
+      </c>
+      <c r="Q92" s="6">
+        <v>-0.45715875933939798</v>
+      </c>
+      <c r="R92" s="6">
+        <v>7.3519456759392498E-4</v>
+      </c>
+      <c r="S92" s="6">
+        <v>6.6437457329129798E-2</v>
+      </c>
+      <c r="T92" s="6">
+        <v>0</v>
+      </c>
+      <c r="U92" s="6">
+        <v>-0.45715188041587901</v>
+      </c>
+      <c r="V92" s="6">
+        <v>0</v>
+      </c>
+      <c r="W92" s="6">
+        <v>1.8806967197535E-2</v>
+      </c>
+      <c r="X92" s="7">
+        <v>0.88883879533587296</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
-        <v>22</v>
-      </c>
-      <c r="B93" s="6">
-        <v>25</v>
-      </c>
-      <c r="C93" s="6">
-        <v>11.6750443144467</v>
-      </c>
-      <c r="D93" s="6">
-        <v>11.6308072193206</v>
-      </c>
-      <c r="E93" s="6">
-        <v>11.5228695098525</v>
-      </c>
-      <c r="F93" s="6">
-        <v>10.961913733183</v>
-      </c>
-      <c r="G93" s="6">
-        <v>10.862533179892599</v>
-      </c>
-      <c r="H93" s="6">
-        <v>10.996159852045899</v>
-      </c>
-      <c r="I93" s="6">
-        <v>10.9830656125028</v>
-      </c>
-      <c r="J93" s="6"/>
+      <c r="A93" s="2">
+        <v>62</v>
+      </c>
+      <c r="B93" s="3">
+        <v>68</v>
+      </c>
+      <c r="C93" s="3">
+        <v>7.6905146182317701</v>
+      </c>
+      <c r="D93" s="3">
+        <v>7.3842920828227703</v>
+      </c>
+      <c r="E93" s="3">
+        <v>6.7246068225319604</v>
+      </c>
+      <c r="F93" s="3">
+        <v>2.7073300220300198</v>
+      </c>
+      <c r="G93" s="3">
+        <v>6.63190683091777</v>
+      </c>
+      <c r="H93" s="3">
+        <v>2.7073300219757801</v>
+      </c>
+      <c r="I93" s="3">
+        <v>6.7163557124743196</v>
+      </c>
+      <c r="J93" s="3"/>
       <c r="K93" s="11">
-        <f t="shared" si="0"/>
-        <v>0.71313058126369988</v>
+        <f>C93-F93</f>
+        <v>4.9831845962017507</v>
       </c>
       <c r="L93" s="11">
-        <f t="shared" si="1"/>
-        <v>-3.4246118862899522E-2</v>
-      </c>
-      <c r="M93" s="6"/>
-      <c r="N93" s="6">
-        <v>25</v>
-      </c>
-      <c r="O93" s="6">
-        <v>0.87121022153813399</v>
-      </c>
-      <c r="P93" s="6">
-        <v>4.2091366441030599E-2</v>
-      </c>
-      <c r="Q93" s="6">
-        <v>-7.9448687568403106E-2</v>
-      </c>
-      <c r="R93" s="6">
-        <v>9.2811589788087195E-4</v>
-      </c>
-      <c r="S93" s="6">
-        <v>-10</v>
-      </c>
-      <c r="T93" s="6">
-        <v>1.9355403172807201E-3</v>
-      </c>
-      <c r="U93" s="6">
-        <v>-0.72934913894833697</v>
-      </c>
-      <c r="V93" s="8">
-        <v>5.0507057436856401E-5</v>
-      </c>
-      <c r="W93" s="8">
-        <v>3.0448380410492698E-5</v>
-      </c>
-      <c r="X93" s="7">
-        <v>-0.40176715382225098</v>
+        <f>F93-H93</f>
+        <v>5.4239723823457098E-11</v>
+      </c>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3">
+        <v>68</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0.39502485184946501</v>
+      </c>
+      <c r="P93" s="3">
+        <v>9.90872398595599E-3</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>-0.433553368664502</v>
+      </c>
+      <c r="R93" s="3">
+        <v>7.7589686009208196E-4</v>
+      </c>
+      <c r="S93" s="3">
+        <v>5.0687840137311202E-2</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>-0.43355100989741002</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>8.9020396855860103E-3</v>
+      </c>
+      <c r="X93" s="4">
+        <v>0.87215193925202095</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <v>1</v>
-      </c>
-      <c r="B94" s="3">
-        <v>1</v>
-      </c>
-      <c r="C94" s="3">
-        <v>1.9604092332886101</v>
-      </c>
-      <c r="D94" s="3">
-        <v>1.83684595472972</v>
-      </c>
-      <c r="E94" s="3">
-        <v>1.6180028341691</v>
-      </c>
-      <c r="F94" s="3">
-        <v>1.23019144073759</v>
-      </c>
-      <c r="G94" s="3">
-        <v>1.25750320926248</v>
-      </c>
-      <c r="H94" s="3">
-        <v>1.23019140864153</v>
-      </c>
-      <c r="I94" s="3">
-        <v>1.6177034741951599</v>
-      </c>
-      <c r="J94" s="3"/>
+      <c r="A94" s="5">
+        <v>44</v>
+      </c>
+      <c r="B94" s="6">
+        <v>49</v>
+      </c>
+      <c r="C94" s="6">
+        <v>5.3777795448625003</v>
+      </c>
+      <c r="D94" s="6">
+        <v>5.2212983396215504</v>
+      </c>
+      <c r="E94" s="6">
+        <v>4.7700907436943902</v>
+      </c>
+      <c r="F94" s="6">
+        <v>1.81147000697869</v>
+      </c>
+      <c r="G94" s="6">
+        <v>4.7079375445409104</v>
+      </c>
+      <c r="H94" s="6">
+        <v>1.8114700069715799</v>
+      </c>
+      <c r="I94" s="6">
+        <v>4.7661319929711201</v>
+      </c>
+      <c r="J94" s="6"/>
       <c r="K94" s="11">
-        <f t="shared" si="0"/>
-        <v>0.73021779255102004</v>
+        <f>C94-F94</f>
+        <v>3.5663095378838103</v>
       </c>
       <c r="L94" s="11">
-        <f t="shared" si="1"/>
-        <v>3.209606003196086E-8</v>
-      </c>
-      <c r="M94" s="3"/>
-      <c r="N94" s="3">
-        <v>1</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0.47587419970709199</v>
-      </c>
-      <c r="P94" s="3">
-        <v>2.34549207963471E-2</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-5.7433290087549903E-2</v>
-      </c>
-      <c r="R94" s="3">
-        <v>5.32328475453344E-4</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-10</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-5.7452337369918602E-2</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3">
-        <v>2.2418944568830101E-2</v>
-      </c>
-      <c r="X94" s="4">
-        <v>0.87023372501943397</v>
+        <f>F94-H94</f>
+        <v>7.1100902943044275E-12</v>
+      </c>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6">
+        <v>49</v>
+      </c>
+      <c r="O94" s="6">
+        <v>0.57046031944911002</v>
+      </c>
+      <c r="P94" s="6">
+        <v>1.4885046166597899E-2</v>
+      </c>
+      <c r="Q94" s="6">
+        <v>-0.41872799646566999</v>
+      </c>
+      <c r="R94" s="6">
+        <v>5.1496962538305296E-4</v>
+      </c>
+      <c r="S94" s="6">
+        <v>0.100615412810907</v>
+      </c>
+      <c r="T94" s="6">
+        <v>0</v>
+      </c>
+      <c r="U94" s="6">
+        <v>-0.41872728699310802</v>
+      </c>
+      <c r="V94" s="6">
+        <v>0</v>
+      </c>
+      <c r="W94" s="6">
+        <v>1.35900263840952E-2</v>
+      </c>
+      <c r="X94" s="7">
+        <v>0.912653141608883</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B95" s="3">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C95" s="3">
-        <v>1.87750883347903</v>
+        <v>7.7015800272955302</v>
       </c>
       <c r="D95" s="3">
-        <v>1.7520741400942901</v>
+        <v>7.3354697200995904</v>
       </c>
       <c r="E95" s="3">
-        <v>1.55119681479822</v>
+        <v>6.6491377803707996</v>
       </c>
       <c r="F95" s="3">
-        <v>0.86781630140349397</v>
+        <v>3.3628649846735801</v>
       </c>
       <c r="G95" s="3">
-        <v>1.5408292525060501</v>
+        <v>6.5801452208579798</v>
       </c>
       <c r="H95" s="3">
-        <v>0.88166525752546998</v>
+        <v>3.3628649846848799</v>
       </c>
       <c r="I95" s="3">
-        <v>1.33313979335165</v>
+        <v>6.64622495398305</v>
       </c>
       <c r="J95" s="3"/>
       <c r="K95" s="11">
-        <f t="shared" si="0"/>
-        <v>1.0096925320755359</v>
+        <f>C95-F95</f>
+        <v>4.3387150426219501</v>
       </c>
       <c r="L95" s="11">
-        <f t="shared" si="1"/>
-        <v>-1.3848956121976008E-2</v>
+        <f>F95-H95</f>
+        <v>-1.1299849944634843E-11</v>
       </c>
       <c r="M95" s="3"/>
       <c r="N95" s="3">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="O95" s="3">
-        <v>0.54164450010322496</v>
+        <v>0.33909882711470402</v>
       </c>
       <c r="P95" s="3">
-        <v>3.3966168667094801E-2</v>
+        <v>9.3346467594174597E-3</v>
       </c>
       <c r="Q95" s="3">
-        <v>-8.8865888147125302E-2</v>
+        <v>-0.386945988282832</v>
       </c>
       <c r="R95" s="3">
-        <v>4.7498507024196701E-4</v>
+        <v>7.53535542306715E-4</v>
       </c>
       <c r="S95" s="3">
-        <v>9.6509389681839905E-2</v>
+        <v>8.3444004283788606E-2</v>
       </c>
       <c r="T95" s="3">
-        <v>1.4793053789079399E-3</v>
+        <v>0</v>
       </c>
       <c r="U95" s="3">
-        <v>-0.79735303217829001</v>
+        <v>-0.38694707538613299</v>
       </c>
       <c r="V95" s="3">
         <v>0</v>
       </c>
       <c r="W95" s="3">
-        <v>6.8240741390648201E-4</v>
+        <v>8.8473507924377408E-3</v>
       </c>
       <c r="X95" s="4">
-        <v>2.4088911758606901</v>
+        <v>0.92206415215648196</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A96" s="5">
-        <v>41</v>
-      </c>
-      <c r="B96" s="6">
-        <v>45</v>
-      </c>
-      <c r="C96" s="6">
-        <v>1.87111503754626</v>
-      </c>
-      <c r="D96" s="6">
-        <v>1.8473232879314201</v>
-      </c>
-      <c r="E96" s="6">
-        <v>1.7694156564551899</v>
-      </c>
-      <c r="F96" s="6">
-        <v>0.72483114156447503</v>
-      </c>
-      <c r="G96" s="6">
-        <v>1.0361793110142801</v>
-      </c>
-      <c r="H96" s="6">
-        <v>0.73385186011759296</v>
-      </c>
-      <c r="I96" s="6">
-        <v>1.0358124789679899</v>
-      </c>
-      <c r="J96" s="6"/>
+      <c r="A96" s="2">
+        <v>71</v>
+      </c>
+      <c r="B96" s="3">
+        <v>77</v>
+      </c>
+      <c r="C96" s="3">
+        <v>5.8652314376299399</v>
+      </c>
+      <c r="D96" s="3">
+        <v>5.4551467655588404</v>
+      </c>
+      <c r="E96" s="3">
+        <v>4.8373860950361802</v>
+      </c>
+      <c r="F96" s="3">
+        <v>2.6128240791536501</v>
+      </c>
+      <c r="G96" s="3">
+        <v>4.7848657900606497</v>
+      </c>
+      <c r="H96" s="3">
+        <v>2.6128240778695799</v>
+      </c>
+      <c r="I96" s="3">
+        <v>4.8374498242465096</v>
+      </c>
+      <c r="J96" s="3"/>
       <c r="K96" s="11">
-        <f t="shared" si="0"/>
-        <v>1.1462838959817849</v>
+        <f>C96-F96</f>
+        <v>3.2524073584762898</v>
       </c>
       <c r="L96" s="11">
-        <f t="shared" si="1"/>
-        <v>-9.0207185531179235E-3</v>
-      </c>
-      <c r="M96" s="6"/>
-      <c r="N96" s="6">
-        <v>45</v>
-      </c>
-      <c r="O96" s="6">
-        <v>1.8383397042123999</v>
-      </c>
-      <c r="P96" s="6">
-        <v>0.160198023093053</v>
-      </c>
-      <c r="Q96" s="6">
-        <v>-9.7495362117198503E-2</v>
-      </c>
-      <c r="R96" s="6">
-        <v>5.4765671332938698E-4</v>
-      </c>
-      <c r="S96" s="6">
-        <v>-10</v>
-      </c>
-      <c r="T96" s="6">
-        <v>6.6315923488280998E-2</v>
-      </c>
-      <c r="U96" s="6">
-        <v>-3.2312150245484701</v>
-      </c>
-      <c r="V96" s="6">
-        <v>0</v>
-      </c>
-      <c r="W96" s="6">
-        <v>1.9875631394269399E-4</v>
-      </c>
-      <c r="X96" s="7">
-        <v>-10</v>
+        <f>F96-H96</f>
+        <v>1.2840701835159507E-9</v>
+      </c>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3">
+        <v>77</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0.292021305882746</v>
+      </c>
+      <c r="P96" s="3">
+        <v>1.2674819759808199E-2</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>-0.25778501375473301</v>
+      </c>
+      <c r="R96" s="3">
+        <v>5.12343033110087E-4</v>
+      </c>
+      <c r="S96" s="3">
+        <v>9.5890563948996602E-2</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>-0.25777664694192698</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>1.25191937306073E-2</v>
+      </c>
+      <c r="X96" s="4">
+        <v>0.96803598427234605</v>
       </c>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B97" s="3">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C97" s="3">
-        <v>2.1690984891829301</v>
+        <v>5.1107382097076801</v>
       </c>
       <c r="D97" s="3">
-        <v>2.1088170231927101</v>
+        <v>4.82982248592341</v>
       </c>
       <c r="E97" s="3">
-        <v>1.8997496328461101</v>
+        <v>4.2846538861634897</v>
       </c>
       <c r="F97" s="3">
-        <v>0.72481358569352305</v>
+        <v>2.0749380984014101</v>
       </c>
       <c r="G97" s="3">
-        <v>1.21863519287122</v>
+        <v>4.2331827373525304</v>
       </c>
       <c r="H97" s="3">
-        <v>0.74535690644038499</v>
+        <v>2.0749380984372898</v>
       </c>
       <c r="I97" s="3">
-        <v>0.72481351382037096</v>
+        <v>4.2847903763622899</v>
       </c>
       <c r="J97" s="3"/>
       <c r="K97" s="11">
-        <f t="shared" si="0"/>
-        <v>1.444284903489407</v>
+        <f>C97-F97</f>
+        <v>3.03580011130627</v>
       </c>
       <c r="L97" s="11">
-        <f t="shared" si="1"/>
-        <v>-2.0543320746861937E-2</v>
+        <f>F97-H97</f>
+        <v>-3.5879743620625959E-11</v>
       </c>
       <c r="M97" s="3"/>
       <c r="N97" s="3">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="O97" s="3">
-        <v>0.87591354741612204</v>
+        <v>0.36149372549442499</v>
       </c>
       <c r="P97" s="3">
-        <v>3.2201349470271798E-2</v>
+        <v>1.34377786333872E-2</v>
       </c>
       <c r="Q97" s="3">
-        <v>-0.123393649649362</v>
+        <v>-0.22431731716703401</v>
       </c>
       <c r="R97" s="3">
-        <v>9.5410029862750601E-4</v>
+        <v>7.5380010572348997E-4</v>
       </c>
       <c r="S97" s="3">
-        <v>-10</v>
+        <v>9.5454602594387303E-2</v>
       </c>
       <c r="T97" s="3">
-        <v>1.55047950502486E-3</v>
+        <v>0</v>
       </c>
       <c r="U97" s="3">
-        <v>-1.1202995855109299</v>
+        <v>-0.22431897944985099</v>
       </c>
       <c r="V97" s="3">
         <v>0</v>
       </c>
       <c r="W97" s="3">
-        <v>0</v>
+        <v>1.31284406550533E-2</v>
       </c>
       <c r="X97" s="4">
-        <v>-0.123431275323867</v>
+        <v>0.93553169309017703</v>
       </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>8</v>
-      </c>
-      <c r="B98" s="3">
-        <v>10</v>
-      </c>
-      <c r="C98" s="3">
-        <v>3.1596885107608599</v>
-      </c>
-      <c r="D98" s="3">
-        <v>3.10592853006401</v>
-      </c>
-      <c r="E98" s="3">
-        <v>2.89915483785679</v>
-      </c>
-      <c r="F98" s="3">
-        <v>1.09967502172216</v>
-      </c>
-      <c r="G98" s="3">
-        <v>1.9155885731275499</v>
-      </c>
-      <c r="H98" s="3">
-        <v>1.1425373731683599</v>
-      </c>
-      <c r="I98" s="3">
-        <v>1.0996750217495901</v>
-      </c>
-      <c r="J98" s="3"/>
+      <c r="A98" s="5">
+        <v>43</v>
+      </c>
+      <c r="B98" s="6">
+        <v>47</v>
+      </c>
+      <c r="C98" s="6">
+        <v>8.1516030687801599</v>
+      </c>
+      <c r="D98" s="6">
+        <v>7.6028631706470904</v>
+      </c>
+      <c r="E98" s="6">
+        <v>6.8995878038184397</v>
+      </c>
+      <c r="F98" s="6">
+        <v>4.8637621089574399</v>
+      </c>
+      <c r="G98" s="6">
+        <v>6.8379238568188896</v>
+      </c>
+      <c r="H98" s="6">
+        <v>4.8637621089902199</v>
+      </c>
+      <c r="I98" s="6">
+        <v>6.8975890946645304</v>
+      </c>
+      <c r="J98" s="6"/>
       <c r="K98" s="11">
-        <f t="shared" si="0"/>
-        <v>2.0600134890386999</v>
+        <f>C98-F98</f>
+        <v>3.2878409598227201</v>
       </c>
       <c r="L98" s="11">
-        <f t="shared" si="1"/>
-        <v>-4.2862351446199876E-2</v>
-      </c>
-      <c r="M98" s="3"/>
-      <c r="N98" s="3">
-        <v>10</v>
-      </c>
-      <c r="O98" s="3">
-        <v>1.12962993242845</v>
-      </c>
-      <c r="P98" s="3">
-        <v>5.2943924373376902E-2</v>
-      </c>
-      <c r="Q98" s="3">
-        <v>-0.179820514605953</v>
-      </c>
-      <c r="R98" s="9">
-        <v>-1.7347234759768102E-18</v>
-      </c>
-      <c r="S98" s="3">
-        <v>-10</v>
-      </c>
-      <c r="T98" s="3">
-        <v>1.4186143190357901E-3</v>
-      </c>
-      <c r="U98" s="3">
-        <v>-1.5403353095332</v>
-      </c>
-      <c r="V98" s="3">
-        <v>0</v>
-      </c>
-      <c r="W98" s="3">
-        <v>0</v>
-      </c>
-      <c r="X98" s="4">
-        <v>-0.17982087337261199</v>
+        <f>F98-H98</f>
+        <v>-3.2780000935872522E-11</v>
+      </c>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6">
+        <v>47</v>
+      </c>
+      <c r="O98" s="6">
+        <v>0.22281212105720799</v>
+      </c>
+      <c r="P98" s="6">
+        <v>4.6744360778498001E-3</v>
+      </c>
+      <c r="Q98" s="6">
+        <v>-0.222140070636033</v>
+      </c>
+      <c r="R98" s="6">
+        <v>9.9845608405497305E-4</v>
+      </c>
+      <c r="S98" s="6">
+        <v>9.4999219832141199E-2</v>
+      </c>
+      <c r="T98" s="6">
+        <v>0</v>
+      </c>
+      <c r="U98" s="6">
+        <v>-0.22214163992518299</v>
+      </c>
+      <c r="V98" s="6">
+        <v>0</v>
+      </c>
+      <c r="W98" s="6">
+        <v>4.5214729163324001E-3</v>
+      </c>
+      <c r="X98" s="7">
+        <v>0.95487031712071702</v>
       </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B99" s="6">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C99" s="6">
-        <v>3.7642466603296598</v>
+        <v>6.2516039759156197</v>
       </c>
       <c r="D99" s="6">
-        <v>3.66519427478431</v>
+        <v>5.9381422549861496</v>
       </c>
       <c r="E99" s="6">
-        <v>3.3805328777706301</v>
+        <v>5.2590237640920696</v>
       </c>
       <c r="F99" s="6">
-        <v>1.4923573892428399</v>
+        <v>2.5105505857297801</v>
       </c>
       <c r="G99" s="6">
-        <v>2.5966064348448299</v>
+        <v>5.1603954707904203</v>
       </c>
       <c r="H99" s="6">
-        <v>1.48399651212118</v>
+        <v>2.5105505857612198</v>
       </c>
       <c r="I99" s="6">
-        <v>3.37854720742008</v>
+        <v>5.2533495163307604</v>
       </c>
       <c r="J99" s="6"/>
       <c r="K99" s="11">
-        <f t="shared" si="0"/>
-        <v>2.2718892710868199</v>
+        <f>C99-F99</f>
+        <v>3.7410533901858396</v>
       </c>
       <c r="L99" s="11">
-        <f t="shared" si="1"/>
-        <v>8.3608771216598932E-3</v>
+        <f>F99-H99</f>
+        <v>-3.1439739700545033E-11</v>
       </c>
       <c r="M99" s="6"/>
       <c r="N99" s="6">
+        <v>17</v>
+      </c>
+      <c r="O99" s="6">
+        <v>0.41823931894674099</v>
+      </c>
+      <c r="P99" s="6">
+        <v>1.2488865268232299E-2</v>
+      </c>
+      <c r="Q99" s="6">
+        <v>-0.21549926096754199</v>
+      </c>
+      <c r="R99" s="6">
+        <v>8.2330684441802898E-4</v>
+      </c>
+      <c r="S99" s="6">
+        <v>4.47142781127257E-2</v>
+      </c>
+      <c r="T99" s="6">
+        <v>0</v>
+      </c>
+      <c r="U99" s="6">
+        <v>-0.21549969364700999</v>
+      </c>
+      <c r="V99" s="6">
+        <v>0</v>
+      </c>
+      <c r="W99" s="6">
+        <v>1.1204141078180199E-2</v>
+      </c>
+      <c r="X99" s="7">
+        <v>0.88410429972666804</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A100" s="5">
+        <v>23</v>
+      </c>
+      <c r="B100" s="6">
         <v>26</v>
       </c>
-      <c r="O99" s="6">
+      <c r="C100" s="6">
+        <v>3.7642466603296598</v>
+      </c>
+      <c r="D100" s="6">
+        <v>3.66519427478431</v>
+      </c>
+      <c r="E100" s="6">
+        <v>3.3805328777706301</v>
+      </c>
+      <c r="F100" s="6">
+        <v>1.4923573892428399</v>
+      </c>
+      <c r="G100" s="6">
+        <v>2.5966064348448299</v>
+      </c>
+      <c r="H100" s="6">
+        <v>1.48399651212118</v>
+      </c>
+      <c r="I100" s="6">
+        <v>3.37854720742008</v>
+      </c>
+      <c r="J100" s="6"/>
+      <c r="K100" s="11">
+        <f>C100-F100</f>
+        <v>2.2718892710868199</v>
+      </c>
+      <c r="L100" s="11">
+        <f>F100-H100</f>
+        <v>8.3608771216598932E-3</v>
+      </c>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6">
+        <v>26</v>
+      </c>
+      <c r="O100" s="6">
         <v>0.80110573047058797</v>
       </c>
-      <c r="P99" s="6">
+      <c r="P100" s="6">
         <v>3.2432280652014103E-2</v>
       </c>
-      <c r="Q99" s="6">
+      <c r="Q100" s="6">
         <v>-0.21165439015113799</v>
       </c>
-      <c r="R99" s="6">
+      <c r="R100" s="6">
         <v>4.4338880554479999E-4</v>
       </c>
-      <c r="S99" s="6">
+      <c r="S100" s="6">
         <v>-10</v>
       </c>
-      <c r="T99" s="6">
+      <c r="T100" s="6">
         <v>6.5076899778915797E-4</v>
       </c>
-      <c r="U99" s="6">
+      <c r="U100" s="6">
         <v>-1.5855699074185401</v>
       </c>
-      <c r="V99" s="6">
-        <v>0</v>
-      </c>
-      <c r="W99" s="6">
+      <c r="V100" s="6">
+        <v>0</v>
+      </c>
+      <c r="W100" s="6">
         <v>3.1000189470409799E-2</v>
       </c>
-      <c r="X99" s="7">
+      <c r="X100" s="7">
         <v>0.91554113292690398</v>
-      </c>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
-        <v>45</v>
-      </c>
-      <c r="B100" s="3">
-        <v>50</v>
-      </c>
-      <c r="C100" s="3">
-        <v>4.7571208637866604</v>
-      </c>
-      <c r="D100" s="3">
-        <v>4.7377712462027999</v>
-      </c>
-      <c r="E100" s="3">
-        <v>4.6036365261926697</v>
-      </c>
-      <c r="F100" s="3">
-        <v>2.43398780187893</v>
-      </c>
-      <c r="G100" s="3">
-        <v>2.4339878018281902</v>
-      </c>
-      <c r="H100" s="3">
-        <v>2.3284594570391999</v>
-      </c>
-      <c r="I100" s="3">
-        <v>4.6067193529323802</v>
-      </c>
-      <c r="J100" s="3"/>
-      <c r="K100" s="11">
-        <f t="shared" si="0"/>
-        <v>2.3231330619077304</v>
-      </c>
-      <c r="L100" s="11">
-        <f t="shared" si="1"/>
-        <v>0.10552834483973017</v>
-      </c>
-      <c r="M100" s="3"/>
-      <c r="N100" s="3">
-        <v>50</v>
-      </c>
-      <c r="O100" s="3">
-        <v>2.2280722696241901</v>
-      </c>
-      <c r="P100" s="3">
-        <v>9.0179686702550499E-2</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-0.18984943485084399</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>-0.189848947601615</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0.12122872861716601</v>
-      </c>
-      <c r="U100" s="3">
-        <v>-10</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3">
-        <v>9.3680589979526302E-2</v>
-      </c>
-      <c r="X100" s="4">
-        <v>0.84733100193286603</v>
       </c>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B101" s="6">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="C101" s="6">
-        <v>6.0974225569471203</v>
+        <v>14.3955170355474</v>
       </c>
       <c r="D101" s="6">
-        <v>5.6899357807272697</v>
+        <v>14.249824961498399</v>
       </c>
       <c r="E101" s="6">
-        <v>5.0884271972064301</v>
+        <v>13.826220337103001</v>
       </c>
       <c r="F101" s="6">
-        <v>3.7208245129247701</v>
+        <v>11.4743181917705</v>
       </c>
       <c r="G101" s="6">
-        <v>5.0216909187029097</v>
+        <v>12.773677540435701</v>
       </c>
       <c r="H101" s="6">
-        <v>3.7208245039775698</v>
+        <v>11.4743181834959</v>
       </c>
       <c r="I101" s="6">
-        <v>5.0852063065083399</v>
+        <v>13.8268183968498</v>
       </c>
       <c r="J101" s="6"/>
       <c r="K101" s="11">
-        <f t="shared" si="0"/>
-        <v>2.3765980440223502</v>
+        <f>C101-F101</f>
+        <v>2.9211988437768994</v>
       </c>
       <c r="L101" s="11">
-        <f t="shared" si="1"/>
-        <v>8.9472003139690059E-9</v>
+        <f>F101-H101</f>
+        <v>8.2746005602984951E-9</v>
       </c>
       <c r="M101" s="6"/>
       <c r="N101" s="6">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="O101" s="6">
-        <v>0.27832445653167498</v>
+        <v>0.61361263694981405</v>
       </c>
       <c r="P101" s="6">
-        <v>6.0452291501552199E-3</v>
+        <v>2.89628079378275E-2</v>
       </c>
       <c r="Q101" s="6">
-        <v>-0.14216528304123899</v>
+        <v>-0.20963161773083799</v>
       </c>
       <c r="R101" s="6">
-        <v>5.1243660887916997E-4</v>
+        <v>4.5205271837951802E-4</v>
       </c>
       <c r="S101" s="6">
-        <v>9.2033552527784904E-2</v>
+        <v>-10</v>
       </c>
       <c r="T101" s="6">
         <v>0</v>
       </c>
       <c r="U101" s="6">
-        <v>-0.142182045283401</v>
+        <v>-0.20964987579464101</v>
       </c>
       <c r="V101" s="6">
         <v>0</v>
       </c>
       <c r="W101" s="6">
-        <v>5.4955935632953097E-3</v>
+        <v>2.8302083411990499E-2</v>
       </c>
       <c r="X101" s="7">
-        <v>0.93956409090314097</v>
+        <v>0.91075478689529599</v>
       </c>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B102" s="3">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="C102" s="3">
-        <v>4.7005601748527903</v>
+        <v>6.2611721511532803</v>
       </c>
       <c r="D102" s="3">
-        <v>4.2012465700447796</v>
+        <v>6.1004334778054297</v>
       </c>
       <c r="E102" s="3">
-        <v>3.5763434490047898</v>
+        <v>5.5910089365879596</v>
       </c>
       <c r="F102" s="3">
-        <v>2.0577351237991</v>
+        <v>3.2750286869151899</v>
       </c>
       <c r="G102" s="3">
-        <v>2.7218158790615501</v>
+        <v>4.4998546662785897</v>
       </c>
       <c r="H102" s="3">
-        <v>2.05773512255861</v>
+        <v>3.2750286869313698</v>
       </c>
       <c r="I102" s="3">
-        <v>3.57352220884591</v>
+        <v>5.59117195622526</v>
       </c>
       <c r="J102" s="3"/>
       <c r="K102" s="11">
-        <f t="shared" si="0"/>
-        <v>2.6428250510536904</v>
+        <f>C102-F102</f>
+        <v>2.9861434642380904</v>
       </c>
       <c r="L102" s="11">
-        <f t="shared" si="1"/>
-        <v>1.2404899329965247E-9</v>
+        <f>F102-H102</f>
+        <v>-1.6179946271677181E-11</v>
       </c>
       <c r="M102" s="3"/>
       <c r="N102" s="3">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="O102" s="3">
-        <v>0.249072178406467</v>
+        <v>0.63805646037507902</v>
       </c>
       <c r="P102" s="3">
-        <v>6.8270720773400502E-3</v>
+        <v>2.53877791337647E-2</v>
       </c>
       <c r="Q102" s="3">
-        <v>-0.15128855585095199</v>
+        <v>-0.20321106567205499</v>
       </c>
       <c r="R102" s="3">
-        <v>9.975931433006931E-4</v>
+        <v>6.6632558893628402E-4</v>
       </c>
       <c r="S102" s="3">
         <v>-10</v>
@@ -8580,304 +8590,304 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>-0.15129424093222499</v>
+        <v>-0.20321136324997</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
       <c r="W102" s="3">
-        <v>6.4516587156911E-3</v>
+        <v>2.4538817004550201E-2</v>
       </c>
       <c r="X102" s="4">
-        <v>0.93351075255794203</v>
+        <v>0.93263516385372902</v>
       </c>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A103" s="5">
-        <v>26</v>
-      </c>
-      <c r="B103" s="6">
-        <v>29</v>
-      </c>
-      <c r="C103" s="6">
-        <v>6.9059227685356204</v>
-      </c>
-      <c r="D103" s="6">
-        <v>6.3340445392895397</v>
-      </c>
-      <c r="E103" s="6">
-        <v>5.6074271718199098</v>
-      </c>
-      <c r="F103" s="6">
-        <v>3.9888065908484398</v>
-      </c>
-      <c r="G103" s="6">
-        <v>4.7913012934139001</v>
-      </c>
-      <c r="H103" s="6">
-        <v>3.9888065906864001</v>
-      </c>
-      <c r="I103" s="6">
-        <v>5.6037304092502804</v>
-      </c>
-      <c r="J103" s="6"/>
+      <c r="A103" s="2">
+        <v>39</v>
+      </c>
+      <c r="B103" s="3">
+        <v>43</v>
+      </c>
+      <c r="C103" s="3">
+        <v>17.425677474210602</v>
+      </c>
+      <c r="D103" s="3">
+        <v>16.9038964859845</v>
+      </c>
+      <c r="E103" s="3">
+        <v>16.2312874424318</v>
+      </c>
+      <c r="F103" s="3">
+        <v>14.507368809675</v>
+      </c>
+      <c r="G103" s="3">
+        <v>14.5073688094914</v>
+      </c>
+      <c r="H103" s="3">
+        <v>14.5073688094958</v>
+      </c>
+      <c r="I103" s="3">
+        <v>16.2251145446503</v>
+      </c>
+      <c r="J103" s="3"/>
       <c r="K103" s="11">
-        <f t="shared" si="0"/>
-        <v>2.9171161776871806</v>
+        <f>C103-F103</f>
+        <v>2.9183086645356013</v>
       </c>
       <c r="L103" s="11">
-        <f t="shared" si="1"/>
-        <v>1.620397149793007E-10</v>
-      </c>
-      <c r="M103" s="6"/>
-      <c r="N103" s="6">
-        <v>29</v>
-      </c>
-      <c r="O103" s="6">
-        <v>0.22600222344196999</v>
-      </c>
-      <c r="P103" s="6">
-        <v>4.8221805758001902E-3</v>
-      </c>
-      <c r="Q103" s="6">
-        <v>-0.16408854916584101</v>
-      </c>
-      <c r="R103" s="6">
-        <v>9.8999851138073503E-4</v>
-      </c>
-      <c r="S103" s="6">
-        <v>-10</v>
-      </c>
-      <c r="T103" s="6">
-        <v>0</v>
-      </c>
-      <c r="U103" s="6">
-        <v>-0.16409276457585101</v>
-      </c>
-      <c r="V103" s="6">
-        <v>0</v>
-      </c>
-      <c r="W103" s="6">
-        <v>4.3975838061995204E-3</v>
-      </c>
-      <c r="X103" s="7">
-        <v>0.92447160505009995</v>
+        <f>F103-H103</f>
+        <v>1.7920065431553667E-10</v>
+      </c>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3">
+        <v>43</v>
+      </c>
+      <c r="O103" s="3">
+        <v>0.22840053829118501</v>
+      </c>
+      <c r="P103" s="3">
+        <v>2.9296505215654599E-3</v>
+      </c>
+      <c r="Q103" s="3">
+        <v>-0.19167185624873001</v>
+      </c>
+      <c r="R103" s="3">
+        <v>0</v>
+      </c>
+      <c r="S103" s="3">
+        <v>-0.19167011458060099</v>
+      </c>
+      <c r="T103" s="3">
+        <v>0</v>
+      </c>
+      <c r="U103" s="3">
+        <v>-0.191670180568043</v>
+      </c>
+      <c r="V103" s="3">
+        <v>0</v>
+      </c>
+      <c r="W103" s="3">
+        <v>2.5780043187317802E-3</v>
+      </c>
+      <c r="X103" s="4">
+        <v>0.91765258614128398</v>
       </c>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B104" s="3">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C104" s="3">
-        <v>17.425677474210602</v>
+        <v>6.0392940844985201</v>
       </c>
       <c r="D104" s="3">
-        <v>16.9038964859845</v>
+        <v>5.2625496240064296</v>
       </c>
       <c r="E104" s="3">
-        <v>16.2312874424318</v>
+        <v>4.4209680131372799</v>
       </c>
       <c r="F104" s="3">
-        <v>14.507368809675</v>
+        <v>2.4437720534727498</v>
       </c>
       <c r="G104" s="3">
-        <v>14.5073688094914</v>
+        <v>2.4437720533490301</v>
       </c>
       <c r="H104" s="3">
-        <v>14.5073688094958</v>
+        <v>2.4437720533481202</v>
       </c>
       <c r="I104" s="3">
-        <v>16.2251145446503</v>
+        <v>4.4183259332465497</v>
       </c>
       <c r="J104" s="3"/>
       <c r="K104" s="11">
-        <f t="shared" si="0"/>
-        <v>2.9183086645356013</v>
+        <f>C104-F104</f>
+        <v>3.5955220310257703</v>
       </c>
       <c r="L104" s="11">
-        <f t="shared" si="1"/>
-        <v>1.7920065431553667E-10</v>
+        <f>F104-H104</f>
+        <v>1.2462963994153142E-10</v>
       </c>
       <c r="M104" s="3"/>
       <c r="N104" s="3">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="O104" s="3">
-        <v>0.22840053829118501</v>
+        <v>0.19719015319095001</v>
       </c>
       <c r="P104" s="3">
-        <v>2.9296505215654599E-3</v>
+        <v>3.3846600730851701E-3</v>
       </c>
       <c r="Q104" s="3">
-        <v>-0.19167185624873001</v>
+        <v>-0.18998618967814301</v>
       </c>
       <c r="R104" s="3">
         <v>0</v>
       </c>
       <c r="S104" s="3">
-        <v>-0.19167011458060099</v>
+        <v>-0.189985057573309</v>
       </c>
       <c r="T104" s="3">
         <v>0</v>
       </c>
       <c r="U104" s="3">
-        <v>-0.191670180568043</v>
+        <v>-0.189985045850905</v>
       </c>
       <c r="V104" s="3">
         <v>0</v>
       </c>
       <c r="W104" s="3">
-        <v>2.5780043187317802E-3</v>
+        <v>3.2592180031802702E-3</v>
       </c>
       <c r="X104" s="4">
-        <v>0.91765258614128398</v>
+        <v>0.95951873944814003</v>
       </c>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A105" s="5">
-        <v>21</v>
-      </c>
-      <c r="B105" s="6">
-        <v>24</v>
-      </c>
-      <c r="C105" s="6">
-        <v>14.3955170355474</v>
-      </c>
-      <c r="D105" s="6">
-        <v>14.249824961498399</v>
-      </c>
-      <c r="E105" s="6">
-        <v>13.826220337103001</v>
-      </c>
-      <c r="F105" s="6">
-        <v>11.4743181917705</v>
-      </c>
-      <c r="G105" s="6">
-        <v>12.773677540435701</v>
-      </c>
-      <c r="H105" s="6">
-        <v>11.4743181834959</v>
-      </c>
-      <c r="I105" s="6">
-        <v>13.8268183968498</v>
-      </c>
-      <c r="J105" s="6"/>
+      <c r="A105" s="2">
+        <v>45</v>
+      </c>
+      <c r="B105" s="3">
+        <v>50</v>
+      </c>
+      <c r="C105" s="3">
+        <v>4.7571208637866604</v>
+      </c>
+      <c r="D105" s="3">
+        <v>4.7377712462027999</v>
+      </c>
+      <c r="E105" s="3">
+        <v>4.6036365261926697</v>
+      </c>
+      <c r="F105" s="3">
+        <v>2.43398780187893</v>
+      </c>
+      <c r="G105" s="3">
+        <v>2.4339878018281902</v>
+      </c>
+      <c r="H105" s="3">
+        <v>2.3284594570391999</v>
+      </c>
+      <c r="I105" s="3">
+        <v>4.6067193529323802</v>
+      </c>
+      <c r="J105" s="3"/>
       <c r="K105" s="11">
-        <f t="shared" si="0"/>
-        <v>2.9211988437768994</v>
+        <f>C105-F105</f>
+        <v>2.3231330619077304</v>
       </c>
       <c r="L105" s="11">
-        <f t="shared" si="1"/>
-        <v>8.2746005602984951E-9</v>
-      </c>
-      <c r="M105" s="6"/>
-      <c r="N105" s="6">
-        <v>24</v>
-      </c>
-      <c r="O105" s="6">
-        <v>0.61361263694981405</v>
-      </c>
-      <c r="P105" s="6">
-        <v>2.89628079378275E-2</v>
-      </c>
-      <c r="Q105" s="6">
-        <v>-0.20963161773083799</v>
-      </c>
-      <c r="R105" s="6">
-        <v>4.5205271837951802E-4</v>
-      </c>
-      <c r="S105" s="6">
+        <f>F105-H105</f>
+        <v>0.10552834483973017</v>
+      </c>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3">
+        <v>50</v>
+      </c>
+      <c r="O105" s="3">
+        <v>2.2280722696241901</v>
+      </c>
+      <c r="P105" s="3">
+        <v>9.0179686702550499E-2</v>
+      </c>
+      <c r="Q105" s="3">
+        <v>-0.18984943485084399</v>
+      </c>
+      <c r="R105" s="3">
+        <v>0</v>
+      </c>
+      <c r="S105" s="3">
+        <v>-0.189848947601615</v>
+      </c>
+      <c r="T105" s="3">
+        <v>0.12122872861716601</v>
+      </c>
+      <c r="U105" s="3">
         <v>-10</v>
       </c>
-      <c r="T105" s="6">
-        <v>0</v>
-      </c>
-      <c r="U105" s="6">
-        <v>-0.20964987579464101</v>
-      </c>
-      <c r="V105" s="6">
-        <v>0</v>
-      </c>
-      <c r="W105" s="6">
-        <v>2.8302083411990499E-2</v>
-      </c>
-      <c r="X105" s="7">
-        <v>0.91075478689529599</v>
+      <c r="V105" s="3">
+        <v>0</v>
+      </c>
+      <c r="W105" s="3">
+        <v>9.3680589979526302E-2</v>
+      </c>
+      <c r="X105" s="4">
+        <v>0.84733100193286603</v>
       </c>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B106" s="3">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C106" s="3">
-        <v>6.2611721511532803</v>
+        <v>3.1596885107608599</v>
       </c>
       <c r="D106" s="3">
-        <v>6.1004334778054297</v>
+        <v>3.10592853006401</v>
       </c>
       <c r="E106" s="3">
-        <v>5.5910089365879596</v>
+        <v>2.89915483785679</v>
       </c>
       <c r="F106" s="3">
-        <v>3.2750286869151899</v>
+        <v>1.09967502172216</v>
       </c>
       <c r="G106" s="3">
-        <v>4.4998546662785897</v>
+        <v>1.9155885731275499</v>
       </c>
       <c r="H106" s="3">
-        <v>3.2750286869313698</v>
+        <v>1.1425373731683599</v>
       </c>
       <c r="I106" s="3">
-        <v>5.59117195622526</v>
+        <v>1.0996750217495901</v>
       </c>
       <c r="J106" s="3"/>
       <c r="K106" s="11">
-        <f t="shared" si="0"/>
-        <v>2.9861434642380904</v>
+        <f>C106-F106</f>
+        <v>2.0600134890386999</v>
       </c>
       <c r="L106" s="11">
-        <f t="shared" si="1"/>
-        <v>-1.6179946271677181E-11</v>
+        <f>F106-H106</f>
+        <v>-4.2862351446199876E-2</v>
       </c>
       <c r="M106" s="3"/>
       <c r="N106" s="3">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="O106" s="3">
-        <v>0.63805646037507902</v>
+        <v>1.12962993242845</v>
       </c>
       <c r="P106" s="3">
-        <v>2.53877791337647E-2</v>
+        <v>5.2943924373376902E-2</v>
       </c>
       <c r="Q106" s="3">
-        <v>-0.20321106567205499</v>
-      </c>
-      <c r="R106" s="3">
-        <v>6.6632558893628402E-4</v>
+        <v>-0.179820514605953</v>
+      </c>
+      <c r="R106" s="9">
+        <v>-1.7347234759768102E-18</v>
       </c>
       <c r="S106" s="3">
         <v>-10</v>
       </c>
       <c r="T106" s="3">
-        <v>0</v>
+        <v>1.4186143190357901E-3</v>
       </c>
       <c r="U106" s="3">
-        <v>-0.20321136324997</v>
+        <v>-1.5403353095332</v>
       </c>
       <c r="V106" s="3">
         <v>0</v>
       </c>
       <c r="W106" s="3">
-        <v>2.4538817004550201E-2</v>
+        <v>0</v>
       </c>
       <c r="X106" s="4">
-        <v>0.93263516385372902</v>
+        <v>-0.17982087337261199</v>
       </c>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.25">
@@ -8910,11 +8920,11 @@
       </c>
       <c r="J107" s="6"/>
       <c r="K107" s="11">
-        <f t="shared" si="0"/>
+        <f>C107-F107</f>
         <v>3.0131715493971796</v>
       </c>
       <c r="L107" s="11">
-        <f t="shared" si="1"/>
+        <f>F107-H107</f>
         <v>3.307530249685442E-9</v>
       </c>
       <c r="M107" s="6"/>
@@ -8953,939 +8963,939 @@
       </c>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
-        <v>50</v>
-      </c>
-      <c r="B108" s="3">
-        <v>55</v>
-      </c>
-      <c r="C108" s="3">
-        <v>5.1107382097076801</v>
-      </c>
-      <c r="D108" s="3">
-        <v>4.82982248592341</v>
-      </c>
-      <c r="E108" s="3">
-        <v>4.2846538861634897</v>
-      </c>
-      <c r="F108" s="3">
-        <v>2.0749380984014101</v>
-      </c>
-      <c r="G108" s="3">
-        <v>4.2331827373525304</v>
-      </c>
-      <c r="H108" s="3">
-        <v>2.0749380984372898</v>
-      </c>
-      <c r="I108" s="3">
-        <v>4.2847903763622899</v>
-      </c>
-      <c r="J108" s="3"/>
+      <c r="A108" s="5">
+        <v>26</v>
+      </c>
+      <c r="B108" s="6">
+        <v>29</v>
+      </c>
+      <c r="C108" s="6">
+        <v>6.9059227685356204</v>
+      </c>
+      <c r="D108" s="6">
+        <v>6.3340445392895397</v>
+      </c>
+      <c r="E108" s="6">
+        <v>5.6074271718199098</v>
+      </c>
+      <c r="F108" s="6">
+        <v>3.9888065908484398</v>
+      </c>
+      <c r="G108" s="6">
+        <v>4.7913012934139001</v>
+      </c>
+      <c r="H108" s="6">
+        <v>3.9888065906864001</v>
+      </c>
+      <c r="I108" s="6">
+        <v>5.6037304092502804</v>
+      </c>
+      <c r="J108" s="6"/>
       <c r="K108" s="11">
-        <f t="shared" si="0"/>
-        <v>3.03580011130627</v>
+        <f>C108-F108</f>
+        <v>2.9171161776871806</v>
       </c>
       <c r="L108" s="11">
-        <f t="shared" si="1"/>
-        <v>-3.5879743620625959E-11</v>
-      </c>
-      <c r="M108" s="3"/>
-      <c r="N108" s="3">
-        <v>55</v>
-      </c>
-      <c r="O108" s="3">
-        <v>0.36149372549442499</v>
-      </c>
-      <c r="P108" s="3">
-        <v>1.34377786333872E-2</v>
-      </c>
-      <c r="Q108" s="3">
-        <v>-0.22431731716703401</v>
-      </c>
-      <c r="R108" s="3">
-        <v>7.5380010572348997E-4</v>
-      </c>
-      <c r="S108" s="3">
-        <v>9.5454602594387303E-2</v>
-      </c>
-      <c r="T108" s="3">
-        <v>0</v>
-      </c>
-      <c r="U108" s="3">
-        <v>-0.22431897944985099</v>
-      </c>
-      <c r="V108" s="3">
-        <v>0</v>
-      </c>
-      <c r="W108" s="3">
-        <v>1.31284406550533E-2</v>
-      </c>
-      <c r="X108" s="4">
-        <v>0.93553169309017703</v>
+        <f>F108-H108</f>
+        <v>1.620397149793007E-10</v>
+      </c>
+      <c r="M108" s="6"/>
+      <c r="N108" s="6">
+        <v>29</v>
+      </c>
+      <c r="O108" s="6">
+        <v>0.22600222344196999</v>
+      </c>
+      <c r="P108" s="6">
+        <v>4.8221805758001902E-3</v>
+      </c>
+      <c r="Q108" s="6">
+        <v>-0.16408854916584101</v>
+      </c>
+      <c r="R108" s="6">
+        <v>9.8999851138073503E-4</v>
+      </c>
+      <c r="S108" s="6">
+        <v>-10</v>
+      </c>
+      <c r="T108" s="6">
+        <v>0</v>
+      </c>
+      <c r="U108" s="6">
+        <v>-0.16409276457585101</v>
+      </c>
+      <c r="V108" s="6">
+        <v>0</v>
+      </c>
+      <c r="W108" s="6">
+        <v>4.3975838061995204E-3</v>
+      </c>
+      <c r="X108" s="7">
+        <v>0.92447160505009995</v>
       </c>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B109" s="3">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C109" s="3">
-        <v>5.8652314376299399</v>
+        <v>4.7005601748527903</v>
       </c>
       <c r="D109" s="3">
-        <v>5.4551467655588404</v>
+        <v>4.2012465700447796</v>
       </c>
       <c r="E109" s="3">
-        <v>4.8373860950361802</v>
+        <v>3.5763434490047898</v>
       </c>
       <c r="F109" s="3">
-        <v>2.6128240791536501</v>
+        <v>2.0577351237991</v>
       </c>
       <c r="G109" s="3">
-        <v>4.7848657900606497</v>
+        <v>2.7218158790615501</v>
       </c>
       <c r="H109" s="3">
-        <v>2.6128240778695799</v>
+        <v>2.05773512255861</v>
       </c>
       <c r="I109" s="3">
-        <v>4.8374498242465096</v>
+        <v>3.57352220884591</v>
       </c>
       <c r="J109" s="3"/>
       <c r="K109" s="11">
-        <f t="shared" si="0"/>
-        <v>3.2524073584762898</v>
+        <f>C109-F109</f>
+        <v>2.6428250510536904</v>
       </c>
       <c r="L109" s="11">
-        <f t="shared" si="1"/>
-        <v>1.2840701835159507E-9</v>
+        <f>F109-H109</f>
+        <v>1.2404899329965247E-9</v>
       </c>
       <c r="M109" s="3"/>
       <c r="N109" s="3">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O109" s="3">
-        <v>0.292021305882746</v>
+        <v>0.249072178406467</v>
       </c>
       <c r="P109" s="3">
-        <v>1.2674819759808199E-2</v>
+        <v>6.8270720773400502E-3</v>
       </c>
       <c r="Q109" s="3">
-        <v>-0.25778501375473301</v>
+        <v>-0.15128855585095199</v>
       </c>
       <c r="R109" s="3">
-        <v>5.12343033110087E-4</v>
+        <v>9.975931433006931E-4</v>
       </c>
       <c r="S109" s="3">
-        <v>9.5890563948996602E-2</v>
+        <v>-10</v>
       </c>
       <c r="T109" s="3">
         <v>0</v>
       </c>
       <c r="U109" s="3">
-        <v>-0.25777664694192698</v>
+        <v>-0.15129424093222499</v>
       </c>
       <c r="V109" s="3">
         <v>0</v>
       </c>
       <c r="W109" s="3">
-        <v>1.25191937306073E-2</v>
+        <v>6.4516587156911E-3</v>
       </c>
       <c r="X109" s="4">
-        <v>0.96803598427234605</v>
+        <v>0.93351075255794203</v>
       </c>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B110" s="6">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C110" s="6">
-        <v>8.1516030687801599</v>
+        <v>6.0974225569471203</v>
       </c>
       <c r="D110" s="6">
-        <v>7.6028631706470904</v>
+        <v>5.6899357807272697</v>
       </c>
       <c r="E110" s="6">
-        <v>6.8995878038184397</v>
+        <v>5.0884271972064301</v>
       </c>
       <c r="F110" s="6">
-        <v>4.8637621089574399</v>
+        <v>3.7208245129247701</v>
       </c>
       <c r="G110" s="6">
-        <v>6.8379238568188896</v>
+        <v>5.0216909187029097</v>
       </c>
       <c r="H110" s="6">
-        <v>4.8637621089902199</v>
+        <v>3.7208245039775698</v>
       </c>
       <c r="I110" s="6">
-        <v>6.8975890946645304</v>
+        <v>5.0852063065083399</v>
       </c>
       <c r="J110" s="6"/>
       <c r="K110" s="11">
-        <f t="shared" si="0"/>
-        <v>3.2878409598227201</v>
+        <f>C110-F110</f>
+        <v>2.3765980440223502</v>
       </c>
       <c r="L110" s="11">
-        <f t="shared" si="1"/>
-        <v>-3.2780000935872522E-11</v>
+        <f>F110-H110</f>
+        <v>8.9472003139690059E-9</v>
       </c>
       <c r="M110" s="6"/>
       <c r="N110" s="6">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="O110" s="6">
-        <v>0.22281212105720799</v>
+        <v>0.27832445653167498</v>
       </c>
       <c r="P110" s="6">
-        <v>4.6744360778498001E-3</v>
+        <v>6.0452291501552199E-3</v>
       </c>
       <c r="Q110" s="6">
-        <v>-0.222140070636033</v>
+        <v>-0.14216528304123899</v>
       </c>
       <c r="R110" s="6">
-        <v>9.9845608405497305E-4</v>
+        <v>5.1243660887916997E-4</v>
       </c>
       <c r="S110" s="6">
-        <v>9.4999219832141199E-2</v>
+        <v>9.2033552527784904E-2</v>
       </c>
       <c r="T110" s="6">
         <v>0</v>
       </c>
       <c r="U110" s="6">
-        <v>-0.22214163992518299</v>
+        <v>-0.142182045283401</v>
       </c>
       <c r="V110" s="6">
         <v>0</v>
       </c>
       <c r="W110" s="6">
-        <v>4.5214729163324001E-3</v>
+        <v>5.4955935632953097E-3</v>
       </c>
       <c r="X110" s="7">
-        <v>0.95487031712071702</v>
+        <v>0.93956409090314097</v>
       </c>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A111" s="5">
-        <v>44</v>
-      </c>
-      <c r="B111" s="6">
-        <v>49</v>
-      </c>
-      <c r="C111" s="6">
-        <v>5.3777795448625003</v>
-      </c>
-      <c r="D111" s="6">
-        <v>5.2212983396215504</v>
-      </c>
-      <c r="E111" s="6">
-        <v>4.7700907436943902</v>
-      </c>
-      <c r="F111" s="6">
-        <v>1.81147000697869</v>
-      </c>
-      <c r="G111" s="6">
-        <v>4.7079375445409104</v>
-      </c>
-      <c r="H111" s="6">
-        <v>1.8114700069715799</v>
-      </c>
-      <c r="I111" s="6">
-        <v>4.7661319929711201</v>
-      </c>
-      <c r="J111" s="6"/>
+      <c r="A111" s="2">
+        <v>75</v>
+      </c>
+      <c r="B111" s="3">
+        <v>81</v>
+      </c>
+      <c r="C111" s="3">
+        <v>2.1690984891829301</v>
+      </c>
+      <c r="D111" s="3">
+        <v>2.1088170231927101</v>
+      </c>
+      <c r="E111" s="3">
+        <v>1.8997496328461101</v>
+      </c>
+      <c r="F111" s="3">
+        <v>0.72481358569352305</v>
+      </c>
+      <c r="G111" s="3">
+        <v>1.21863519287122</v>
+      </c>
+      <c r="H111" s="3">
+        <v>0.74535690644038499</v>
+      </c>
+      <c r="I111" s="3">
+        <v>0.72481351382037096</v>
+      </c>
+      <c r="J111" s="3"/>
       <c r="K111" s="11">
-        <f t="shared" si="0"/>
-        <v>3.5663095378838103</v>
+        <f>C111-F111</f>
+        <v>1.444284903489407</v>
       </c>
       <c r="L111" s="11">
-        <f t="shared" si="1"/>
-        <v>7.1100902943044275E-12</v>
-      </c>
-      <c r="M111" s="6"/>
-      <c r="N111" s="6">
-        <v>49</v>
-      </c>
-      <c r="O111" s="6">
-        <v>0.57046031944911002</v>
-      </c>
-      <c r="P111" s="6">
-        <v>1.4885046166597899E-2</v>
-      </c>
-      <c r="Q111" s="6">
-        <v>-0.41872799646566999</v>
-      </c>
-      <c r="R111" s="6">
-        <v>5.1496962538305296E-4</v>
-      </c>
-      <c r="S111" s="6">
-        <v>0.100615412810907</v>
-      </c>
-      <c r="T111" s="6">
-        <v>0</v>
-      </c>
-      <c r="U111" s="6">
-        <v>-0.41872728699310802</v>
-      </c>
-      <c r="V111" s="6">
-        <v>0</v>
-      </c>
-      <c r="W111" s="6">
-        <v>1.35900263840952E-2</v>
-      </c>
-      <c r="X111" s="7">
-        <v>0.912653141608883</v>
+        <f>F111-H111</f>
+        <v>-2.0543320746861937E-2</v>
+      </c>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3">
+        <v>81</v>
+      </c>
+      <c r="O111" s="3">
+        <v>0.87591354741612204</v>
+      </c>
+      <c r="P111" s="3">
+        <v>3.2201349470271798E-2</v>
+      </c>
+      <c r="Q111" s="3">
+        <v>-0.123393649649362</v>
+      </c>
+      <c r="R111" s="3">
+        <v>9.5410029862750601E-4</v>
+      </c>
+      <c r="S111" s="3">
+        <v>-10</v>
+      </c>
+      <c r="T111" s="3">
+        <v>1.55047950502486E-3</v>
+      </c>
+      <c r="U111" s="3">
+        <v>-1.1202995855109299</v>
+      </c>
+      <c r="V111" s="3">
+        <v>0</v>
+      </c>
+      <c r="W111" s="3">
+        <v>0</v>
+      </c>
+      <c r="X111" s="4">
+        <v>-0.123431275323867</v>
       </c>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
-        <v>49</v>
-      </c>
-      <c r="B112" s="3">
+      <c r="A112" s="5">
+        <v>41</v>
+      </c>
+      <c r="B112" s="6">
+        <v>45</v>
+      </c>
+      <c r="C112" s="6">
+        <v>1.87111503754626</v>
+      </c>
+      <c r="D112" s="6">
+        <v>1.8473232879314201</v>
+      </c>
+      <c r="E112" s="6">
+        <v>1.7694156564551899</v>
+      </c>
+      <c r="F112" s="6">
+        <v>0.72483114156447503</v>
+      </c>
+      <c r="G112" s="6">
+        <v>1.0361793110142801</v>
+      </c>
+      <c r="H112" s="6">
+        <v>0.73385186011759296</v>
+      </c>
+      <c r="I112" s="6">
+        <v>1.0358124789679899</v>
+      </c>
+      <c r="J112" s="6"/>
+      <c r="K112" s="11">
+        <f>C112-F112</f>
+        <v>1.1462838959817849</v>
+      </c>
+      <c r="L112" s="11">
+        <f>F112-H112</f>
+        <v>-9.0207185531179235E-3</v>
+      </c>
+      <c r="M112" s="6"/>
+      <c r="N112" s="6">
+        <v>45</v>
+      </c>
+      <c r="O112" s="6">
+        <v>1.8383397042123999</v>
+      </c>
+      <c r="P112" s="6">
+        <v>0.160198023093053</v>
+      </c>
+      <c r="Q112" s="6">
+        <v>-9.7495362117198503E-2</v>
+      </c>
+      <c r="R112" s="6">
+        <v>5.4765671332938698E-4</v>
+      </c>
+      <c r="S112" s="6">
+        <v>-10</v>
+      </c>
+      <c r="T112" s="6">
+        <v>6.6315923488280998E-2</v>
+      </c>
+      <c r="U112" s="6">
+        <v>-3.2312150245484701</v>
+      </c>
+      <c r="V112" s="6">
+        <v>0</v>
+      </c>
+      <c r="W112" s="6">
+        <v>1.9875631394269399E-4</v>
+      </c>
+      <c r="X112" s="7">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
         <v>54</v>
       </c>
-      <c r="C112" s="3">
-        <v>6.0392940844985201</v>
-      </c>
-      <c r="D112" s="3">
-        <v>5.2625496240064296</v>
-      </c>
-      <c r="E112" s="3">
-        <v>4.4209680131372799</v>
-      </c>
-      <c r="F112" s="3">
-        <v>2.4437720534727498</v>
-      </c>
-      <c r="G112" s="3">
-        <v>2.4437720533490301</v>
-      </c>
-      <c r="H112" s="3">
-        <v>2.4437720533481202</v>
-      </c>
-      <c r="I112" s="3">
-        <v>4.4183259332465497</v>
-      </c>
-      <c r="J112" s="3"/>
-      <c r="K112" s="11">
-        <f t="shared" si="0"/>
-        <v>3.5955220310257703</v>
-      </c>
-      <c r="L112" s="11">
-        <f t="shared" si="1"/>
-        <v>1.2462963994153142E-10</v>
-      </c>
-      <c r="M112" s="3"/>
-      <c r="N112" s="3">
-        <v>54</v>
-      </c>
-      <c r="O112" s="3">
-        <v>0.19719015319095001</v>
-      </c>
-      <c r="P112" s="3">
-        <v>3.3846600730851701E-3</v>
-      </c>
-      <c r="Q112" s="3">
-        <v>-0.18998618967814301</v>
-      </c>
-      <c r="R112" s="3">
-        <v>0</v>
-      </c>
-      <c r="S112" s="3">
-        <v>-0.189985057573309</v>
-      </c>
-      <c r="T112" s="3">
-        <v>0</v>
-      </c>
-      <c r="U112" s="3">
-        <v>-0.189985045850905</v>
-      </c>
-      <c r="V112" s="3">
-        <v>0</v>
-      </c>
-      <c r="W112" s="3">
-        <v>3.2592180031802702E-3</v>
-      </c>
-      <c r="X112" s="4">
-        <v>0.95951873944814003</v>
-      </c>
-    </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A113" s="5">
-        <v>15</v>
-      </c>
-      <c r="B113" s="6">
-        <v>17</v>
-      </c>
-      <c r="C113" s="6">
-        <v>6.2516039759156197</v>
-      </c>
-      <c r="D113" s="6">
-        <v>5.9381422549861496</v>
-      </c>
-      <c r="E113" s="6">
-        <v>5.2590237640920696</v>
-      </c>
-      <c r="F113" s="6">
-        <v>2.5105505857297801</v>
-      </c>
-      <c r="G113" s="6">
-        <v>5.1603954707904203</v>
-      </c>
-      <c r="H113" s="6">
-        <v>2.5105505857612198</v>
-      </c>
-      <c r="I113" s="6">
-        <v>5.2533495163307604</v>
-      </c>
-      <c r="J113" s="6"/>
+      <c r="B113" s="3">
+        <v>59</v>
+      </c>
+      <c r="C113" s="3">
+        <v>1.87750883347903</v>
+      </c>
+      <c r="D113" s="3">
+        <v>1.7520741400942901</v>
+      </c>
+      <c r="E113" s="3">
+        <v>1.55119681479822</v>
+      </c>
+      <c r="F113" s="3">
+        <v>0.86781630140349397</v>
+      </c>
+      <c r="G113" s="3">
+        <v>1.5408292525060501</v>
+      </c>
+      <c r="H113" s="3">
+        <v>0.88166525752546998</v>
+      </c>
+      <c r="I113" s="3">
+        <v>1.33313979335165</v>
+      </c>
+      <c r="J113" s="3"/>
       <c r="K113" s="11">
-        <f t="shared" si="0"/>
-        <v>3.7410533901858396</v>
+        <f>C113-F113</f>
+        <v>1.0096925320755359</v>
       </c>
       <c r="L113" s="11">
-        <f t="shared" si="1"/>
-        <v>-3.1439739700545033E-11</v>
-      </c>
-      <c r="M113" s="6"/>
-      <c r="N113" s="6">
-        <v>17</v>
-      </c>
-      <c r="O113" s="6">
-        <v>0.41823931894674099</v>
-      </c>
-      <c r="P113" s="6">
-        <v>1.2488865268232299E-2</v>
-      </c>
-      <c r="Q113" s="6">
-        <v>-0.21549926096754199</v>
-      </c>
-      <c r="R113" s="6">
-        <v>8.2330684441802898E-4</v>
-      </c>
-      <c r="S113" s="6">
-        <v>4.47142781127257E-2</v>
-      </c>
-      <c r="T113" s="6">
-        <v>0</v>
-      </c>
-      <c r="U113" s="6">
-        <v>-0.21549969364700999</v>
-      </c>
-      <c r="V113" s="6">
-        <v>0</v>
-      </c>
-      <c r="W113" s="6">
-        <v>1.1204141078180199E-2</v>
-      </c>
-      <c r="X113" s="7">
-        <v>0.88410429972666804</v>
+        <f>F113-H113</f>
+        <v>-1.3848956121976008E-2</v>
+      </c>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3">
+        <v>59</v>
+      </c>
+      <c r="O113" s="3">
+        <v>0.54164450010322496</v>
+      </c>
+      <c r="P113" s="3">
+        <v>3.3966168667094801E-2</v>
+      </c>
+      <c r="Q113" s="3">
+        <v>-8.8865888147125302E-2</v>
+      </c>
+      <c r="R113" s="3">
+        <v>4.7498507024196701E-4</v>
+      </c>
+      <c r="S113" s="3">
+        <v>9.6509389681839905E-2</v>
+      </c>
+      <c r="T113" s="3">
+        <v>1.4793053789079399E-3</v>
+      </c>
+      <c r="U113" s="3">
+        <v>-0.79735303217829001</v>
+      </c>
+      <c r="V113" s="3">
+        <v>0</v>
+      </c>
+      <c r="W113" s="3">
+        <v>6.8240741390648201E-4</v>
+      </c>
+      <c r="X113" s="4">
+        <v>2.4088911758606901</v>
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
-        <v>38</v>
-      </c>
-      <c r="B114" s="3">
-        <v>42</v>
-      </c>
-      <c r="C114" s="3">
-        <v>7.7015800272955302</v>
-      </c>
-      <c r="D114" s="3">
-        <v>7.3354697200995904</v>
-      </c>
-      <c r="E114" s="3">
-        <v>6.6491377803707996</v>
-      </c>
-      <c r="F114" s="3">
-        <v>3.3628649846735801</v>
-      </c>
-      <c r="G114" s="3">
-        <v>6.5801452208579798</v>
-      </c>
-      <c r="H114" s="3">
-        <v>3.3628649846848799</v>
-      </c>
-      <c r="I114" s="3">
-        <v>6.64622495398305</v>
-      </c>
-      <c r="J114" s="3"/>
+      <c r="A114" s="5">
+        <v>22</v>
+      </c>
+      <c r="B114" s="6">
+        <v>25</v>
+      </c>
+      <c r="C114" s="6">
+        <v>11.6750443144467</v>
+      </c>
+      <c r="D114" s="6">
+        <v>11.6308072193206</v>
+      </c>
+      <c r="E114" s="6">
+        <v>11.5228695098525</v>
+      </c>
+      <c r="F114" s="6">
+        <v>10.961913733183</v>
+      </c>
+      <c r="G114" s="6">
+        <v>10.862533179892599</v>
+      </c>
+      <c r="H114" s="6">
+        <v>10.996159852045899</v>
+      </c>
+      <c r="I114" s="6">
+        <v>10.9830656125028</v>
+      </c>
+      <c r="J114" s="6"/>
       <c r="K114" s="11">
-        <f t="shared" si="0"/>
-        <v>4.3387150426219501</v>
+        <f>C114-F114</f>
+        <v>0.71313058126369988</v>
       </c>
       <c r="L114" s="11">
-        <f t="shared" si="1"/>
-        <v>-1.1299849944634843E-11</v>
-      </c>
-      <c r="M114" s="3"/>
-      <c r="N114" s="3">
-        <v>42</v>
-      </c>
-      <c r="O114" s="3">
-        <v>0.33909882711470402</v>
-      </c>
-      <c r="P114" s="3">
-        <v>9.3346467594174597E-3</v>
-      </c>
-      <c r="Q114" s="3">
-        <v>-0.386945988282832</v>
-      </c>
-      <c r="R114" s="3">
-        <v>7.53535542306715E-4</v>
-      </c>
-      <c r="S114" s="3">
-        <v>8.3444004283788606E-2</v>
-      </c>
-      <c r="T114" s="3">
-        <v>0</v>
-      </c>
-      <c r="U114" s="3">
-        <v>-0.38694707538613299</v>
-      </c>
-      <c r="V114" s="3">
-        <v>0</v>
-      </c>
-      <c r="W114" s="3">
-        <v>8.8473507924377408E-3</v>
-      </c>
-      <c r="X114" s="4">
-        <v>0.92206415215648196</v>
+        <f>F114-H114</f>
+        <v>-3.4246118862899522E-2</v>
+      </c>
+      <c r="M114" s="6"/>
+      <c r="N114" s="6">
+        <v>25</v>
+      </c>
+      <c r="O114" s="6">
+        <v>0.87121022153813399</v>
+      </c>
+      <c r="P114" s="6">
+        <v>4.2091366441030599E-2</v>
+      </c>
+      <c r="Q114" s="6">
+        <v>-7.9448687568403106E-2</v>
+      </c>
+      <c r="R114" s="6">
+        <v>9.2811589788087195E-4</v>
+      </c>
+      <c r="S114" s="6">
+        <v>-10</v>
+      </c>
+      <c r="T114" s="6">
+        <v>1.9355403172807201E-3</v>
+      </c>
+      <c r="U114" s="6">
+        <v>-0.72934913894833697</v>
+      </c>
+      <c r="V114" s="8">
+        <v>5.0507057436856401E-5</v>
+      </c>
+      <c r="W114" s="8">
+        <v>3.0448380410492698E-5</v>
+      </c>
+      <c r="X114" s="7">
+        <v>-0.40176715382225098</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A115" s="5">
-        <v>78</v>
-      </c>
-      <c r="B115" s="6">
-        <v>84</v>
-      </c>
-      <c r="C115" s="6">
-        <v>4.9815358602177398</v>
-      </c>
-      <c r="D115" s="6">
-        <v>4.8838845751347604</v>
-      </c>
-      <c r="E115" s="6">
-        <v>4.4940955660190403</v>
-      </c>
-      <c r="F115" s="6">
-        <v>0.53608175379219003</v>
-      </c>
-      <c r="G115" s="6">
-        <v>0.53608175379219003</v>
-      </c>
-      <c r="H115" s="6">
-        <v>0.53608175379219003</v>
-      </c>
-      <c r="I115" s="6">
-        <v>4.4935192773554702</v>
-      </c>
-      <c r="J115" s="6"/>
+      <c r="A115" s="2">
+        <v>66</v>
+      </c>
+      <c r="B115" s="3">
+        <v>72</v>
+      </c>
+      <c r="C115" s="3">
+        <v>2.2614475030669698</v>
+      </c>
+      <c r="D115" s="3">
+        <v>2.25461657210161</v>
+      </c>
+      <c r="E115" s="3">
+        <v>2.2242171028150102</v>
+      </c>
+      <c r="F115" s="3">
+        <v>1.7181202167490801</v>
+      </c>
+      <c r="G115" s="3">
+        <v>1.72394092398181</v>
+      </c>
+      <c r="H115" s="3">
+        <v>1.7144128523887301</v>
+      </c>
+      <c r="I115" s="3">
+        <v>1.5727625992104599</v>
+      </c>
+      <c r="J115" s="3"/>
       <c r="K115" s="11">
-        <f t="shared" si="0"/>
-        <v>4.4454541064255499</v>
+        <f>C115-F115</f>
+        <v>0.54332728631788973</v>
       </c>
       <c r="L115" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M115" s="6"/>
-      <c r="N115" s="6">
-        <v>84</v>
-      </c>
-      <c r="O115" s="6">
-        <v>0.94099090705372901</v>
-      </c>
-      <c r="P115" s="6">
-        <v>3.7279086774110799E-2</v>
-      </c>
-      <c r="Q115" s="6">
-        <v>-7.0894649164514698</v>
-      </c>
-      <c r="R115" s="6">
-        <v>0</v>
-      </c>
-      <c r="S115" s="6">
-        <v>-10</v>
-      </c>
-      <c r="T115" s="6">
-        <v>0</v>
-      </c>
-      <c r="U115" s="6">
-        <v>-10</v>
-      </c>
-      <c r="V115" s="6">
-        <v>0</v>
-      </c>
-      <c r="W115" s="6">
-        <v>3.5771691846188697E-2</v>
-      </c>
-      <c r="X115" s="7">
-        <v>0.90270626712837199</v>
+        <f>F115-H115</f>
+        <v>3.7073643603500184E-3</v>
+      </c>
+      <c r="M115" s="3"/>
+      <c r="N115" s="3">
+        <v>72</v>
+      </c>
+      <c r="O115" s="3">
+        <v>2.98416724216702</v>
+      </c>
+      <c r="P115" s="3">
+        <v>0.226802158068313</v>
+      </c>
+      <c r="Q115" s="3">
+        <v>-6.7855947857169002E-2</v>
+      </c>
+      <c r="R115" s="3">
+        <v>1.42676552123142E-2</v>
+      </c>
+      <c r="S115" s="3">
+        <v>4.2613596526689896</v>
+      </c>
+      <c r="T115" s="3">
+        <v>0.18413892279142299</v>
+      </c>
+      <c r="U115" s="3">
+        <v>-4.6551351271461696</v>
+      </c>
+      <c r="V115" s="3">
+        <v>5.3906304613240204E-4</v>
+      </c>
+      <c r="W115" s="3">
+        <v>0.11910394411061</v>
+      </c>
+      <c r="X115" s="4">
+        <v>-2.0194328020365799</v>
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="B116" s="6">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C116" s="6">
-        <v>6.7366670880689501</v>
+        <v>0.855014086062857</v>
       </c>
       <c r="D116" s="6">
-        <v>6.5454335304276698</v>
+        <v>0.80366202623465099</v>
       </c>
       <c r="E116" s="6">
-        <v>5.9672160978697599</v>
+        <v>0.74846363560171003</v>
       </c>
       <c r="F116" s="6">
-        <v>1.81402019803662</v>
+        <v>0.543871785834804</v>
       </c>
       <c r="G116" s="6">
-        <v>5.8932898840498096</v>
+        <v>0.750030149844511</v>
       </c>
       <c r="H116" s="6">
-        <v>1.81402019803763</v>
+        <v>0.52107038801362004</v>
       </c>
       <c r="I116" s="6">
-        <v>5.9628418672196997</v>
+        <v>0.65389980205522402</v>
       </c>
       <c r="J116" s="6"/>
       <c r="K116" s="11">
-        <f t="shared" si="0"/>
-        <v>4.9226468900323299</v>
+        <f>C116-F116</f>
+        <v>0.311142300228053</v>
       </c>
       <c r="L116" s="11">
-        <f t="shared" si="1"/>
-        <v>-1.0100809078039674E-12</v>
+        <f>F116-H116</f>
+        <v>2.2801397821183955E-2</v>
       </c>
       <c r="M116" s="6"/>
       <c r="N116" s="6">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="O116" s="6">
-        <v>0.58341918396452497</v>
+        <v>0.803612657378457</v>
       </c>
       <c r="P116" s="6">
-        <v>1.7364962780687498E-2</v>
+        <v>0.208358760516729</v>
       </c>
       <c r="Q116" s="6">
-        <v>-0.57175818583398996</v>
+        <v>-5.9782579055625902E-2</v>
       </c>
       <c r="R116" s="6">
-        <v>7.6547062033590805E-4</v>
+        <v>0.24799167306157799</v>
       </c>
       <c r="S116" s="6">
-        <v>7.9473794390482105E-2</v>
+        <v>0.201597477842414</v>
       </c>
       <c r="T116" s="6">
-        <v>0</v>
+        <v>0.21081568446447699</v>
       </c>
       <c r="U116" s="6">
-        <v>-0.57175855390563401</v>
+        <v>-4.4071405229962402</v>
       </c>
       <c r="V116" s="6">
         <v>0</v>
       </c>
       <c r="W116" s="6">
-        <v>1.58735152880808E-2</v>
+        <v>3.3070742538466397E-2</v>
       </c>
       <c r="X116" s="7">
-        <v>0.88312884748022502</v>
+        <v>4.1822073303293399</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="B117" s="3">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="C117" s="3">
-        <v>7.6905146182317701</v>
+        <v>1.9604092332886101</v>
       </c>
       <c r="D117" s="3">
-        <v>7.3842920828227703</v>
+        <v>1.83684595472972</v>
       </c>
       <c r="E117" s="3">
-        <v>6.7246068225319604</v>
+        <v>1.6180028341691</v>
       </c>
       <c r="F117" s="3">
-        <v>2.7073300220300198</v>
+        <v>1.23019144073759</v>
       </c>
       <c r="G117" s="3">
-        <v>6.63190683091777</v>
+        <v>1.25750320926248</v>
       </c>
       <c r="H117" s="3">
-        <v>2.7073300219757801</v>
+        <v>1.23019140864153</v>
       </c>
       <c r="I117" s="3">
-        <v>6.7163557124743196</v>
+        <v>1.6177034741951599</v>
       </c>
       <c r="J117" s="3"/>
       <c r="K117" s="11">
-        <f t="shared" si="0"/>
-        <v>4.9831845962017507</v>
+        <f>C117-F117</f>
+        <v>0.73021779255102004</v>
       </c>
       <c r="L117" s="11">
-        <f t="shared" si="1"/>
-        <v>5.4239723823457098E-11</v>
+        <f>F117-H117</f>
+        <v>3.209606003196086E-8</v>
       </c>
       <c r="M117" s="3"/>
       <c r="N117" s="3">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="O117" s="3">
-        <v>0.39502485184946501</v>
+        <v>0.47587419970709199</v>
       </c>
       <c r="P117" s="3">
-        <v>9.90872398595599E-3</v>
+        <v>2.34549207963471E-2</v>
       </c>
       <c r="Q117" s="3">
-        <v>-0.433553368664502</v>
+        <v>-5.7433290087549903E-2</v>
       </c>
       <c r="R117" s="3">
-        <v>7.7589686009208196E-4</v>
+        <v>5.32328475453344E-4</v>
       </c>
       <c r="S117" s="3">
-        <v>5.0687840137311202E-2</v>
+        <v>-10</v>
       </c>
       <c r="T117" s="3">
         <v>0</v>
       </c>
       <c r="U117" s="3">
-        <v>-0.43355100989741002</v>
+        <v>-5.7452337369918602E-2</v>
       </c>
       <c r="V117" s="3">
         <v>0</v>
       </c>
       <c r="W117" s="3">
-        <v>8.9020396855860103E-3</v>
+        <v>2.2418944568830101E-2</v>
       </c>
       <c r="X117" s="4">
-        <v>0.87215193925202095</v>
+        <v>0.87023372501943397</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B118" s="6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C118" s="6">
-        <v>6.9806370274044802</v>
+        <v>0.71528295871918601</v>
       </c>
       <c r="D118" s="6">
-        <v>6.7340955563110798</v>
+        <v>0.66113308675598903</v>
       </c>
       <c r="E118" s="6">
-        <v>6.1224023263370704</v>
+        <v>0.57969961006480097</v>
       </c>
       <c r="F118" s="6">
-        <v>1.86084667277913</v>
+        <v>0.25851236050146897</v>
       </c>
       <c r="G118" s="6">
-        <v>6.0610028955958404</v>
+        <v>0.30481375681427297</v>
       </c>
       <c r="H118" s="6">
-        <v>1.8608466725150801</v>
+        <v>0.228045693646722</v>
       </c>
       <c r="I118" s="6">
-        <v>6.1238606734056704</v>
+        <v>0.442916738220623</v>
       </c>
       <c r="J118" s="6"/>
       <c r="K118" s="11">
-        <f t="shared" si="0"/>
-        <v>5.1197903546253505</v>
+        <f>C118-F118</f>
+        <v>0.45677059821771704</v>
       </c>
       <c r="L118" s="11">
-        <f t="shared" si="1"/>
-        <v>2.6404989306172411E-10</v>
+        <f>F118-H118</f>
+        <v>3.0466666854746971E-2</v>
       </c>
       <c r="M118" s="6"/>
       <c r="N118" s="6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O118" s="6">
-        <v>0.48045457539270597</v>
+        <v>0.89158482341618805</v>
       </c>
       <c r="P118" s="6">
-        <v>1.9450539037194601E-2</v>
+        <v>0.143211414202951</v>
       </c>
       <c r="Q118" s="6">
-        <v>-0.45715875933939798</v>
+        <v>-5.3858448679083903E-2</v>
       </c>
       <c r="R118" s="6">
-        <v>7.3519456759392498E-4</v>
+        <v>8.2519922087263692E-3</v>
       </c>
       <c r="S118" s="6">
-        <v>6.6437457329129798E-2</v>
+        <v>-10</v>
       </c>
       <c r="T118" s="6">
-        <v>0</v>
+        <v>0.172390503999517</v>
       </c>
       <c r="U118" s="6">
-        <v>-0.45715188041587901</v>
+        <v>-3.7960181246964702</v>
       </c>
       <c r="V118" s="6">
         <v>0</v>
       </c>
       <c r="W118" s="6">
-        <v>1.8806967197535E-2</v>
+        <v>3.1550146447615897E-2</v>
       </c>
       <c r="X118" s="7">
-        <v>0.88883879533587296</v>
+        <v>4.0106027279244998</v>
       </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
-        <v>33</v>
-      </c>
-      <c r="B119" s="3">
-        <v>36</v>
-      </c>
-      <c r="C119" s="3">
-        <v>24.756357099775698</v>
-      </c>
-      <c r="D119" s="3">
-        <v>24.331911214460899</v>
-      </c>
-      <c r="E119" s="3">
-        <v>23.584970505121898</v>
-      </c>
-      <c r="F119" s="3">
-        <v>19.185534124771401</v>
-      </c>
-      <c r="G119" s="3">
-        <v>23.474933005608101</v>
-      </c>
-      <c r="H119" s="3">
-        <v>19.185534124771401</v>
-      </c>
-      <c r="I119" s="3">
-        <v>19.185534124771401</v>
-      </c>
-      <c r="J119" s="3"/>
+      <c r="A119" s="5">
+        <v>74</v>
+      </c>
+      <c r="B119" s="6">
+        <v>80</v>
+      </c>
+      <c r="C119" s="6">
+        <v>0.53285367585436205</v>
+      </c>
+      <c r="D119" s="6">
+        <v>0.47500998206714901</v>
+      </c>
+      <c r="E119" s="6">
+        <v>0.42166096700228001</v>
+      </c>
+      <c r="F119" s="6">
+        <v>0.37196390537385898</v>
+      </c>
+      <c r="G119" s="6">
+        <v>0.343413510973272</v>
+      </c>
+      <c r="H119" s="6">
+        <v>0.31008936419907701</v>
+      </c>
+      <c r="I119" s="6">
+        <v>0.372145156280206</v>
+      </c>
+      <c r="J119" s="6"/>
       <c r="K119" s="11">
-        <f t="shared" si="0"/>
-        <v>5.5708229750042975</v>
+        <f>C119-F119</f>
+        <v>0.16088977048050307</v>
       </c>
       <c r="L119" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M119" s="3"/>
-      <c r="N119" s="3">
-        <v>36</v>
-      </c>
-      <c r="O119" s="3">
-        <v>0.30320602369684801</v>
-      </c>
-      <c r="P119" s="3">
-        <v>4.4363369068585196E-3</v>
-      </c>
-      <c r="Q119" s="3">
-        <v>-7.1073669431027096</v>
-      </c>
-      <c r="R119" s="3">
-        <v>9.6273001885421004E-4</v>
-      </c>
-      <c r="S119" s="3">
-        <v>2.53831742005774E-2</v>
-      </c>
-      <c r="T119" s="3">
-        <v>0</v>
-      </c>
-      <c r="U119" s="3">
-        <v>-5.6884335112434599</v>
-      </c>
-      <c r="V119" s="3">
-        <v>0</v>
-      </c>
-      <c r="W119" s="3">
-        <v>0</v>
-      </c>
-      <c r="X119" s="4">
-        <v>-10</v>
+        <f>F119-H119</f>
+        <v>6.1874541174781972E-2</v>
+      </c>
+      <c r="M119" s="6"/>
+      <c r="N119" s="6">
+        <v>80</v>
+      </c>
+      <c r="O119" s="6">
+        <v>0.69983309453009401</v>
+      </c>
+      <c r="P119" s="6">
+        <v>0.20968782863982299</v>
+      </c>
+      <c r="Q119" s="6">
+        <v>-2.9209657913836999E-2</v>
+      </c>
+      <c r="R119" s="6">
+        <v>2.3000354463412798E-2</v>
+      </c>
+      <c r="S119" s="6">
+        <v>3.5122673032158001</v>
+      </c>
+      <c r="T119" s="6">
+        <v>0.32029747479225601</v>
+      </c>
+      <c r="U119" s="6">
+        <v>-4.1450660144946099</v>
+      </c>
+      <c r="V119" s="6">
+        <v>0</v>
+      </c>
+      <c r="W119" s="6">
+        <v>9.7574157340626596E-4</v>
+      </c>
+      <c r="X119" s="7">
+        <v>2.7290090325541101</v>
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A120" s="10">
-        <v>32</v>
-      </c>
-      <c r="B120" s="11">
-        <v>35</v>
-      </c>
-      <c r="C120" s="11">
-        <v>26.953581677111899</v>
-      </c>
-      <c r="D120" s="11">
-        <v>26.241094232224299</v>
-      </c>
-      <c r="E120" s="11">
-        <v>25.286926603721799</v>
-      </c>
-      <c r="F120" s="11">
-        <v>20.125429229993099</v>
-      </c>
-      <c r="G120" s="11">
-        <v>20.125429229993099</v>
-      </c>
-      <c r="H120" s="11">
-        <v>20.125429229993099</v>
-      </c>
-      <c r="I120" s="11">
-        <v>25.279477321791401</v>
-      </c>
-      <c r="J120" s="11"/>
+      <c r="A120" s="15">
+        <v>69</v>
+      </c>
+      <c r="B120" s="16">
+        <v>75</v>
+      </c>
+      <c r="C120" s="16">
+        <v>10.3414023653689</v>
+      </c>
+      <c r="D120" s="16">
+        <v>10.1498728706612</v>
+      </c>
+      <c r="E120" s="16">
+        <v>9.9370973611965105</v>
+      </c>
+      <c r="F120" s="16">
+        <v>9.8884977290550307</v>
+      </c>
+      <c r="G120" s="16">
+        <v>9.9235839814555806</v>
+      </c>
+      <c r="H120" s="16">
+        <v>9.8866667967861108</v>
+      </c>
+      <c r="I120" s="16">
+        <v>9.9370137984848093</v>
+      </c>
+      <c r="J120" s="16"/>
       <c r="K120" s="11">
-        <f t="shared" si="0"/>
-        <v>6.8281524471188</v>
+        <f>C120-F120</f>
+        <v>0.45290463631386935</v>
       </c>
       <c r="L120" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M120" s="11"/>
-      <c r="N120" s="11">
-        <v>35</v>
-      </c>
-      <c r="O120" s="11">
-        <v>0.223961740939804</v>
-      </c>
-      <c r="P120" s="11">
-        <v>4.5808180841367899E-3</v>
-      </c>
-      <c r="Q120" s="11">
-        <v>-7.1078241480357498</v>
-      </c>
-      <c r="R120" s="11">
-        <v>0</v>
-      </c>
-      <c r="S120" s="11">
-        <v>-10</v>
-      </c>
-      <c r="T120" s="11">
-        <v>0</v>
-      </c>
-      <c r="U120" s="11">
-        <v>-5.9262243459818702</v>
-      </c>
-      <c r="V120" s="11">
-        <v>0</v>
-      </c>
-      <c r="W120" s="11">
-        <v>4.2949917938913803E-3</v>
-      </c>
-      <c r="X120" s="12">
-        <v>0.89783189167403199</v>
+        <f>F120-H120</f>
+        <v>1.8309322689198382E-3</v>
+      </c>
+      <c r="M120" s="16"/>
+      <c r="N120" s="16">
+        <v>75</v>
+      </c>
+      <c r="O120" s="16">
+        <v>0.23331045361163699</v>
+      </c>
+      <c r="P120" s="111">
+        <v>5.8811045049606999E-5</v>
+      </c>
+      <c r="Q120" s="16">
+        <v>-1.4732537681973299E-2</v>
+      </c>
+      <c r="R120" s="16">
+        <v>5.0816115622906097E-4</v>
+      </c>
+      <c r="S120" s="16">
+        <v>0.16830042999168199</v>
+      </c>
+      <c r="T120" s="16">
+        <v>1.14515027698883E-3</v>
+      </c>
+      <c r="U120" s="16">
+        <v>-0.13351528251998401</v>
+      </c>
+      <c r="V120" s="16">
+        <v>0</v>
+      </c>
+      <c r="W120" s="16">
+        <v>7.0042538239044197E-4</v>
+      </c>
+      <c r="X120" s="17">
+        <v>0.97890624149655903</v>
       </c>
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.25">
@@ -9895,6 +9905,10 @@
       <c r="K122" s="104">
         <f>MIN(K88:K120)</f>
         <v>0.16088977048050307</v>
+      </c>
+      <c r="Q122">
+        <f>MAX(Q88:Q120)</f>
+        <v>-1.4732537681973299E-2</v>
       </c>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.25">
@@ -9902,11 +9916,19 @@
         <f>MAX(K88:K120)</f>
         <v>6.8281524471188</v>
       </c>
+      <c r="Q123">
+        <f>MIN(Q88:Q120)</f>
+        <v>-7.1078241480357498</v>
+      </c>
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="K124">
         <f>AVERAGE(K88:K120)</f>
-        <v>2.7299012640725593</v>
+        <v>2.7299012640725588</v>
+      </c>
+      <c r="Q124">
+        <f>AVERAGE(Q88:Q120)</f>
+        <v>-0.82328265803291167</v>
       </c>
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.25">
@@ -9920,7 +9942,7 @@
       <c r="A126" s="55"/>
       <c r="K126">
         <f>SUM(K88:K120)</f>
-        <v>90.086741714394449</v>
+        <v>90.086741714394435</v>
       </c>
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.25">
@@ -9930,644 +9952,644 @@
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="100">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B128" s="101">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C128" s="101">
-        <v>8.6872757887146808</v>
+        <v>4.0341515473791398</v>
       </c>
       <c r="D128" s="101">
-        <v>8.6872757887252803</v>
+        <v>3.6050548321973599</v>
       </c>
       <c r="E128" s="101">
-        <v>8.6872757887284102</v>
+        <v>3.5804516184381998</v>
       </c>
       <c r="F128" s="101">
-        <v>8.6613638245240594</v>
+        <v>3.5507470080765602</v>
       </c>
       <c r="G128" s="101">
-        <v>8.6872763163028992</v>
+        <v>3.6007150915794002</v>
       </c>
       <c r="H128" s="101">
-        <v>8.2823925314804505</v>
+        <v>3.5490745415662599</v>
       </c>
       <c r="I128" s="101">
-        <v>8.2823925314788305</v>
+        <v>3.5054228556053402</v>
       </c>
       <c r="J128" s="101"/>
       <c r="K128" s="102">
-        <f t="shared" ref="K128:K148" si="2">C128-F128</f>
-        <v>2.5911964190621362E-2</v>
+        <f>C128-F128</f>
+        <v>0.48340453930257965</v>
       </c>
       <c r="L128" s="102">
-        <f t="shared" ref="L128:L148" si="3">F128-H128</f>
-        <v>0.37897129304360888</v>
+        <f>F128-H128</f>
+        <v>1.6724665103002856E-3</v>
       </c>
       <c r="M128" s="101"/>
       <c r="N128" s="101">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O128" s="101">
-        <v>9996226202.4680405</v>
-      </c>
-      <c r="P128" s="101">
-        <v>9996860259.7768707</v>
+        <v>7.4907830901811495E-2</v>
+      </c>
+      <c r="P128" s="110">
+        <v>5.8811045049606999E-5</v>
       </c>
       <c r="Q128" s="101">
-        <v>4.8506095839027999E-2</v>
+        <v>1.8749131777018702E-2</v>
       </c>
       <c r="R128" s="101">
-        <v>58866.309627244802</v>
+        <v>7.1168231932654995E-4</v>
       </c>
       <c r="S128" s="101">
-        <v>10</v>
+        <v>0.20567787637829801</v>
       </c>
       <c r="T128" s="101">
-        <v>0.55397657141409296</v>
+        <v>1.7950563720071E-3</v>
       </c>
       <c r="U128" s="101">
-        <v>10</v>
+        <v>0.18060865354462899</v>
       </c>
       <c r="V128" s="101">
-        <v>0.55397642229056199</v>
+        <v>9.1373549339394803E-4</v>
       </c>
       <c r="W128" s="101">
-        <v>0</v>
+        <v>4.8882938326320999E-2</v>
       </c>
       <c r="X128" s="103">
-        <v>10</v>
+        <v>0.59321562176396803</v>
       </c>
     </row>
     <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="B129" s="3">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C129" s="3">
-        <v>1.6498249605706601</v>
+        <v>9.7691070969114993</v>
       </c>
       <c r="D129" s="3">
-        <v>1.6498249605937201</v>
+        <v>8.9391378558198706</v>
       </c>
       <c r="E129" s="3">
-        <v>1.6498249605961499</v>
+        <v>9.0441218536099495</v>
       </c>
       <c r="F129" s="3">
-        <v>1.4700689825428701</v>
+        <v>8.8676945194224501</v>
       </c>
       <c r="G129" s="3">
-        <v>1.56882927501881</v>
+        <v>9.0722159051737492</v>
       </c>
       <c r="H129" s="3">
-        <v>1.0173093307535801</v>
+        <v>8.8757526563922706</v>
       </c>
       <c r="I129" s="3">
-        <v>1.6498249643951799</v>
+        <v>8.8284618829428307</v>
       </c>
       <c r="J129" s="3"/>
       <c r="K129" s="11">
-        <f t="shared" si="2"/>
-        <v>0.17975597802778998</v>
+        <f>C129-F129</f>
+        <v>0.90141257748904913</v>
       </c>
       <c r="L129" s="11">
-        <f t="shared" si="3"/>
-        <v>0.45275965178929001</v>
+        <f>F129-H129</f>
+        <v>-8.0581369698204952E-3</v>
       </c>
       <c r="M129" s="3"/>
       <c r="N129" s="3">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="O129" s="3">
-        <v>9999663479.2444191</v>
-      </c>
-      <c r="P129" s="3">
-        <v>9999136840.8406296</v>
+        <v>2.8830128976362598E-2</v>
+      </c>
+      <c r="P129" s="9">
+        <v>5.8811045049606999E-5</v>
       </c>
       <c r="Q129" s="3">
-        <v>6.8640757099277902E-2</v>
+        <v>3.8741232649148603E-2</v>
       </c>
       <c r="R129" s="3">
-        <v>2.2013795969632599</v>
+        <v>6.9548357914389505E-4</v>
       </c>
       <c r="S129" s="3">
-        <v>10</v>
+        <v>0.18916170877719199</v>
       </c>
       <c r="T129" s="3">
-        <v>0.41270070080190302</v>
+        <v>1.74355423628631E-3</v>
       </c>
       <c r="U129" s="3">
-        <v>10</v>
-      </c>
-      <c r="V129" s="3">
-        <v>5586.9296251063497</v>
+        <v>0.353912432325721</v>
+      </c>
+      <c r="V129" s="9">
+        <v>-4.3368086899420197E-19</v>
       </c>
       <c r="W129" s="3">
-        <v>4527.6210544317601</v>
+        <v>3.8813698717029298E-2</v>
       </c>
       <c r="X129" s="4">
-        <v>-10</v>
+        <v>0.92178417886645303</v>
       </c>
     </row>
     <row r="130" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
-        <v>60</v>
-      </c>
-      <c r="B130" s="3">
-        <v>66</v>
-      </c>
-      <c r="C130" s="3">
-        <v>3.7838362219993802</v>
-      </c>
-      <c r="D130" s="3">
-        <v>3.7838362220089001</v>
-      </c>
-      <c r="E130" s="3">
-        <v>3.7838362220083499</v>
-      </c>
-      <c r="F130" s="3">
-        <v>3.4704891403079499</v>
-      </c>
-      <c r="G130" s="3">
-        <v>3.7717207671136799</v>
-      </c>
-      <c r="H130" s="3">
-        <v>3.2100352337523801</v>
-      </c>
-      <c r="I130" s="3">
-        <v>3.7838362345766599</v>
-      </c>
-      <c r="J130" s="3"/>
+      <c r="A130" s="5">
+        <v>53</v>
+      </c>
+      <c r="B130" s="6">
+        <v>58</v>
+      </c>
+      <c r="C130" s="6">
+        <v>8.3672132948235696</v>
+      </c>
+      <c r="D130" s="6">
+        <v>6.7850983193687799</v>
+      </c>
+      <c r="E130" s="6">
+        <v>7.0084687342500196</v>
+      </c>
+      <c r="F130" s="6">
+        <v>6.7023184884862097</v>
+      </c>
+      <c r="G130" s="6">
+        <v>7.0457095609704403</v>
+      </c>
+      <c r="H130" s="6">
+        <v>6.7138241106025696</v>
+      </c>
+      <c r="I130" s="6">
+        <v>6.5964778165912801</v>
+      </c>
+      <c r="J130" s="6"/>
       <c r="K130" s="11">
-        <f t="shared" si="2"/>
-        <v>0.31334708169143033</v>
+        <f>C130-F130</f>
+        <v>1.6648948063373599</v>
       </c>
       <c r="L130" s="11">
-        <f t="shared" si="3"/>
-        <v>0.26045390655556977</v>
-      </c>
-      <c r="M130" s="3"/>
-      <c r="N130" s="3">
-        <v>66</v>
-      </c>
-      <c r="O130" s="3">
-        <v>9998248199.0529594</v>
-      </c>
-      <c r="P130" s="3">
-        <v>9999231552.98106</v>
-      </c>
-      <c r="Q130" s="3">
-        <v>6.9292723446047894E-2</v>
-      </c>
-      <c r="R130" s="3">
-        <v>5.8310098025602004</v>
-      </c>
-      <c r="S130" s="3">
-        <v>10</v>
-      </c>
-      <c r="T130" s="3">
-        <v>0.39266890479840799</v>
-      </c>
-      <c r="U130" s="3">
-        <v>10</v>
-      </c>
-      <c r="V130" s="3">
-        <v>1903.8322159648301</v>
-      </c>
-      <c r="W130" s="3">
-        <v>1521.7898656237901</v>
-      </c>
-      <c r="X130" s="4">
-        <v>-10</v>
+        <f>F130-H130</f>
+        <v>-1.1505622116359859E-2</v>
+      </c>
+      <c r="M130" s="6"/>
+      <c r="N130" s="6">
+        <v>58</v>
+      </c>
+      <c r="O130" s="6">
+        <v>1.8421806846851001E-2</v>
+      </c>
+      <c r="P130" s="8">
+        <v>5.8811045049606999E-5</v>
+      </c>
+      <c r="Q130" s="6">
+        <v>4.65298400456488E-2</v>
+      </c>
+      <c r="R130" s="6">
+        <v>6.7166151953056195E-4</v>
+      </c>
+      <c r="S130" s="6">
+        <v>0.18642218827356399</v>
+      </c>
+      <c r="T130" s="6">
+        <v>1.78403651463865E-3</v>
+      </c>
+      <c r="U130" s="6">
+        <v>0.43497526531130498</v>
+      </c>
+      <c r="V130" s="6">
+        <v>6.3968307860308004E-4</v>
+      </c>
+      <c r="W130" s="6">
+        <v>3.01503510328224E-2</v>
+      </c>
+      <c r="X130" s="7">
+        <v>0.68402231986035</v>
       </c>
     </row>
     <row r="131" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A131" s="5">
-        <v>76</v>
-      </c>
-      <c r="B131" s="6">
-        <v>82</v>
-      </c>
-      <c r="C131" s="6">
-        <v>2.20136326567</v>
-      </c>
-      <c r="D131" s="6">
-        <v>2.2013632656840301</v>
-      </c>
-      <c r="E131" s="6">
-        <v>2.2013632656848299</v>
-      </c>
-      <c r="F131" s="6">
-        <v>1.7702966528044399</v>
-      </c>
-      <c r="G131" s="6">
-        <v>2.0849437048502999</v>
-      </c>
-      <c r="H131" s="6">
-        <v>1.5139926141928901</v>
-      </c>
-      <c r="I131" s="6">
-        <v>1.5139926141528099</v>
-      </c>
-      <c r="J131" s="6"/>
+      <c r="A131" s="2">
+        <v>72</v>
+      </c>
+      <c r="B131" s="3">
+        <v>78</v>
+      </c>
+      <c r="C131" s="3">
+        <v>8.6872757887146808</v>
+      </c>
+      <c r="D131" s="3">
+        <v>8.6872757887252803</v>
+      </c>
+      <c r="E131" s="3">
+        <v>8.6872757887284102</v>
+      </c>
+      <c r="F131" s="3">
+        <v>8.6613638245240594</v>
+      </c>
+      <c r="G131" s="3">
+        <v>8.6872763163028992</v>
+      </c>
+      <c r="H131" s="3">
+        <v>8.2823925314804505</v>
+      </c>
+      <c r="I131" s="3">
+        <v>8.2823925314788305</v>
+      </c>
+      <c r="J131" s="3"/>
       <c r="K131" s="11">
-        <f t="shared" si="2"/>
-        <v>0.43106661286556003</v>
+        <f>C131-F131</f>
+        <v>2.5911964190621362E-2</v>
       </c>
       <c r="L131" s="11">
-        <f t="shared" si="3"/>
-        <v>0.25630403861154982</v>
-      </c>
-      <c r="M131" s="6"/>
-      <c r="N131" s="6">
-        <v>82</v>
-      </c>
-      <c r="O131" s="6">
-        <v>9999277781.4927502</v>
-      </c>
-      <c r="P131" s="6">
-        <v>9999111512.1573391</v>
-      </c>
-      <c r="Q131" s="6">
-        <v>6.8352729213527905E-2</v>
-      </c>
-      <c r="R131" s="6">
-        <v>0.81028346815535501</v>
-      </c>
-      <c r="S131" s="6">
-        <v>10</v>
-      </c>
-      <c r="T131" s="6">
-        <v>0.39802034413321002</v>
-      </c>
-      <c r="U131" s="6">
-        <v>10</v>
-      </c>
-      <c r="V131" s="6">
-        <v>0.39801739689607901</v>
-      </c>
-      <c r="W131" s="6">
-        <v>0</v>
-      </c>
-      <c r="X131" s="7">
+        <f>F131-H131</f>
+        <v>0.37897129304360888</v>
+      </c>
+      <c r="M131" s="3"/>
+      <c r="N131" s="3">
+        <v>78</v>
+      </c>
+      <c r="O131" s="3">
+        <v>9996226202.4680405</v>
+      </c>
+      <c r="P131" s="3">
+        <v>9996860259.7768707</v>
+      </c>
+      <c r="Q131" s="3">
+        <v>4.8506095839027999E-2</v>
+      </c>
+      <c r="R131" s="3">
+        <v>58866.309627244802</v>
+      </c>
+      <c r="S131" s="3">
+        <v>10</v>
+      </c>
+      <c r="T131" s="3">
+        <v>0.55397657141409296</v>
+      </c>
+      <c r="U131" s="3">
+        <v>10</v>
+      </c>
+      <c r="V131" s="3">
+        <v>0.55397642229056199</v>
+      </c>
+      <c r="W131" s="3">
+        <v>0</v>
+      </c>
+      <c r="X131" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="B132" s="3">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="C132" s="3">
-        <v>4.0341515473791398</v>
+        <v>9.7537848082167304</v>
       </c>
       <c r="D132" s="3">
-        <v>3.6050548321973599</v>
+        <v>8.8719091840169195</v>
       </c>
       <c r="E132" s="3">
-        <v>3.5804516184381998</v>
+        <v>9.29474593000519</v>
       </c>
       <c r="F132" s="3">
-        <v>3.5507470080765602</v>
+        <v>8.8445241451230494</v>
       </c>
       <c r="G132" s="3">
-        <v>3.6007150915794002</v>
+        <v>9.3484200019230599</v>
       </c>
       <c r="H132" s="3">
-        <v>3.5490745415662599</v>
+        <v>8.8491931284820105</v>
       </c>
       <c r="I132" s="3">
-        <v>3.5054228556053402</v>
+        <v>8.8498610096252808</v>
       </c>
       <c r="J132" s="3"/>
       <c r="K132" s="11">
-        <f t="shared" si="2"/>
-        <v>0.48340453930257965</v>
+        <f>C132-F132</f>
+        <v>0.90926066309368103</v>
       </c>
       <c r="L132" s="11">
-        <f t="shared" si="3"/>
-        <v>1.6724665103002856E-3</v>
+        <f>F132-H132</f>
+        <v>-4.668983358961043E-3</v>
       </c>
       <c r="M132" s="3"/>
       <c r="N132" s="3">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="O132" s="3">
-        <v>7.4907830901811495E-2</v>
+        <v>2.3705601227353702E-2</v>
       </c>
       <c r="P132" s="9">
         <v>5.8811045049606999E-5</v>
       </c>
       <c r="Q132" s="3">
-        <v>1.8749131777018702E-2</v>
+        <v>4.85698913232223E-2</v>
       </c>
       <c r="R132" s="3">
-        <v>7.1168231932654995E-4</v>
+        <v>6.7581802312836501E-4</v>
       </c>
       <c r="S132" s="3">
-        <v>0.20567787637829801</v>
+        <v>0.228557291334929</v>
       </c>
       <c r="T132" s="3">
-        <v>1.7950563720071E-3</v>
+        <v>3.10092563018455E-3</v>
       </c>
       <c r="U132" s="3">
-        <v>0.18060865354462899</v>
+        <v>0.50860702507594902</v>
       </c>
       <c r="V132" s="3">
-        <v>9.1373549339394803E-4</v>
+        <v>3.4711044086474202E-3</v>
       </c>
       <c r="W132" s="3">
-        <v>4.8882938326320999E-2</v>
+        <v>0</v>
       </c>
       <c r="X132" s="4">
-        <v>0.59321562176396803</v>
+        <v>0.53260321145674805</v>
       </c>
     </row>
     <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="B133" s="6">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="C133" s="6">
-        <v>2.0236991303626199</v>
+        <v>8.4206398211569695</v>
       </c>
       <c r="D133" s="6">
-        <v>2.0236991303882901</v>
+        <v>7.4534821086827998</v>
       </c>
       <c r="E133" s="6">
-        <v>2.0236991303920102</v>
+        <v>7.8320006356254899</v>
       </c>
       <c r="F133" s="6">
-        <v>1.50154716829157</v>
+        <v>7.4289243483634504</v>
       </c>
       <c r="G133" s="6">
-        <v>1.9282704647675399</v>
+        <v>7.8792919336356197</v>
       </c>
       <c r="H133" s="6">
-        <v>1.0526504052386101</v>
+        <v>7.4311571954578497</v>
       </c>
       <c r="I133" s="6">
-        <v>2.02369913922593</v>
+        <v>7.4030548780317798</v>
       </c>
       <c r="J133" s="6"/>
       <c r="K133" s="11">
-        <f t="shared" si="2"/>
-        <v>0.52215196207104997</v>
+        <f>C133-F133</f>
+        <v>0.99171547279351913</v>
       </c>
       <c r="L133" s="11">
-        <f t="shared" si="3"/>
-        <v>0.44889676305295989</v>
+        <f>F133-H133</f>
+        <v>-2.232847094399304E-3</v>
       </c>
       <c r="M133" s="6"/>
       <c r="N133" s="6">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="O133" s="6">
-        <v>9999695339.7421207</v>
-      </c>
-      <c r="P133" s="6">
-        <v>9999136035.33214</v>
+        <v>1.9268695797997899E-2</v>
+      </c>
+      <c r="P133" s="8">
+        <v>5.8811045049606999E-5</v>
       </c>
       <c r="Q133" s="6">
-        <v>8.7403056681916905E-2</v>
+        <v>5.1457242998269502E-2</v>
       </c>
       <c r="R133" s="6">
-        <v>1.39451057911817</v>
+        <v>6.7712009466841397E-4</v>
       </c>
       <c r="S133" s="6">
-        <v>10</v>
+        <v>0.24838907815276701</v>
       </c>
       <c r="T133" s="6">
-        <v>0.333957450785341</v>
+        <v>2.8313336286087802E-3</v>
       </c>
       <c r="U133" s="6">
-        <v>10</v>
+        <v>0.53231320434989604</v>
       </c>
       <c r="V133" s="6">
-        <v>3744.4734180970299</v>
+        <v>9.1945498197809703E-4</v>
       </c>
       <c r="W133" s="6">
-        <v>3397.8893806092901</v>
+        <v>2.15969027861595E-2</v>
       </c>
       <c r="X133" s="7">
-        <v>-10</v>
+        <v>1.03855623051532</v>
       </c>
     </row>
     <row r="134" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A134" s="5">
-        <v>17</v>
-      </c>
-      <c r="B134" s="6">
-        <v>19</v>
-      </c>
-      <c r="C134" s="6">
-        <v>4.5268111505658704</v>
-      </c>
-      <c r="D134" s="6">
-        <v>4.5268111505950701</v>
-      </c>
-      <c r="E134" s="6">
-        <v>4.5268111506017101</v>
-      </c>
-      <c r="F134" s="6">
-        <v>3.6269401624161102</v>
-      </c>
-      <c r="G134" s="6">
-        <v>4.4526509979689202</v>
-      </c>
-      <c r="H134" s="6">
-        <v>3.0482713212902701</v>
-      </c>
-      <c r="I134" s="6">
-        <v>4.5268111663465396</v>
-      </c>
-      <c r="J134" s="6"/>
+      <c r="A134" s="2">
+        <v>55</v>
+      </c>
+      <c r="B134" s="3">
+        <v>60</v>
+      </c>
+      <c r="C134" s="3">
+        <v>10.025013005047301</v>
+      </c>
+      <c r="D134" s="3">
+        <v>8.8492359497039192</v>
+      </c>
+      <c r="E134" s="3">
+        <v>9.2919390607561301</v>
+      </c>
+      <c r="F134" s="3">
+        <v>8.8002532405626308</v>
+      </c>
+      <c r="G134" s="3">
+        <v>9.3439128490864594</v>
+      </c>
+      <c r="H134" s="3">
+        <v>8.8143259807793992</v>
+      </c>
+      <c r="I134" s="3">
+        <v>8.8118724538965392</v>
+      </c>
+      <c r="J134" s="3"/>
       <c r="K134" s="11">
-        <f t="shared" si="2"/>
-        <v>0.89987098814976019</v>
+        <f>C134-F134</f>
+        <v>1.2247597644846699</v>
       </c>
       <c r="L134" s="11">
-        <f t="shared" si="3"/>
-        <v>0.57866884112584005</v>
-      </c>
-      <c r="M134" s="6"/>
-      <c r="N134" s="6">
-        <v>19</v>
-      </c>
-      <c r="O134" s="6">
-        <v>9998602090.2154808</v>
-      </c>
-      <c r="P134" s="6">
-        <v>9999135922.5410099</v>
-      </c>
-      <c r="Q134" s="6">
-        <v>0.11757534523839699</v>
-      </c>
-      <c r="R134" s="6">
-        <v>2.15496448450912</v>
-      </c>
-      <c r="S134" s="6">
-        <v>10</v>
-      </c>
-      <c r="T134" s="6">
-        <v>0.24283386446250199</v>
-      </c>
-      <c r="U134" s="6">
-        <v>10</v>
-      </c>
-      <c r="V134" s="6">
-        <v>2862.7923638494899</v>
-      </c>
-      <c r="W134" s="6">
-        <v>3017.4450163445999</v>
-      </c>
-      <c r="X134" s="7">
-        <v>-10</v>
+        <f>F134-H134</f>
+        <v>-1.4072740216768409E-2</v>
+      </c>
+      <c r="M134" s="3"/>
+      <c r="N134" s="3">
+        <v>60</v>
+      </c>
+      <c r="O134" s="3">
+        <v>1.8327649261631499E-2</v>
+      </c>
+      <c r="P134" s="9">
+        <v>5.8811045049606999E-5</v>
+      </c>
+      <c r="Q134" s="3">
+        <v>5.23763120084519E-2</v>
+      </c>
+      <c r="R134" s="3">
+        <v>6.9672836876094396E-4</v>
+      </c>
+      <c r="S134" s="3">
+        <v>0.244053165763087</v>
+      </c>
+      <c r="T134" s="3">
+        <v>2.4473448676806302E-3</v>
+      </c>
+      <c r="U134" s="3">
+        <v>0.52046600374473595</v>
+      </c>
+      <c r="V134" s="3">
+        <v>1.40872752633728E-3</v>
+      </c>
+      <c r="W134" s="9">
+        <v>7.0790448519412896E-6</v>
+      </c>
+      <c r="X134" s="4">
+        <v>0.47131436048604702</v>
       </c>
     </row>
     <row r="135" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
-        <v>56</v>
-      </c>
-      <c r="B135" s="3">
-        <v>61</v>
-      </c>
-      <c r="C135" s="3">
-        <v>9.7691070969114993</v>
-      </c>
-      <c r="D135" s="3">
-        <v>8.9391378558198706</v>
-      </c>
-      <c r="E135" s="3">
-        <v>9.0441218536099495</v>
-      </c>
-      <c r="F135" s="3">
-        <v>8.8676945194224501</v>
-      </c>
-      <c r="G135" s="3">
-        <v>9.0722159051737492</v>
-      </c>
-      <c r="H135" s="3">
-        <v>8.8757526563922706</v>
-      </c>
-      <c r="I135" s="3">
-        <v>8.8284618829428307</v>
-      </c>
-      <c r="J135" s="3"/>
+      <c r="A135" s="5">
+        <v>29</v>
+      </c>
+      <c r="B135" s="6">
+        <v>32</v>
+      </c>
+      <c r="C135" s="6">
+        <v>7.3776500464432697</v>
+      </c>
+      <c r="D135" s="6">
+        <v>6.0628065117362198</v>
+      </c>
+      <c r="E135" s="6">
+        <v>6.5917725098677904</v>
+      </c>
+      <c r="F135" s="6">
+        <v>6.0318890170294699</v>
+      </c>
+      <c r="G135" s="6">
+        <v>6.65769118515398</v>
+      </c>
+      <c r="H135" s="6">
+        <v>6.0367933824712097</v>
+      </c>
+      <c r="I135" s="6">
+        <v>5.9218636426243902</v>
+      </c>
+      <c r="J135" s="6"/>
       <c r="K135" s="11">
-        <f t="shared" si="2"/>
-        <v>0.90141257748904913</v>
+        <f>C135-F135</f>
+        <v>1.3457610294137998</v>
       </c>
       <c r="L135" s="11">
-        <f t="shared" si="3"/>
-        <v>-8.0581369698204952E-3</v>
-      </c>
-      <c r="M135" s="3"/>
-      <c r="N135" s="3">
-        <v>61</v>
-      </c>
-      <c r="O135" s="3">
-        <v>2.8830128976362598E-2</v>
-      </c>
-      <c r="P135" s="9">
+        <f>F135-H135</f>
+        <v>-4.9043654417397775E-3</v>
+      </c>
+      <c r="M135" s="6"/>
+      <c r="N135" s="6">
+        <v>32</v>
+      </c>
+      <c r="O135" s="6">
+        <v>1.6877023996722699E-2</v>
+      </c>
+      <c r="P135" s="8">
         <v>5.8811045049606999E-5</v>
       </c>
-      <c r="Q135" s="3">
-        <v>3.8741232649148603E-2</v>
-      </c>
-      <c r="R135" s="3">
-        <v>6.9548357914389505E-4</v>
-      </c>
-      <c r="S135" s="3">
-        <v>0.18916170877719199</v>
-      </c>
-      <c r="T135" s="3">
-        <v>1.74355423628631E-3</v>
-      </c>
-      <c r="U135" s="3">
-        <v>0.353912432325721</v>
-      </c>
-      <c r="V135" s="9">
-        <v>-4.3368086899420197E-19</v>
-      </c>
-      <c r="W135" s="3">
-        <v>3.8813698717029298E-2</v>
-      </c>
-      <c r="X135" s="4">
-        <v>0.92178417886645303</v>
+      <c r="Q135" s="6">
+        <v>5.3960783192660101E-2</v>
+      </c>
+      <c r="R135" s="6">
+        <v>6.89378609208844E-4</v>
+      </c>
+      <c r="S135" s="6">
+        <v>0.26464567912175602</v>
+      </c>
+      <c r="T135" s="6">
+        <v>2.8932911445158599E-3</v>
+      </c>
+      <c r="U135" s="6">
+        <v>0.563441790038954</v>
+      </c>
+      <c r="V135" s="6">
+        <v>7.2244841466820103E-4</v>
+      </c>
+      <c r="W135" s="6">
+        <v>1.1853004012337701E-2</v>
+      </c>
+      <c r="X135" s="7">
+        <v>0.76430425194553298</v>
       </c>
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B136" s="6">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="C136" s="6">
-        <v>1.9435705287356999</v>
+        <v>2.20136326567</v>
       </c>
       <c r="D136" s="6">
-        <v>1.94357052875367</v>
+        <v>2.2013632656840301</v>
       </c>
       <c r="E136" s="6">
-        <v>1.94357052875591</v>
+        <v>2.2013632656848299</v>
       </c>
       <c r="F136" s="6">
-        <v>1.03553669561315</v>
+        <v>1.7702966528044399</v>
       </c>
       <c r="G136" s="6">
-        <v>1.87303938804304</v>
+        <v>2.0849437048502999</v>
       </c>
       <c r="H136" s="6">
-        <v>0.73287361874333101</v>
+        <v>1.5139926141928901</v>
       </c>
       <c r="I136" s="6">
-        <v>0.73287361873779899</v>
+        <v>1.5139926141528099</v>
       </c>
       <c r="J136" s="6"/>
       <c r="K136" s="11">
-        <f t="shared" si="2"/>
-        <v>0.90803383312254993</v>
+        <f>C136-F136</f>
+        <v>0.43106661286556003</v>
       </c>
       <c r="L136" s="11">
-        <f t="shared" si="3"/>
-        <v>0.30266307686981897</v>
+        <f>F136-H136</f>
+        <v>0.25630403861154982</v>
       </c>
       <c r="M136" s="6"/>
       <c r="N136" s="6">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="O136" s="6">
-        <v>9999651261.0935497</v>
+        <v>9999277781.4927502</v>
       </c>
       <c r="P136" s="6">
-        <v>9999669207.5860405</v>
+        <v>9999111512.1573391</v>
       </c>
       <c r="Q136" s="6">
-        <v>0.10101621631086299</v>
+        <v>6.8352729213527905E-2</v>
       </c>
       <c r="R136" s="6">
-        <v>1.9339605227452099</v>
+        <v>0.81028346815535501</v>
       </c>
       <c r="S136" s="6">
         <v>10</v>
       </c>
       <c r="T136" s="6">
-        <v>0.273072996728142</v>
+        <v>0.39802034413321002</v>
       </c>
       <c r="U136" s="6">
         <v>10</v>
       </c>
       <c r="V136" s="6">
-        <v>0.27307294619453498</v>
+        <v>0.39801739689607901</v>
       </c>
       <c r="W136" s="6">
         <v>0</v>
@@ -10578,362 +10600,362 @@
     </row>
     <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B137" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C137" s="3">
-        <v>9.7537848082167304</v>
+        <v>1.6498249605706601</v>
       </c>
       <c r="D137" s="3">
-        <v>8.8719091840169195</v>
+        <v>1.6498249605937201</v>
       </c>
       <c r="E137" s="3">
-        <v>9.29474593000519</v>
+        <v>1.6498249605961499</v>
       </c>
       <c r="F137" s="3">
-        <v>8.8445241451230494</v>
+        <v>1.4700689825428701</v>
       </c>
       <c r="G137" s="3">
-        <v>9.3484200019230599</v>
+        <v>1.56882927501881</v>
       </c>
       <c r="H137" s="3">
-        <v>8.8491931284820105</v>
+        <v>1.0173093307535801</v>
       </c>
       <c r="I137" s="3">
-        <v>8.8498610096252808</v>
+        <v>1.6498249643951799</v>
       </c>
       <c r="J137" s="3"/>
       <c r="K137" s="11">
-        <f t="shared" si="2"/>
-        <v>0.90926066309368103</v>
+        <f>C137-F137</f>
+        <v>0.17975597802778998</v>
       </c>
       <c r="L137" s="11">
-        <f t="shared" si="3"/>
-        <v>-4.668983358961043E-3</v>
+        <f>F137-H137</f>
+        <v>0.45275965178929001</v>
       </c>
       <c r="M137" s="3"/>
       <c r="N137" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="O137" s="3">
-        <v>2.3705601227353702E-2</v>
-      </c>
-      <c r="P137" s="9">
-        <v>5.8811045049606999E-5</v>
+        <v>9999663479.2444191</v>
+      </c>
+      <c r="P137" s="3">
+        <v>9999136840.8406296</v>
       </c>
       <c r="Q137" s="3">
-        <v>4.85698913232223E-2</v>
+        <v>6.8640757099277902E-2</v>
       </c>
       <c r="R137" s="3">
-        <v>6.7581802312836501E-4</v>
+        <v>2.2013795969632599</v>
       </c>
       <c r="S137" s="3">
-        <v>0.228557291334929</v>
+        <v>10</v>
       </c>
       <c r="T137" s="3">
-        <v>3.10092563018455E-3</v>
+        <v>0.41270070080190302</v>
       </c>
       <c r="U137" s="3">
-        <v>0.50860702507594902</v>
+        <v>10</v>
       </c>
       <c r="V137" s="3">
-        <v>3.4711044086474202E-3</v>
+        <v>5586.9296251063497</v>
       </c>
       <c r="W137" s="3">
-        <v>0</v>
+        <v>4527.6210544317601</v>
       </c>
       <c r="X137" s="4">
-        <v>0.53260321145674805</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="138" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A138" s="5">
-        <v>81</v>
-      </c>
-      <c r="B138" s="6">
-        <v>87</v>
-      </c>
-      <c r="C138" s="6">
-        <v>8.4206398211569695</v>
-      </c>
-      <c r="D138" s="6">
-        <v>7.4534821086827998</v>
-      </c>
-      <c r="E138" s="6">
-        <v>7.8320006356254899</v>
-      </c>
-      <c r="F138" s="6">
-        <v>7.4289243483634504</v>
-      </c>
-      <c r="G138" s="6">
-        <v>7.8792919336356197</v>
-      </c>
-      <c r="H138" s="6">
-        <v>7.4311571954578497</v>
-      </c>
-      <c r="I138" s="6">
-        <v>7.4030548780317798</v>
-      </c>
-      <c r="J138" s="6"/>
+      <c r="A138" s="2">
+        <v>60</v>
+      </c>
+      <c r="B138" s="3">
+        <v>66</v>
+      </c>
+      <c r="C138" s="3">
+        <v>3.7838362219993802</v>
+      </c>
+      <c r="D138" s="3">
+        <v>3.7838362220089001</v>
+      </c>
+      <c r="E138" s="3">
+        <v>3.7838362220083499</v>
+      </c>
+      <c r="F138" s="3">
+        <v>3.4704891403079499</v>
+      </c>
+      <c r="G138" s="3">
+        <v>3.7717207671136799</v>
+      </c>
+      <c r="H138" s="3">
+        <v>3.2100352337523801</v>
+      </c>
+      <c r="I138" s="3">
+        <v>3.7838362345766599</v>
+      </c>
+      <c r="J138" s="3"/>
       <c r="K138" s="11">
-        <f t="shared" si="2"/>
-        <v>0.99171547279351913</v>
+        <f>C138-F138</f>
+        <v>0.31334708169143033</v>
       </c>
       <c r="L138" s="11">
-        <f t="shared" si="3"/>
-        <v>-2.232847094399304E-3</v>
-      </c>
-      <c r="M138" s="6"/>
-      <c r="N138" s="6">
-        <v>87</v>
-      </c>
-      <c r="O138" s="6">
-        <v>1.9268695797997899E-2</v>
-      </c>
-      <c r="P138" s="8">
-        <v>5.8811045049606999E-5</v>
-      </c>
-      <c r="Q138" s="6">
-        <v>5.1457242998269502E-2</v>
-      </c>
-      <c r="R138" s="6">
-        <v>6.7712009466841397E-4</v>
-      </c>
-      <c r="S138" s="6">
-        <v>0.24838907815276701</v>
-      </c>
-      <c r="T138" s="6">
-        <v>2.8313336286087802E-3</v>
-      </c>
-      <c r="U138" s="6">
-        <v>0.53231320434989604</v>
-      </c>
-      <c r="V138" s="6">
-        <v>9.1945498197809703E-4</v>
-      </c>
-      <c r="W138" s="6">
-        <v>2.15969027861595E-2</v>
-      </c>
-      <c r="X138" s="7">
-        <v>1.03855623051532</v>
+        <f>F138-H138</f>
+        <v>0.26045390655556977</v>
+      </c>
+      <c r="M138" s="3"/>
+      <c r="N138" s="3">
+        <v>66</v>
+      </c>
+      <c r="O138" s="3">
+        <v>9998248199.0529594</v>
+      </c>
+      <c r="P138" s="3">
+        <v>9999231552.98106</v>
+      </c>
+      <c r="Q138" s="3">
+        <v>6.9292723446047894E-2</v>
+      </c>
+      <c r="R138" s="3">
+        <v>5.8310098025602004</v>
+      </c>
+      <c r="S138" s="3">
+        <v>10</v>
+      </c>
+      <c r="T138" s="3">
+        <v>0.39266890479840799</v>
+      </c>
+      <c r="U138" s="3">
+        <v>10</v>
+      </c>
+      <c r="V138" s="3">
+        <v>1903.8322159648301</v>
+      </c>
+      <c r="W138" s="3">
+        <v>1521.7898656237901</v>
+      </c>
+      <c r="X138" s="4">
+        <v>-10</v>
       </c>
     </row>
     <row r="139" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A139" s="2">
-        <v>55</v>
-      </c>
-      <c r="B139" s="3">
-        <v>60</v>
-      </c>
-      <c r="C139" s="3">
-        <v>10.025013005047301</v>
-      </c>
-      <c r="D139" s="3">
-        <v>8.8492359497039192</v>
-      </c>
-      <c r="E139" s="3">
-        <v>9.2919390607561301</v>
-      </c>
-      <c r="F139" s="3">
-        <v>8.8002532405626308</v>
-      </c>
-      <c r="G139" s="3">
-        <v>9.3439128490864594</v>
-      </c>
-      <c r="H139" s="3">
-        <v>8.8143259807793992</v>
-      </c>
-      <c r="I139" s="3">
-        <v>8.8118724538965392</v>
-      </c>
-      <c r="J139" s="3"/>
+      <c r="A139" s="5">
+        <v>24</v>
+      </c>
+      <c r="B139" s="6">
+        <v>27</v>
+      </c>
+      <c r="C139" s="6">
+        <v>2.0236991303626199</v>
+      </c>
+      <c r="D139" s="6">
+        <v>2.0236991303882901</v>
+      </c>
+      <c r="E139" s="6">
+        <v>2.0236991303920102</v>
+      </c>
+      <c r="F139" s="6">
+        <v>1.50154716829157</v>
+      </c>
+      <c r="G139" s="6">
+        <v>1.9282704647675399</v>
+      </c>
+      <c r="H139" s="6">
+        <v>1.0526504052386101</v>
+      </c>
+      <c r="I139" s="6">
+        <v>2.02369913922593</v>
+      </c>
+      <c r="J139" s="6"/>
       <c r="K139" s="11">
-        <f t="shared" si="2"/>
-        <v>1.2247597644846699</v>
+        <f>C139-F139</f>
+        <v>0.52215196207104997</v>
       </c>
       <c r="L139" s="11">
-        <f t="shared" si="3"/>
-        <v>-1.4072740216768409E-2</v>
-      </c>
-      <c r="M139" s="3"/>
-      <c r="N139" s="3">
-        <v>60</v>
-      </c>
-      <c r="O139" s="3">
-        <v>1.8327649261631499E-2</v>
-      </c>
-      <c r="P139" s="9">
-        <v>5.8811045049606999E-5</v>
-      </c>
-      <c r="Q139" s="3">
-        <v>5.23763120084519E-2</v>
-      </c>
-      <c r="R139" s="3">
-        <v>6.9672836876094396E-4</v>
-      </c>
-      <c r="S139" s="3">
-        <v>0.244053165763087</v>
-      </c>
-      <c r="T139" s="3">
-        <v>2.4473448676806302E-3</v>
-      </c>
-      <c r="U139" s="3">
-        <v>0.52046600374473595</v>
-      </c>
-      <c r="V139" s="3">
-        <v>1.40872752633728E-3</v>
-      </c>
-      <c r="W139" s="9">
-        <v>7.0790448519412896E-6</v>
-      </c>
-      <c r="X139" s="4">
-        <v>0.47131436048604702</v>
+        <f>F139-H139</f>
+        <v>0.44889676305295989</v>
+      </c>
+      <c r="M139" s="6"/>
+      <c r="N139" s="6">
+        <v>27</v>
+      </c>
+      <c r="O139" s="6">
+        <v>9999695339.7421207</v>
+      </c>
+      <c r="P139" s="6">
+        <v>9999136035.33214</v>
+      </c>
+      <c r="Q139" s="6">
+        <v>8.7403056681916905E-2</v>
+      </c>
+      <c r="R139" s="6">
+        <v>1.39451057911817</v>
+      </c>
+      <c r="S139" s="6">
+        <v>10</v>
+      </c>
+      <c r="T139" s="6">
+        <v>0.333957450785341</v>
+      </c>
+      <c r="U139" s="6">
+        <v>10</v>
+      </c>
+      <c r="V139" s="6">
+        <v>3744.4734180970299</v>
+      </c>
+      <c r="W139" s="6">
+        <v>3397.8893806092901</v>
+      </c>
+      <c r="X139" s="7">
+        <v>-10</v>
       </c>
     </row>
     <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B140" s="6">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C140" s="6">
-        <v>7.3776500464432697</v>
+        <v>1.9435705287356999</v>
       </c>
       <c r="D140" s="6">
-        <v>6.0628065117362198</v>
+        <v>1.94357052875367</v>
       </c>
       <c r="E140" s="6">
-        <v>6.5917725098677904</v>
+        <v>1.94357052875591</v>
       </c>
       <c r="F140" s="6">
-        <v>6.0318890170294699</v>
+        <v>1.03553669561315</v>
       </c>
       <c r="G140" s="6">
-        <v>6.65769118515398</v>
+        <v>1.87303938804304</v>
       </c>
       <c r="H140" s="6">
-        <v>6.0367933824712097</v>
+        <v>0.73287361874333101</v>
       </c>
       <c r="I140" s="6">
-        <v>5.9218636426243902</v>
+        <v>0.73287361873779899</v>
       </c>
       <c r="J140" s="6"/>
       <c r="K140" s="11">
-        <f t="shared" si="2"/>
-        <v>1.3457610294137998</v>
+        <f>C140-F140</f>
+        <v>0.90803383312254993</v>
       </c>
       <c r="L140" s="11">
-        <f t="shared" si="3"/>
-        <v>-4.9043654417397775E-3</v>
+        <f>F140-H140</f>
+        <v>0.30266307686981897</v>
       </c>
       <c r="M140" s="6"/>
       <c r="N140" s="6">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="O140" s="6">
-        <v>1.6877023996722699E-2</v>
-      </c>
-      <c r="P140" s="8">
-        <v>5.8811045049606999E-5</v>
+        <v>9999651261.0935497</v>
+      </c>
+      <c r="P140" s="6">
+        <v>9999669207.5860405</v>
       </c>
       <c r="Q140" s="6">
-        <v>5.3960783192660101E-2</v>
+        <v>0.10101621631086299</v>
       </c>
       <c r="R140" s="6">
-        <v>6.89378609208844E-4</v>
+        <v>1.9339605227452099</v>
       </c>
       <c r="S140" s="6">
-        <v>0.26464567912175602</v>
+        <v>10</v>
       </c>
       <c r="T140" s="6">
-        <v>2.8932911445158599E-3</v>
+        <v>0.273072996728142</v>
       </c>
       <c r="U140" s="6">
-        <v>0.563441790038954</v>
+        <v>10</v>
       </c>
       <c r="V140" s="6">
-        <v>7.2244841466820103E-4</v>
+        <v>0.27307294619453498</v>
       </c>
       <c r="W140" s="6">
-        <v>1.1853004012337701E-2</v>
+        <v>0</v>
       </c>
       <c r="X140" s="7">
-        <v>0.76430425194553298</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B141" s="6">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="C141" s="6">
-        <v>8.3672132948235696</v>
+        <v>4.5268111505658704</v>
       </c>
       <c r="D141" s="6">
-        <v>6.7850983193687799</v>
+        <v>4.5268111505950701</v>
       </c>
       <c r="E141" s="6">
-        <v>7.0084687342500196</v>
+        <v>4.5268111506017101</v>
       </c>
       <c r="F141" s="6">
-        <v>6.7023184884862097</v>
+        <v>3.6269401624161102</v>
       </c>
       <c r="G141" s="6">
-        <v>7.0457095609704403</v>
+        <v>4.4526509979689202</v>
       </c>
       <c r="H141" s="6">
-        <v>6.7138241106025696</v>
+        <v>3.0482713212902701</v>
       </c>
       <c r="I141" s="6">
-        <v>6.5964778165912801</v>
+        <v>4.5268111663465396</v>
       </c>
       <c r="J141" s="6"/>
       <c r="K141" s="11">
-        <f t="shared" si="2"/>
-        <v>1.6648948063373599</v>
+        <f>C141-F141</f>
+        <v>0.89987098814976019</v>
       </c>
       <c r="L141" s="11">
-        <f t="shared" si="3"/>
-        <v>-1.1505622116359859E-2</v>
+        <f>F141-H141</f>
+        <v>0.57866884112584005</v>
       </c>
       <c r="M141" s="6"/>
       <c r="N141" s="6">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="O141" s="6">
-        <v>1.8421806846851001E-2</v>
-      </c>
-      <c r="P141" s="8">
-        <v>5.8811045049606999E-5</v>
+        <v>9998602090.2154808</v>
+      </c>
+      <c r="P141" s="6">
+        <v>9999135922.5410099</v>
       </c>
       <c r="Q141" s="6">
-        <v>4.65298400456488E-2</v>
+        <v>0.11757534523839699</v>
       </c>
       <c r="R141" s="6">
-        <v>6.7166151953056195E-4</v>
+        <v>2.15496448450912</v>
       </c>
       <c r="S141" s="6">
-        <v>0.18642218827356399</v>
+        <v>10</v>
       </c>
       <c r="T141" s="6">
-        <v>1.78403651463865E-3</v>
+        <v>0.24283386446250199</v>
       </c>
       <c r="U141" s="6">
-        <v>0.43497526531130498</v>
+        <v>10</v>
       </c>
       <c r="V141" s="6">
-        <v>6.3968307860308004E-4</v>
+        <v>2862.7923638494899</v>
       </c>
       <c r="W141" s="6">
-        <v>3.01503510328224E-2</v>
+        <v>3017.4450163445999</v>
       </c>
       <c r="X141" s="7">
-        <v>0.68402231986035</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="142" spans="1:24" x14ac:dyDescent="0.25">
@@ -10966,11 +10988,11 @@
       </c>
       <c r="J142" s="6"/>
       <c r="K142" s="11">
-        <f t="shared" si="2"/>
+        <f>C142-F142</f>
         <v>3.1333889343857413</v>
       </c>
       <c r="L142" s="11">
-        <f t="shared" si="3"/>
+        <f>F142-H142</f>
         <v>7.4295770592796018E-3</v>
       </c>
       <c r="M142" s="6"/>
@@ -11038,11 +11060,11 @@
       </c>
       <c r="J143" s="3"/>
       <c r="K143" s="11">
-        <f t="shared" si="2"/>
+        <f>C143-F143</f>
         <v>3.5202749368365911</v>
       </c>
       <c r="L143" s="11">
-        <f t="shared" si="3"/>
+        <f>F143-H143</f>
         <v>0.34349973263866929</v>
       </c>
       <c r="M143" s="3"/>
@@ -11081,219 +11103,219 @@
       </c>
     </row>
     <row r="144" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A144" s="2">
-        <v>79</v>
-      </c>
-      <c r="B144" s="3">
-        <v>85</v>
-      </c>
-      <c r="C144" s="3">
-        <v>13.868037414316699</v>
-      </c>
-      <c r="D144" s="3">
-        <v>13.8680374143328</v>
-      </c>
-      <c r="E144" s="3">
-        <v>13.8680374143314</v>
-      </c>
-      <c r="F144" s="3">
-        <v>9.3651099059686</v>
-      </c>
-      <c r="G144" s="3">
-        <v>13.773937426697</v>
-      </c>
-      <c r="H144" s="3">
-        <v>9.1080763722855504</v>
-      </c>
-      <c r="I144" s="3">
-        <v>9.2639802873807504</v>
-      </c>
-      <c r="J144" s="3"/>
+      <c r="A144" s="5">
+        <v>82</v>
+      </c>
+      <c r="B144" s="6">
+        <v>88</v>
+      </c>
+      <c r="C144" s="6">
+        <v>12.073391465944599</v>
+      </c>
+      <c r="D144" s="6">
+        <v>12.073391465981601</v>
+      </c>
+      <c r="E144" s="6">
+        <v>12.0733914659866</v>
+      </c>
+      <c r="F144" s="6">
+        <v>7.4218285674447104</v>
+      </c>
+      <c r="G144" s="6">
+        <v>11.983871773690501</v>
+      </c>
+      <c r="H144" s="6">
+        <v>7.0572646131288099</v>
+      </c>
+      <c r="I144" s="6">
+        <v>7.0572646128362297</v>
+      </c>
+      <c r="J144" s="6"/>
       <c r="K144" s="11">
-        <f t="shared" si="2"/>
-        <v>4.5029275083480993</v>
+        <f>C144-F144</f>
+        <v>4.6515628984998889</v>
       </c>
       <c r="L144" s="11">
-        <f t="shared" si="3"/>
-        <v>0.2570335336830496</v>
-      </c>
-      <c r="M144" s="3"/>
-      <c r="N144" s="3">
-        <v>85</v>
-      </c>
-      <c r="O144" s="3">
-        <v>9993392315.8256893</v>
-      </c>
-      <c r="P144" s="3">
-        <v>9998278463.4304504</v>
-      </c>
-      <c r="Q144" s="3">
-        <v>0.22613435692554101</v>
-      </c>
-      <c r="R144" s="3">
-        <v>2.4228632029898698</v>
-      </c>
-      <c r="S144" s="3">
-        <v>10</v>
-      </c>
-      <c r="T144" s="3">
-        <v>0.104469250947631</v>
-      </c>
-      <c r="U144" s="3">
-        <v>10</v>
-      </c>
-      <c r="V144" s="3">
-        <v>3.6738007858501199E-3</v>
-      </c>
-      <c r="W144" s="3">
-        <v>0</v>
-      </c>
-      <c r="X144" s="4">
-        <v>2.51824891531012</v>
+        <f>F144-H144</f>
+        <v>0.3645639543159005</v>
+      </c>
+      <c r="M144" s="6"/>
+      <c r="N144" s="6">
+        <v>88</v>
+      </c>
+      <c r="O144" s="6">
+        <v>9999287503.97122</v>
+      </c>
+      <c r="P144" s="6">
+        <v>9999209986.0840492</v>
+      </c>
+      <c r="Q144" s="6">
+        <v>0.21154729980065601</v>
+      </c>
+      <c r="R144" s="6">
+        <v>2.1120583005219999</v>
+      </c>
+      <c r="S144" s="6">
+        <v>10</v>
+      </c>
+      <c r="T144" s="6">
+        <v>0.12033757186349101</v>
+      </c>
+      <c r="U144" s="6">
+        <v>10</v>
+      </c>
+      <c r="V144" s="6">
+        <v>0.120337361739123</v>
+      </c>
+      <c r="W144" s="6">
+        <v>0</v>
+      </c>
+      <c r="X144" s="7">
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A145" s="5">
-        <v>82</v>
-      </c>
-      <c r="B145" s="6">
-        <v>88</v>
-      </c>
-      <c r="C145" s="6">
-        <v>12.073391465944599</v>
-      </c>
-      <c r="D145" s="6">
-        <v>12.073391465981601</v>
-      </c>
-      <c r="E145" s="6">
-        <v>12.0733914659866</v>
-      </c>
-      <c r="F145" s="6">
-        <v>7.4218285674447104</v>
-      </c>
-      <c r="G145" s="6">
-        <v>11.983871773690501</v>
-      </c>
-      <c r="H145" s="6">
-        <v>7.0572646131288099</v>
-      </c>
-      <c r="I145" s="6">
-        <v>7.0572646128362297</v>
-      </c>
-      <c r="J145" s="6"/>
+      <c r="A145" s="2">
+        <v>48</v>
+      </c>
+      <c r="B145" s="3">
+        <v>53</v>
+      </c>
+      <c r="C145" s="3">
+        <v>11.7575499504766</v>
+      </c>
+      <c r="D145" s="3">
+        <v>11.7575499505087</v>
+      </c>
+      <c r="E145" s="3">
+        <v>11.7575499505128</v>
+      </c>
+      <c r="F145" s="3">
+        <v>7.0572691374105299</v>
+      </c>
+      <c r="G145" s="3">
+        <v>11.647008964446799</v>
+      </c>
+      <c r="H145" s="3">
+        <v>6.3971160982075199</v>
+      </c>
+      <c r="I145" s="3">
+        <v>6.3971160953918504</v>
+      </c>
+      <c r="J145" s="3"/>
       <c r="K145" s="11">
-        <f t="shared" si="2"/>
-        <v>4.6515628984998889</v>
+        <f>C145-F145</f>
+        <v>4.7002808130660698</v>
       </c>
       <c r="L145" s="11">
-        <f t="shared" si="3"/>
-        <v>0.3645639543159005</v>
-      </c>
-      <c r="M145" s="6"/>
-      <c r="N145" s="6">
-        <v>88</v>
-      </c>
-      <c r="O145" s="6">
-        <v>9999287503.97122</v>
-      </c>
-      <c r="P145" s="6">
-        <v>9999209986.0840492</v>
-      </c>
-      <c r="Q145" s="6">
-        <v>0.21154729980065601</v>
-      </c>
-      <c r="R145" s="6">
-        <v>2.1120583005219999</v>
-      </c>
-      <c r="S145" s="6">
-        <v>10</v>
-      </c>
-      <c r="T145" s="6">
-        <v>0.12033757186349101</v>
-      </c>
-      <c r="U145" s="6">
-        <v>10</v>
-      </c>
-      <c r="V145" s="6">
-        <v>0.120337361739123</v>
-      </c>
-      <c r="W145" s="6">
-        <v>0</v>
-      </c>
-      <c r="X145" s="7">
+        <f>F145-H145</f>
+        <v>0.66015303920300994</v>
+      </c>
+      <c r="M145" s="3"/>
+      <c r="N145" s="3">
+        <v>53</v>
+      </c>
+      <c r="O145" s="3">
+        <v>9999099657.9258709</v>
+      </c>
+      <c r="P145" s="3">
+        <v>9997958788.1070995</v>
+      </c>
+      <c r="Q145" s="3">
+        <v>0.211818113013022</v>
+      </c>
+      <c r="R145" s="3">
+        <v>1.9957782029997699</v>
+      </c>
+      <c r="S145" s="3">
+        <v>10</v>
+      </c>
+      <c r="T145" s="3">
+        <v>0.118053252012415</v>
+      </c>
+      <c r="U145" s="3">
+        <v>10</v>
+      </c>
+      <c r="V145" s="3">
+        <v>0.11805101341856999</v>
+      </c>
+      <c r="W145" s="3">
+        <v>0</v>
+      </c>
+      <c r="X145" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="B146" s="3">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C146" s="3">
-        <v>11.7575499504766</v>
+        <v>13.868037414316699</v>
       </c>
       <c r="D146" s="3">
-        <v>11.7575499505087</v>
+        <v>13.8680374143328</v>
       </c>
       <c r="E146" s="3">
-        <v>11.7575499505128</v>
+        <v>13.8680374143314</v>
       </c>
       <c r="F146" s="3">
-        <v>7.0572691374105299</v>
+        <v>9.3651099059686</v>
       </c>
       <c r="G146" s="3">
-        <v>11.647008964446799</v>
+        <v>13.773937426697</v>
       </c>
       <c r="H146" s="3">
-        <v>6.3971160982075199</v>
+        <v>9.1080763722855504</v>
       </c>
       <c r="I146" s="3">
-        <v>6.3971160953918504</v>
+        <v>9.2639802873807504</v>
       </c>
       <c r="J146" s="3"/>
       <c r="K146" s="11">
-        <f t="shared" si="2"/>
-        <v>4.7002808130660698</v>
+        <f>C146-F146</f>
+        <v>4.5029275083480993</v>
       </c>
       <c r="L146" s="11">
-        <f t="shared" si="3"/>
-        <v>0.66015303920300994</v>
+        <f>F146-H146</f>
+        <v>0.2570335336830496</v>
       </c>
       <c r="M146" s="3"/>
       <c r="N146" s="3">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="O146" s="3">
-        <v>9999099657.9258709</v>
+        <v>9993392315.8256893</v>
       </c>
       <c r="P146" s="3">
-        <v>9997958788.1070995</v>
+        <v>9998278463.4304504</v>
       </c>
       <c r="Q146" s="3">
-        <v>0.211818113013022</v>
+        <v>0.22613435692554101</v>
       </c>
       <c r="R146" s="3">
-        <v>1.9957782029997699</v>
+        <v>2.4228632029898698</v>
       </c>
       <c r="S146" s="3">
         <v>10</v>
       </c>
       <c r="T146" s="3">
-        <v>0.118053252012415</v>
+        <v>0.104469250947631</v>
       </c>
       <c r="U146" s="3">
         <v>10</v>
       </c>
       <c r="V146" s="3">
-        <v>0.11805101341856999</v>
+        <v>3.6738007858501199E-3</v>
       </c>
       <c r="W146" s="3">
         <v>0</v>
       </c>
       <c r="X146" s="4">
-        <v>10</v>
+        <v>2.51824891531012</v>
       </c>
     </row>
     <row r="147" spans="1:24" x14ac:dyDescent="0.25">
@@ -11326,11 +11348,11 @@
       </c>
       <c r="J147" s="3"/>
       <c r="K147" s="11">
-        <f t="shared" si="2"/>
+        <f>C147-F147</f>
         <v>8.9686749635906899</v>
       </c>
       <c r="L147" s="11">
-        <f t="shared" si="3"/>
+        <f>F147-H147</f>
         <v>0.72048011199370965</v>
       </c>
       <c r="M147" s="3"/>
@@ -11398,11 +11420,11 @@
       </c>
       <c r="J148" s="11"/>
       <c r="K148" s="11">
-        <f t="shared" si="2"/>
+        <f>C148-F148</f>
         <v>10.799817021485691</v>
       </c>
       <c r="L148" s="11">
-        <f t="shared" si="3"/>
+        <f>F148-H148</f>
         <v>5.1374102876780015E-2</v>
       </c>
       <c r="M148" s="11"/>
@@ -11458,11 +11480,19 @@
         <f>MAX(K128:K148)</f>
         <v>10.799817021485691</v>
       </c>
+      <c r="Q151">
+        <f>MAX(Q128:Q148)</f>
+        <v>0.53689936716434905</v>
+      </c>
     </row>
     <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="K152">
         <f>AVERAGE(K128:K148)</f>
-        <v>2.4322987785355328</v>
+        <v>2.4322987785355332</v>
+      </c>
+      <c r="Q152">
+        <f>MIN(Q128:Q148)</f>
+        <v>1.8749131777018702E-2</v>
       </c>
     </row>
     <row r="153" spans="1:24" x14ac:dyDescent="0.25">
@@ -11475,71 +11505,2212 @@
     <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="K154">
         <f>SUM(K128:K148)</f>
-        <v>51.078274349246186</v>
+        <v>51.0782743492462</v>
       </c>
     </row>
     <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="L158" s="13"/>
     </row>
     <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>47</v>
+      </c>
       <c r="L159" s="13"/>
     </row>
     <row r="160" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="L160" s="13"/>
-    </row>
-    <row r="161" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="L161" s="13"/>
-    </row>
-    <row r="162" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="L162" s="13"/>
-    </row>
-    <row r="163" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="L163" s="13"/>
-    </row>
-    <row r="164" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="L164" s="13"/>
-    </row>
-    <row r="165" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="L165" s="13"/>
-    </row>
-    <row r="166" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="L166" s="13"/>
-    </row>
-    <row r="167" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="L167" s="13"/>
-    </row>
-    <row r="168" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="L168" s="13"/>
-    </row>
-    <row r="169" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="L169" s="13"/>
-    </row>
-    <row r="176" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="P176" s="1"/>
-      <c r="V176" s="1"/>
-    </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="P178" s="1"/>
-    </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="P179" s="1"/>
-    </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="P180" s="1"/>
-      <c r="W180" s="1"/>
-    </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="P181" s="1"/>
-    </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="P182" s="1"/>
-    </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A160" s="107">
+        <v>73</v>
+      </c>
+      <c r="B160" s="108">
+        <v>79</v>
+      </c>
+      <c r="C160" s="108">
+        <v>5.7758315843985901</v>
+      </c>
+      <c r="D160" s="108">
+        <v>5.7758315844447301</v>
+      </c>
+      <c r="E160" s="108">
+        <v>5.7758315844499499</v>
+      </c>
+      <c r="F160" s="108">
+        <v>6.63777203959296</v>
+      </c>
+      <c r="G160" s="108">
+        <v>5.2572615438692099</v>
+      </c>
+      <c r="H160" s="108">
+        <v>5.7758323279911803</v>
+      </c>
+      <c r="I160" s="108">
+        <v>5.7758316086766701</v>
+      </c>
+      <c r="J160" s="108"/>
+      <c r="K160" s="108" t="e">
+        <f>Tabelle15[[#This Row],[KL UB]]-Tabelle15[[#This Row],[KL lambda]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L160" s="108" t="e">
+        <f>Tabelle15[[#This Row],[KL lambda]]-Tabelle15[[#This Row],[KL ga la]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M160" s="108"/>
+      <c r="N160" s="108">
+        <v>79</v>
+      </c>
+      <c r="O160" s="108">
+        <v>9999567280.1911907</v>
+      </c>
+      <c r="P160" s="108">
+        <v>9999961280.7843704</v>
+      </c>
+      <c r="Q160" s="108">
+        <v>6.7863092424260099E-2</v>
+      </c>
+      <c r="R160" s="108">
+        <v>0.57768180893906995</v>
+      </c>
+      <c r="S160" s="108">
+        <v>10</v>
+      </c>
+      <c r="T160" s="108">
+        <v>620518.15049150703</v>
+      </c>
+      <c r="U160" s="108">
+        <v>10</v>
+      </c>
+      <c r="V160" s="108">
+        <v>2919.79146010767</v>
+      </c>
+      <c r="W160" s="108">
+        <v>2792.7588679594301</v>
+      </c>
+      <c r="X160" s="109">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A161" s="105">
+        <v>30</v>
+      </c>
+      <c r="B161" s="14">
+        <v>33</v>
+      </c>
+      <c r="C161" s="14">
+        <v>7.7914207835402101</v>
+      </c>
+      <c r="D161" s="14">
+        <v>7.7914207835933098</v>
+      </c>
+      <c r="E161" s="14">
+        <v>7.7914207836017901</v>
+      </c>
+      <c r="F161" s="14">
+        <v>8.6433234218104396</v>
+      </c>
+      <c r="G161" s="14">
+        <v>7.5161961136412696</v>
+      </c>
+      <c r="H161" s="14">
+        <v>7.7914215748329996</v>
+      </c>
+      <c r="I161" s="14">
+        <v>7.7914208050185598</v>
+      </c>
+      <c r="J161" s="14"/>
+      <c r="K161" s="14" t="e">
+        <f>Tabelle15[[#This Row],[KL UB]]-Tabelle15[[#This Row],[KL lambda]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L161" s="14" t="e">
+        <f>Tabelle15[[#This Row],[KL lambda]]-Tabelle15[[#This Row],[KL ga la]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M161" s="14"/>
+      <c r="N161" s="14">
+        <v>33</v>
+      </c>
+      <c r="O161" s="14">
+        <v>9998647333.4664497</v>
+      </c>
+      <c r="P161" s="14">
+        <v>9999158613.0591908</v>
+      </c>
+      <c r="Q161" s="14">
+        <v>6.5947451032281307E-2</v>
+      </c>
+      <c r="R161" s="14">
+        <v>1.0705846999525199</v>
+      </c>
+      <c r="S161" s="14">
+        <v>10</v>
+      </c>
+      <c r="T161" s="14">
+        <v>670949.86242812499</v>
+      </c>
+      <c r="U161" s="14">
+        <v>10</v>
+      </c>
+      <c r="V161" s="14">
+        <v>3269.4358989260299</v>
+      </c>
+      <c r="W161" s="14">
+        <v>3281.04863568568</v>
+      </c>
+      <c r="X161" s="106">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A162" s="107">
+        <v>80</v>
+      </c>
+      <c r="B162" s="108">
+        <v>86</v>
+      </c>
+      <c r="C162" s="108">
+        <v>3.41713958610729</v>
+      </c>
+      <c r="D162" s="108">
+        <v>3.41713958614007</v>
+      </c>
+      <c r="E162" s="108">
+        <v>3.4171395861436999</v>
+      </c>
+      <c r="F162" s="108">
+        <v>4.1425260407452598</v>
+      </c>
+      <c r="G162" s="108">
+        <v>3.1816113754490098</v>
+      </c>
+      <c r="H162" s="108">
+        <v>3.41713982267111</v>
+      </c>
+      <c r="I162" s="108">
+        <v>3.4171395949156498</v>
+      </c>
+      <c r="J162" s="108"/>
+      <c r="K162" s="108" t="e">
+        <f>Tabelle15[[#This Row],[KL UB]]-Tabelle15[[#This Row],[KL lambda]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L162" s="108" t="e">
+        <f>Tabelle15[[#This Row],[KL lambda]]-Tabelle15[[#This Row],[KL ga la]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M162" s="108"/>
+      <c r="N162" s="108">
+        <v>86</v>
+      </c>
+      <c r="O162" s="108">
+        <v>9998867708.1342106</v>
+      </c>
+      <c r="P162" s="108">
+        <v>9999917245.7254391</v>
+      </c>
+      <c r="Q162" s="108">
+        <v>5.4913924483552902E-2</v>
+      </c>
+      <c r="R162" s="108">
+        <v>1.09938130947312</v>
+      </c>
+      <c r="S162" s="108">
+        <v>10</v>
+      </c>
+      <c r="T162" s="108">
+        <v>1385782.0591390301</v>
+      </c>
+      <c r="U162" s="108">
+        <v>10</v>
+      </c>
+      <c r="V162" s="108">
+        <v>3799.4403021217699</v>
+      </c>
+      <c r="W162" s="108">
+        <v>4170.4929697047801</v>
+      </c>
+      <c r="X162" s="109">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A163" s="105">
+        <v>34</v>
+      </c>
+      <c r="B163" s="14">
+        <v>37</v>
+      </c>
+      <c r="C163" s="14">
+        <v>1.1998025972092099</v>
+      </c>
+      <c r="D163" s="14">
+        <v>1.1998025972208499</v>
+      </c>
+      <c r="E163" s="14">
+        <v>1.19980259722268</v>
+      </c>
+      <c r="F163" s="14">
+        <v>1.6452587280295801</v>
+      </c>
+      <c r="G163" s="14">
+        <v>1.00853124610363</v>
+      </c>
+      <c r="H163" s="14">
+        <v>1.1998028202887101</v>
+      </c>
+      <c r="I163" s="14">
+        <v>1.19980260135612</v>
+      </c>
+      <c r="J163" s="14"/>
+      <c r="K163" s="14" t="e">
+        <f>Tabelle15[[#This Row],[KL UB]]-Tabelle15[[#This Row],[KL lambda]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L163" s="14" t="e">
+        <f>Tabelle15[[#This Row],[KL lambda]]-Tabelle15[[#This Row],[KL ga la]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M163" s="14"/>
+      <c r="N163" s="14">
+        <v>37</v>
+      </c>
+      <c r="O163" s="14">
+        <v>9998585495.8650208</v>
+      </c>
+      <c r="P163" s="14">
+        <v>9998703785.7720699</v>
+      </c>
+      <c r="Q163" s="14">
+        <v>1.43632791496951E-2</v>
+      </c>
+      <c r="R163" s="14">
+        <v>0.42894919317532398</v>
+      </c>
+      <c r="S163" s="14">
+        <v>10</v>
+      </c>
+      <c r="T163" s="14">
+        <v>521614.29051056399</v>
+      </c>
+      <c r="U163" s="14">
+        <v>9.9999999997038405</v>
+      </c>
+      <c r="V163" s="14">
+        <v>3256.4288739870899</v>
+      </c>
+      <c r="W163" s="14">
+        <v>3858.4493916162</v>
+      </c>
+      <c r="X163" s="106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A164" s="107">
+        <v>64</v>
+      </c>
+      <c r="B164" s="108">
+        <v>70</v>
+      </c>
+      <c r="C164" s="108">
+        <v>1.8770498166767999</v>
+      </c>
+      <c r="D164" s="108">
+        <v>1.87704981669252</v>
+      </c>
+      <c r="E164" s="108">
+        <v>1.8770498166940699</v>
+      </c>
+      <c r="F164" s="108">
+        <v>2.2490113832601</v>
+      </c>
+      <c r="G164" s="108">
+        <v>1.78962452212256</v>
+      </c>
+      <c r="H164" s="108">
+        <v>1.8770499227881501</v>
+      </c>
+      <c r="I164" s="108">
+        <v>1.87704982293287</v>
+      </c>
+      <c r="J164" s="108"/>
+      <c r="K164" s="108" t="e">
+        <f>Tabelle15[[#This Row],[KL UB]]-Tabelle15[[#This Row],[KL lambda]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L164" s="108" t="e">
+        <f>Tabelle15[[#This Row],[KL lambda]]-Tabelle15[[#This Row],[KL ga la]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M164" s="108"/>
+      <c r="N164" s="108">
+        <v>70</v>
+      </c>
+      <c r="O164" s="108">
+        <v>9998514065.0012302</v>
+      </c>
+      <c r="P164" s="108">
+        <v>9999120137.5523891</v>
+      </c>
+      <c r="Q164" s="108">
+        <v>3.7016315022742802E-2</v>
+      </c>
+      <c r="R164" s="108">
+        <v>1.0167933195724299</v>
+      </c>
+      <c r="S164" s="108">
+        <v>10</v>
+      </c>
+      <c r="T164" s="108">
+        <v>1481396.0673887001</v>
+      </c>
+      <c r="U164" s="108">
+        <v>-10</v>
+      </c>
+      <c r="V164" s="108">
+        <v>2881.0273923703699</v>
+      </c>
+      <c r="W164" s="108">
+        <v>3683.3095415378298</v>
+      </c>
+      <c r="X164" s="109">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A165" s="105">
+        <v>16</v>
+      </c>
+      <c r="B165" s="14">
+        <v>18</v>
+      </c>
+      <c r="C165" s="14">
+        <v>0.80433897098312601</v>
+      </c>
+      <c r="D165" s="14">
+        <v>0.80433897098849605</v>
+      </c>
+      <c r="E165" s="14">
+        <v>0.80433897098944496</v>
+      </c>
+      <c r="F165" s="14">
+        <v>1.1748124740400501</v>
+      </c>
+      <c r="G165" s="14">
+        <v>0.80433911330070995</v>
+      </c>
+      <c r="H165" s="14">
+        <v>0.80433907675044802</v>
+      </c>
+      <c r="I165" s="14">
+        <v>0.80433897221857797</v>
+      </c>
+      <c r="J165" s="14"/>
+      <c r="K165" s="14" t="e">
+        <f>Tabelle15[[#This Row],[KL UB]]-Tabelle15[[#This Row],[KL lambda]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L165" s="14" t="e">
+        <f>Tabelle15[[#This Row],[KL lambda]]-Tabelle15[[#This Row],[KL ga la]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M165" s="14"/>
+      <c r="N165" s="14">
+        <v>18</v>
+      </c>
+      <c r="O165" s="14">
+        <v>9996234942.0014</v>
+      </c>
+      <c r="P165" s="14">
+        <v>9996340754.9085102</v>
+      </c>
+      <c r="Q165" s="14">
+        <v>2.7654291825579499E-3</v>
+      </c>
+      <c r="R165" s="14">
+        <v>257410.036701256</v>
+      </c>
+      <c r="S165" s="14">
+        <v>10</v>
+      </c>
+      <c r="T165" s="14">
+        <v>507547.05880038801</v>
+      </c>
+      <c r="U165" s="14">
+        <v>-10</v>
+      </c>
+      <c r="V165" s="14">
+        <v>4023.6359818332298</v>
+      </c>
+      <c r="W165" s="14">
+        <v>4461.8511461489497</v>
+      </c>
+      <c r="X165" s="106">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A166" s="107">
+        <v>31</v>
+      </c>
+      <c r="B166" s="108">
+        <v>34</v>
+      </c>
+      <c r="C166" s="108">
+        <v>0.95682665646229903</v>
+      </c>
+      <c r="D166" s="108">
+        <v>0.95682665646764298</v>
+      </c>
+      <c r="E166" s="108">
+        <v>0.95682665646799303</v>
+      </c>
+      <c r="F166" s="108">
+        <v>1.28924532805143</v>
+      </c>
+      <c r="G166" s="108">
+        <v>0.93580482372569795</v>
+      </c>
+      <c r="H166" s="108">
+        <v>0.95682667458065496</v>
+      </c>
+      <c r="I166" s="108">
+        <v>0.95682665805871303</v>
+      </c>
+      <c r="J166" s="108"/>
+      <c r="K166" s="108" t="e">
+        <f>Tabelle15[[#This Row],[KL UB]]-Tabelle15[[#This Row],[KL lambda]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L166" s="108" t="e">
+        <f>Tabelle15[[#This Row],[KL lambda]]-Tabelle15[[#This Row],[KL ga la]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M166" s="108"/>
+      <c r="N166" s="108">
+        <v>34</v>
+      </c>
+      <c r="O166" s="108">
+        <v>9998641307.9429798</v>
+      </c>
+      <c r="P166" s="108">
+        <v>9998593747.3277302</v>
+      </c>
+      <c r="Q166" s="108">
+        <v>5.5381297954815796E-4</v>
+      </c>
+      <c r="R166" s="108">
+        <v>0.85923870453337403</v>
+      </c>
+      <c r="S166" s="108">
+        <v>10</v>
+      </c>
+      <c r="T166" s="108">
+        <v>2949837.2289235201</v>
+      </c>
+      <c r="U166" s="108">
+        <v>-10</v>
+      </c>
+      <c r="V166" s="108">
+        <v>3644.9295409809802</v>
+      </c>
+      <c r="W166" s="108">
+        <v>3656.3092843126701</v>
+      </c>
+      <c r="X166" s="109">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A167" s="105">
+        <v>36</v>
+      </c>
+      <c r="B167" s="14">
+        <v>39</v>
+      </c>
+      <c r="C167" s="14">
+        <v>0.54963840784917595</v>
+      </c>
+      <c r="D167" s="14">
+        <v>0.54963840785168905</v>
+      </c>
+      <c r="E167" s="14">
+        <v>0.54963840785118301</v>
+      </c>
+      <c r="F167" s="14">
+        <v>0.84370406980329704</v>
+      </c>
+      <c r="G167" s="14">
+        <v>0.54904620498739798</v>
+      </c>
+      <c r="H167" s="14">
+        <v>0.54963847744539196</v>
+      </c>
+      <c r="I167" s="14">
+        <v>0.54963841134018498</v>
+      </c>
+      <c r="J167" s="14"/>
+      <c r="K167" s="14" t="e">
+        <f>Tabelle15[[#This Row],[KL UB]]-Tabelle15[[#This Row],[KL lambda]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L167" s="14" t="e">
+        <f>Tabelle15[[#This Row],[KL lambda]]-Tabelle15[[#This Row],[KL ga la]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M167" s="14"/>
+      <c r="N167" s="14">
+        <v>39</v>
+      </c>
+      <c r="O167" s="14">
+        <v>9984671122.4630108</v>
+      </c>
+      <c r="P167" s="14">
+        <v>9987571254.4887791</v>
+      </c>
+      <c r="Q167" s="14">
+        <v>1.46397264946494E-2</v>
+      </c>
+      <c r="R167" s="14">
+        <v>15.8341074875425</v>
+      </c>
+      <c r="S167" s="14">
+        <v>10</v>
+      </c>
+      <c r="T167" s="14">
+        <v>360603.26121780602</v>
+      </c>
+      <c r="U167" s="14">
+        <v>-10</v>
+      </c>
+      <c r="V167" s="14">
+        <v>1383.61986541754</v>
+      </c>
+      <c r="W167" s="14">
+        <v>1576.8786445767601</v>
+      </c>
+      <c r="X167" s="106">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A168" s="107">
+        <v>65</v>
+      </c>
+      <c r="B168" s="108">
+        <v>71</v>
+      </c>
+      <c r="C168" s="108">
+        <v>0.83830648012713005</v>
+      </c>
+      <c r="D168" s="108">
+        <v>0.83830648013389497</v>
+      </c>
+      <c r="E168" s="108">
+        <v>0.83830648013395104</v>
+      </c>
+      <c r="F168" s="108">
+        <v>1.1012016727306599</v>
+      </c>
+      <c r="G168" s="108">
+        <v>0.78123226543045898</v>
+      </c>
+      <c r="H168" s="108">
+        <v>0.83830650110760196</v>
+      </c>
+      <c r="I168" s="108">
+        <v>0.83830648334325597</v>
+      </c>
+      <c r="J168" s="108"/>
+      <c r="K168" s="108" t="e">
+        <f>Tabelle15[[#This Row],[KL UB]]-Tabelle15[[#This Row],[KL lambda]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L168" s="108" t="e">
+        <f>Tabelle15[[#This Row],[KL lambda]]-Tabelle15[[#This Row],[KL ga la]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M168" s="108"/>
+      <c r="N168" s="108">
+        <v>71</v>
+      </c>
+      <c r="O168" s="108">
+        <v>9996341809.4427299</v>
+      </c>
+      <c r="P168" s="108">
+        <v>9994075538.5280895</v>
+      </c>
+      <c r="Q168" s="108">
+        <v>2.4208398831993501E-2</v>
+      </c>
+      <c r="R168" s="108">
+        <v>1.8239601127976599</v>
+      </c>
+      <c r="S168" s="108">
+        <v>10</v>
+      </c>
+      <c r="T168" s="108">
+        <v>3223561.5419796002</v>
+      </c>
+      <c r="U168" s="108">
+        <v>10</v>
+      </c>
+      <c r="V168" s="108">
+        <v>2872.9311737357398</v>
+      </c>
+      <c r="W168" s="108">
+        <v>3016.07966649129</v>
+      </c>
+      <c r="X168" s="109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A169" s="105">
+        <v>5</v>
+      </c>
+      <c r="B169" s="14">
+        <v>6</v>
+      </c>
+      <c r="C169" s="14">
+        <v>5.6929048867451398E-2</v>
+      </c>
+      <c r="D169" s="14">
+        <v>5.66656330771542E-2</v>
+      </c>
+      <c r="E169" s="14">
+        <v>5.66553000512122E-2</v>
+      </c>
+      <c r="F169" s="14">
+        <v>0.29965200521946</v>
+      </c>
+      <c r="G169" s="14">
+        <v>5.5723041996853399E-2</v>
+      </c>
+      <c r="H169" s="14">
+        <v>5.6148525575074298E-2</v>
+      </c>
+      <c r="I169" s="14">
+        <v>5.4770493618691102E-2</v>
+      </c>
+      <c r="J169" s="14"/>
+      <c r="K169" s="14" t="e">
+        <f>Tabelle15[[#This Row],[KL UB]]-Tabelle15[[#This Row],[KL lambda]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L169" s="14" t="e">
+        <f>Tabelle15[[#This Row],[KL lambda]]-Tabelle15[[#This Row],[KL ga la]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M169" s="14"/>
+      <c r="N169" s="14">
+        <v>6</v>
+      </c>
+      <c r="O169" s="14">
+        <v>11.412847509614201</v>
+      </c>
+      <c r="P169" s="14">
+        <v>12.493089490820701</v>
+      </c>
+      <c r="Q169" s="14">
+        <v>5.7942887478852597E-3</v>
+      </c>
+      <c r="R169" s="14">
+        <v>3.17798936317809</v>
+      </c>
+      <c r="S169" s="14">
+        <v>5.5215966737530104</v>
+      </c>
+      <c r="T169" s="14">
+        <v>5.3164172755014398</v>
+      </c>
+      <c r="U169" s="14">
+        <v>-10</v>
+      </c>
+      <c r="V169" s="14">
+        <v>1.5204070817097699</v>
+      </c>
+      <c r="W169" s="14">
+        <v>0.21938389251100901</v>
+      </c>
+      <c r="X169" s="106">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A170" s="107">
+        <v>13</v>
+      </c>
+      <c r="B170" s="108">
+        <v>15</v>
+      </c>
+      <c r="C170" s="108">
+        <v>8.8481473040055297E-2</v>
+      </c>
+      <c r="D170" s="108">
+        <v>8.8005930185601197E-2</v>
+      </c>
+      <c r="E170" s="108">
+        <v>8.8028715763511303E-2</v>
+      </c>
+      <c r="F170" s="108">
+        <v>0.27455070972968898</v>
+      </c>
+      <c r="G170" s="108">
+        <v>8.60211913907767E-2</v>
+      </c>
+      <c r="H170" s="108">
+        <v>8.3487539348614498E-2</v>
+      </c>
+      <c r="I170" s="108">
+        <v>8.1631781993418404E-2</v>
+      </c>
+      <c r="J170" s="108"/>
+      <c r="K170" s="108" t="e">
+        <f>Tabelle15[[#This Row],[KL UB]]-Tabelle15[[#This Row],[KL lambda]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L170" s="108" t="e">
+        <f>Tabelle15[[#This Row],[KL lambda]]-Tabelle15[[#This Row],[KL ga la]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M170" s="108"/>
+      <c r="N170" s="108">
+        <v>15</v>
+      </c>
+      <c r="O170" s="108">
+        <v>8.1054074358488393</v>
+      </c>
+      <c r="P170" s="108">
+        <v>8.7754876764588907</v>
+      </c>
+      <c r="Q170" s="108">
+        <v>-8.5100085336923701E-4</v>
+      </c>
+      <c r="R170" s="108">
+        <v>5.1771612765217299</v>
+      </c>
+      <c r="S170" s="108">
+        <v>-10</v>
+      </c>
+      <c r="T170" s="108">
+        <v>2.4867239267713201</v>
+      </c>
+      <c r="U170" s="108">
+        <v>-10</v>
+      </c>
+      <c r="V170" s="108">
+        <v>1.35524858251923</v>
+      </c>
+      <c r="W170" s="108">
+        <v>0.156194742737614</v>
+      </c>
+      <c r="X170" s="109">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A171" s="105">
+        <v>40</v>
+      </c>
+      <c r="B171" s="14">
+        <v>44</v>
+      </c>
+      <c r="C171" s="14">
+        <v>3.96072551667358</v>
+      </c>
+      <c r="D171" s="14">
+        <v>3.9607255166750002</v>
+      </c>
+      <c r="E171" s="14">
+        <v>3.9597196705614701</v>
+      </c>
+      <c r="F171" s="14">
+        <v>4.1318061877890102</v>
+      </c>
+      <c r="G171" s="14">
+        <v>3.6663070842611298</v>
+      </c>
+      <c r="H171" s="14">
+        <v>3.9607256277153402</v>
+      </c>
+      <c r="I171" s="14">
+        <v>3.95706742199746</v>
+      </c>
+      <c r="J171" s="14"/>
+      <c r="K171" s="14" t="e">
+        <f>Tabelle15[[#This Row],[KL UB]]-Tabelle15[[#This Row],[KL lambda]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L171" s="14" t="e">
+        <f>Tabelle15[[#This Row],[KL lambda]]-Tabelle15[[#This Row],[KL ga la]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M171" s="14"/>
+      <c r="N171" s="14">
+        <v>44</v>
+      </c>
+      <c r="O171" s="14">
+        <v>9989809616.7174301</v>
+      </c>
+      <c r="P171" s="14">
+        <v>4.3622067969979801</v>
+      </c>
+      <c r="Q171" s="14">
+        <v>-1.9145117126543999E-3</v>
+      </c>
+      <c r="R171" s="14">
+        <v>0.218321163261017</v>
+      </c>
+      <c r="S171" s="14">
+        <v>5.8716761270940996</v>
+      </c>
+      <c r="T171" s="14">
+        <v>127945.291663817</v>
+      </c>
+      <c r="U171" s="14">
+        <v>-10</v>
+      </c>
+      <c r="V171" s="14">
+        <v>0</v>
+      </c>
+      <c r="W171" s="14">
+        <v>3.8427446839952499</v>
+      </c>
+      <c r="X171" s="106">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A172" s="107">
+        <v>61</v>
+      </c>
+      <c r="B172" s="108">
+        <v>67</v>
+      </c>
+      <c r="C172" s="108">
+        <v>0.63997762181590701</v>
+      </c>
+      <c r="D172" s="108">
+        <v>0.63230885085994504</v>
+      </c>
+      <c r="E172" s="108">
+        <v>0.631808982413959</v>
+      </c>
+      <c r="F172" s="108">
+        <v>0.81049463050492099</v>
+      </c>
+      <c r="G172" s="108">
+        <v>0.629485286546275</v>
+      </c>
+      <c r="H172" s="108">
+        <v>0.63190565881910998</v>
+      </c>
+      <c r="I172" s="108">
+        <v>0.631896763513356</v>
+      </c>
+      <c r="J172" s="108"/>
+      <c r="K172" s="108" t="e">
+        <f>Tabelle15[[#This Row],[KL UB]]-Tabelle15[[#This Row],[KL lambda]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L172" s="108" t="e">
+        <f>Tabelle15[[#This Row],[KL lambda]]-Tabelle15[[#This Row],[KL ga la]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M172" s="108"/>
+      <c r="N172" s="108">
+        <v>67</v>
+      </c>
+      <c r="O172" s="108">
+        <v>1.66770197291721</v>
+      </c>
+      <c r="P172" s="108">
+        <v>1.9325319005227399</v>
+      </c>
+      <c r="Q172" s="108">
+        <v>6.38278005766488E-3</v>
+      </c>
+      <c r="R172" s="108">
+        <v>1.1472036248529101</v>
+      </c>
+      <c r="S172" s="108">
+        <v>3.53259517654981</v>
+      </c>
+      <c r="T172" s="108">
+        <v>1.7074597661965301</v>
+      </c>
+      <c r="U172" s="108">
+        <v>3.1034976707316599</v>
+      </c>
+      <c r="V172" s="108">
+        <v>1.6995386535462</v>
+      </c>
+      <c r="W172" s="108">
+        <v>3.60603241921712E-2</v>
+      </c>
+      <c r="X172" s="109">
+        <v>3.8360400622566799</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A173" s="105">
+        <v>58</v>
+      </c>
+      <c r="B173" s="14">
+        <v>63</v>
+      </c>
+      <c r="C173" s="14">
+        <v>3.01480276642264E-2</v>
+      </c>
+      <c r="D173" s="14">
+        <v>3.0148027664916002E-2</v>
+      </c>
+      <c r="E173" s="14">
+        <v>3.0148027664860199E-2</v>
+      </c>
+      <c r="F173" s="14">
+        <v>0.183767327927333</v>
+      </c>
+      <c r="G173" s="14">
+        <v>2.9377270788406001E-2</v>
+      </c>
+      <c r="H173" s="14">
+        <v>3.0148031700553E-2</v>
+      </c>
+      <c r="I173" s="14">
+        <v>3.0148032090655801E-2</v>
+      </c>
+      <c r="J173" s="14"/>
+      <c r="K173" s="14" t="e">
+        <f>Tabelle15[[#This Row],[KL UB]]-Tabelle15[[#This Row],[KL lambda]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L173" s="14" t="e">
+        <f>Tabelle15[[#This Row],[KL lambda]]-Tabelle15[[#This Row],[KL ga la]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M173" s="14"/>
+      <c r="N173" s="14">
+        <v>63</v>
+      </c>
+      <c r="O173" s="14">
+        <v>9959685087.5682507</v>
+      </c>
+      <c r="P173" s="14">
+        <v>9974755030.0130501</v>
+      </c>
+      <c r="Q173" s="14">
+        <v>1.0037658696171599E-2</v>
+      </c>
+      <c r="R173" s="14">
+        <v>15.396941860247299</v>
+      </c>
+      <c r="S173" s="14">
+        <v>10</v>
+      </c>
+      <c r="T173" s="14">
+        <v>1702669.2534575399</v>
+      </c>
+      <c r="U173" s="14">
+        <v>10</v>
+      </c>
+      <c r="V173" s="14">
+        <v>700.812669211605</v>
+      </c>
+      <c r="W173" s="14">
+        <v>881.13225563847095</v>
+      </c>
+      <c r="X173" s="106">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A174" s="107">
+        <v>4</v>
+      </c>
+      <c r="B174" s="108">
+        <v>4</v>
+      </c>
+      <c r="C174" s="108">
+        <v>0.44479776703169199</v>
+      </c>
+      <c r="D174" s="108">
+        <v>0.44479776703426199</v>
+      </c>
+      <c r="E174" s="108">
+        <v>0.444797767034606</v>
+      </c>
+      <c r="F174" s="108">
+        <v>0.59378093303188695</v>
+      </c>
+      <c r="G174" s="108">
+        <v>0.44060686862993798</v>
+      </c>
+      <c r="H174" s="108">
+        <v>0.42256991892907603</v>
+      </c>
+      <c r="I174" s="108">
+        <v>0.432118872110071</v>
+      </c>
+      <c r="J174" s="108"/>
+      <c r="K174" s="108" t="e">
+        <f>Tabelle15[[#This Row],[KL UB]]-Tabelle15[[#This Row],[KL lambda]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L174" s="108" t="e">
+        <f>Tabelle15[[#This Row],[KL lambda]]-Tabelle15[[#This Row],[KL ga la]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M174" s="108"/>
+      <c r="N174" s="108">
+        <v>4</v>
+      </c>
+      <c r="O174" s="108">
+        <v>9983401505.3096104</v>
+      </c>
+      <c r="P174" s="108">
+        <v>9996226572.6523895</v>
+      </c>
+      <c r="Q174" s="108">
+        <v>1.6606325914725901E-2</v>
+      </c>
+      <c r="R174" s="108">
+        <v>3.4991388914145598</v>
+      </c>
+      <c r="S174" s="108">
+        <v>10</v>
+      </c>
+      <c r="T174" s="108">
+        <v>1.36243197808345</v>
+      </c>
+      <c r="U174" s="108">
+        <v>10</v>
+      </c>
+      <c r="V174" s="108">
+        <v>8.1921457892664997E-4</v>
+      </c>
+      <c r="W174" s="108">
+        <v>44.829866150134499</v>
+      </c>
+      <c r="X174" s="109">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A175" s="105">
+        <v>67</v>
+      </c>
+      <c r="B175" s="14">
+        <v>73</v>
+      </c>
+      <c r="C175" s="14">
+        <v>0.388185251182734</v>
+      </c>
+      <c r="D175" s="14">
+        <v>0.38818525119367397</v>
+      </c>
+      <c r="E175" s="14">
+        <v>0.38818525119540398</v>
+      </c>
+      <c r="F175" s="14">
+        <v>0.53282022478323798</v>
+      </c>
+      <c r="G175" s="14">
+        <v>0.36784370556568602</v>
+      </c>
+      <c r="H175" s="14">
+        <v>0.388185273243844</v>
+      </c>
+      <c r="I175" s="14">
+        <v>0.388185254457109</v>
+      </c>
+      <c r="J175" s="14"/>
+      <c r="K175" s="14" t="e">
+        <f>Tabelle15[[#This Row],[KL UB]]-Tabelle15[[#This Row],[KL lambda]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L175" s="14" t="e">
+        <f>Tabelle15[[#This Row],[KL lambda]]-Tabelle15[[#This Row],[KL ga la]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M175" s="14"/>
+      <c r="N175" s="14">
+        <v>73</v>
+      </c>
+      <c r="O175" s="14">
+        <v>9997541582.4688606</v>
+      </c>
+      <c r="P175" s="14">
+        <v>9999111427.37677</v>
+      </c>
+      <c r="Q175" s="14">
+        <v>5.2506728191412097E-2</v>
+      </c>
+      <c r="R175" s="14">
+        <v>2.5745498500954702</v>
+      </c>
+      <c r="S175" s="14">
+        <v>10</v>
+      </c>
+      <c r="T175" s="14">
+        <v>4958228.5074318396</v>
+      </c>
+      <c r="U175" s="14">
+        <v>10</v>
+      </c>
+      <c r="V175" s="14">
+        <v>3504.2528151342199</v>
+      </c>
+      <c r="W175" s="14">
+        <v>4225.0189131452198</v>
+      </c>
+      <c r="X175" s="106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A176" s="107">
+        <v>10</v>
+      </c>
+      <c r="B176" s="108">
+        <v>12</v>
+      </c>
+      <c r="C176" s="108">
+        <v>1.3214263152182699</v>
+      </c>
+      <c r="D176" s="108">
+        <v>1.3214263152458601</v>
+      </c>
+      <c r="E176" s="108">
+        <v>1.32142631524903</v>
+      </c>
+      <c r="F176" s="108">
+        <v>1.4555100506249199</v>
+      </c>
+      <c r="G176" s="108">
+        <v>1.18600828381571</v>
+      </c>
+      <c r="H176" s="108">
+        <v>1.3214267764871901</v>
+      </c>
+      <c r="I176" s="108">
+        <v>1.3214263159475399</v>
+      </c>
+      <c r="J176" s="108"/>
+      <c r="K176" s="108" t="e">
+        <f>Tabelle15[[#This Row],[KL UB]]-Tabelle15[[#This Row],[KL lambda]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L176" s="108" t="e">
+        <f>Tabelle15[[#This Row],[KL lambda]]-Tabelle15[[#This Row],[KL ga la]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M176" s="108"/>
+      <c r="N176" s="108">
+        <v>12</v>
+      </c>
+      <c r="O176" s="108">
+        <v>9999842677.2509403</v>
+      </c>
+      <c r="P176" s="108">
+        <v>9998578638.9640102</v>
+      </c>
+      <c r="Q176" s="108">
+        <v>6.9935011702930497E-2</v>
+      </c>
+      <c r="R176" s="108">
+        <v>1.2513696800945799</v>
+      </c>
+      <c r="S176" s="108">
+        <v>10</v>
+      </c>
+      <c r="T176" s="108">
+        <v>597989.62489758898</v>
+      </c>
+      <c r="U176" s="108">
+        <v>10</v>
+      </c>
+      <c r="V176" s="108">
+        <v>9572.9549249374104</v>
+      </c>
+      <c r="W176" s="108">
+        <v>16908.768680011999</v>
+      </c>
+      <c r="X176" s="109">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A177" s="105">
+        <v>18</v>
+      </c>
+      <c r="B177" s="14">
+        <v>20</v>
+      </c>
+      <c r="C177" s="14">
+        <v>1.2022466823704001</v>
+      </c>
+      <c r="D177" s="14">
+        <v>1.2022466823764599</v>
+      </c>
+      <c r="E177" s="14">
+        <v>1.2022466823768001</v>
+      </c>
+      <c r="F177" s="14">
+        <v>1.33510234246763</v>
+      </c>
+      <c r="G177" s="14">
+        <v>1.1885881129354201</v>
+      </c>
+      <c r="H177" s="14">
+        <v>1.1262791231915401</v>
+      </c>
+      <c r="I177" s="14">
+        <v>1.2022466845570099</v>
+      </c>
+      <c r="J177" s="14"/>
+      <c r="K177" s="14" t="e">
+        <f>Tabelle15[[#This Row],[KL UB]]-Tabelle15[[#This Row],[KL lambda]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L177" s="14" t="e">
+        <f>Tabelle15[[#This Row],[KL lambda]]-Tabelle15[[#This Row],[KL ga la]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M177" s="14"/>
+      <c r="N177" s="14">
+        <v>20</v>
+      </c>
+      <c r="O177" s="14">
+        <v>9999176414.3347702</v>
+      </c>
+      <c r="P177" s="14">
+        <v>9998918150.2578793</v>
+      </c>
+      <c r="Q177" s="14">
+        <v>2.77020334313638E-2</v>
+      </c>
+      <c r="R177" s="14">
+        <v>2.9807771641499801</v>
+      </c>
+      <c r="S177" s="14">
+        <v>10</v>
+      </c>
+      <c r="T177" s="14">
+        <v>0.90164965794709995</v>
+      </c>
+      <c r="U177" s="14">
+        <v>10</v>
+      </c>
+      <c r="V177" s="14">
+        <v>3065.69737576956</v>
+      </c>
+      <c r="W177" s="14">
+        <v>3749.6650409260501</v>
+      </c>
+      <c r="X177" s="106">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A178" s="107">
+        <v>20</v>
+      </c>
+      <c r="B178" s="108">
+        <v>23</v>
+      </c>
+      <c r="C178" s="108">
+        <v>2.5470640932899899E-2</v>
+      </c>
+      <c r="D178" s="108">
+        <v>2.5064707222269601E-2</v>
+      </c>
+      <c r="E178" s="108">
+        <v>2.5257669768971799E-2</v>
+      </c>
+      <c r="F178" s="108">
+        <v>0.14934207355071</v>
+      </c>
+      <c r="G178" s="108">
+        <v>2.46163779934125E-2</v>
+      </c>
+      <c r="H178" s="108">
+        <v>2.4933432925817001E-2</v>
+      </c>
+      <c r="I178" s="108">
+        <v>2.3708119682363301E-2</v>
+      </c>
+      <c r="J178" s="108"/>
+      <c r="K178" s="108" t="e">
+        <f>Tabelle15[[#This Row],[KL UB]]-Tabelle15[[#This Row],[KL lambda]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L178" s="108" t="e">
+        <f>Tabelle15[[#This Row],[KL lambda]]-Tabelle15[[#This Row],[KL ga la]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M178" s="108"/>
+      <c r="N178" s="108">
+        <v>23</v>
+      </c>
+      <c r="O178" s="108">
+        <v>6.4110641057489799</v>
+      </c>
+      <c r="P178" s="108">
+        <v>10.0165805302614</v>
+      </c>
+      <c r="Q178" s="108">
+        <v>6.0049223217162797E-3</v>
+      </c>
+      <c r="R178" s="108">
+        <v>8.1416438375181297</v>
+      </c>
+      <c r="S178" s="108">
+        <v>-10</v>
+      </c>
+      <c r="T178" s="108">
+        <v>6.3323583763406299</v>
+      </c>
+      <c r="U178" s="108">
+        <v>-10</v>
+      </c>
+      <c r="V178" s="108">
+        <v>5.6858459753066103E-4</v>
+      </c>
+      <c r="W178" s="108">
+        <v>1.18100115097363</v>
+      </c>
+      <c r="X178" s="109">
+        <v>-1.04336604701097</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A179" s="105">
+        <v>57</v>
+      </c>
+      <c r="B179" s="14">
+        <v>62</v>
+      </c>
+      <c r="C179" s="14">
+        <v>3.9939937254328803E-2</v>
+      </c>
+      <c r="D179" s="14">
+        <v>3.9939937254647902E-2</v>
+      </c>
+      <c r="E179" s="14">
+        <v>3.9939937254638E-2</v>
+      </c>
+      <c r="F179" s="14">
+        <v>0.155050682180326</v>
+      </c>
+      <c r="G179" s="14">
+        <v>3.9624705547806699E-2</v>
+      </c>
+      <c r="H179" s="14">
+        <v>3.9939966315343099E-2</v>
+      </c>
+      <c r="I179" s="14">
+        <v>3.8813593537583499E-2</v>
+      </c>
+      <c r="J179" s="14"/>
+      <c r="K179" s="14" t="e">
+        <f>Tabelle15[[#This Row],[KL UB]]-Tabelle15[[#This Row],[KL lambda]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L179" s="14" t="e">
+        <f>Tabelle15[[#This Row],[KL lambda]]-Tabelle15[[#This Row],[KL ga la]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M179" s="14"/>
+      <c r="N179" s="14">
+        <v>62</v>
+      </c>
+      <c r="O179" s="14">
+        <v>9975642681.4646397</v>
+      </c>
+      <c r="P179" s="14">
+        <v>9990925321.8452091</v>
+      </c>
+      <c r="Q179" s="14">
+        <v>1.61968035276894E-3</v>
+      </c>
+      <c r="R179" s="14">
+        <v>10.4364986016566</v>
+      </c>
+      <c r="S179" s="14">
+        <v>7.3225875867816299</v>
+      </c>
+      <c r="T179" s="14">
+        <v>110212.946692905</v>
+      </c>
+      <c r="U179" s="14">
+        <v>-10</v>
+      </c>
+      <c r="V179" s="14">
+        <v>1.36123068766775</v>
+      </c>
+      <c r="W179" s="14">
+        <v>0.45771390820158298</v>
+      </c>
+      <c r="X179" s="106">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A180" s="107">
+        <v>25</v>
+      </c>
+      <c r="B180" s="108">
+        <v>28</v>
+      </c>
+      <c r="C180" s="108">
+        <v>0.70120267951901705</v>
+      </c>
+      <c r="D180" s="108">
+        <v>0.70120267952564197</v>
+      </c>
+      <c r="E180" s="108">
+        <v>0.70120267952578197</v>
+      </c>
+      <c r="F180" s="108">
+        <v>0.80772666679024596</v>
+      </c>
+      <c r="G180" s="108">
+        <v>0.68616908719543601</v>
+      </c>
+      <c r="H180" s="108">
+        <v>0.59980948561445402</v>
+      </c>
+      <c r="I180" s="108">
+        <v>0.70120268318710399</v>
+      </c>
+      <c r="J180" s="108"/>
+      <c r="K180" s="108" t="e">
+        <f>Tabelle15[[#This Row],[KL UB]]-Tabelle15[[#This Row],[KL lambda]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L180" s="108" t="e">
+        <f>Tabelle15[[#This Row],[KL lambda]]-Tabelle15[[#This Row],[KL ga la]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M180" s="108"/>
+      <c r="N180" s="108">
+        <v>28</v>
+      </c>
+      <c r="O180" s="108">
+        <v>9997470335.8272896</v>
+      </c>
+      <c r="P180" s="108">
+        <v>9997735117.3172607</v>
+      </c>
+      <c r="Q180" s="108">
+        <v>4.3888344139676502E-2</v>
+      </c>
+      <c r="R180" s="108">
+        <v>4.00510223717722</v>
+      </c>
+      <c r="S180" s="108">
+        <v>10</v>
+      </c>
+      <c r="T180" s="108">
+        <v>0.63579906973010902</v>
+      </c>
+      <c r="U180" s="108">
+        <v>10</v>
+      </c>
+      <c r="V180" s="108">
+        <v>2113.0777975231299</v>
+      </c>
+      <c r="W180" s="108">
+        <v>3440.0678528278399</v>
+      </c>
+      <c r="X180" s="109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A181" s="105">
+        <v>14</v>
+      </c>
+      <c r="B181" s="14">
+        <v>16</v>
+      </c>
+      <c r="C181" s="14">
+        <v>0.50022065270619398</v>
+      </c>
+      <c r="D181" s="14">
+        <v>0.49932225582348699</v>
+      </c>
+      <c r="E181" s="14">
+        <v>0.500003157240828</v>
+      </c>
+      <c r="F181" s="14">
+        <v>0.59380202346814404</v>
+      </c>
+      <c r="G181" s="14">
+        <v>0.49967966793288998</v>
+      </c>
+      <c r="H181" s="14">
+        <v>0.48038682905095198</v>
+      </c>
+      <c r="I181" s="14">
+        <v>0.48038682905094598</v>
+      </c>
+      <c r="J181" s="14"/>
+      <c r="K181" s="14" t="e">
+        <f>Tabelle15[[#This Row],[KL UB]]-Tabelle15[[#This Row],[KL lambda]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L181" s="14" t="e">
+        <f>Tabelle15[[#This Row],[KL lambda]]-Tabelle15[[#This Row],[KL ga la]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M181" s="14"/>
+      <c r="N181" s="14">
+        <v>16</v>
+      </c>
+      <c r="O181" s="14">
+        <v>1.9543485886410901</v>
+      </c>
+      <c r="P181" s="14">
+        <v>10.476353602218399</v>
+      </c>
+      <c r="Q181" s="14">
+        <v>1.44190749272733E-2</v>
+      </c>
+      <c r="R181" s="14">
+        <v>12.744674516208701</v>
+      </c>
+      <c r="S181" s="14">
+        <v>-8.5901335379832506</v>
+      </c>
+      <c r="T181" s="14">
+        <v>1.4533211245661299</v>
+      </c>
+      <c r="U181" s="14">
+        <v>10</v>
+      </c>
+      <c r="V181" s="14">
+        <v>1.4533209978319801</v>
+      </c>
+      <c r="W181" s="14">
+        <v>0</v>
+      </c>
+      <c r="X181" s="106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A182" s="107">
+        <v>77</v>
+      </c>
+      <c r="B182" s="108">
+        <v>83</v>
+      </c>
+      <c r="C182" s="108">
+        <v>1.2530057886899</v>
+      </c>
+      <c r="D182" s="108">
+        <v>1.25300578871262</v>
+      </c>
+      <c r="E182" s="108">
+        <v>1.2530057887153101</v>
+      </c>
+      <c r="F182" s="108">
+        <v>1.3420358091926099</v>
+      </c>
+      <c r="G182" s="108">
+        <v>1.1966431497732199</v>
+      </c>
+      <c r="H182" s="108">
+        <v>1.2530060551625499</v>
+      </c>
+      <c r="I182" s="108">
+        <v>1.25300579411819</v>
+      </c>
+      <c r="J182" s="108"/>
+      <c r="K182" s="108" t="e">
+        <f>Tabelle15[[#This Row],[KL UB]]-Tabelle15[[#This Row],[KL lambda]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L182" s="108" t="e">
+        <f>Tabelle15[[#This Row],[KL lambda]]-Tabelle15[[#This Row],[KL ga la]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M182" s="108"/>
+      <c r="N182" s="108">
+        <v>83</v>
+      </c>
+      <c r="O182" s="108">
+        <v>9999460597.1935692</v>
+      </c>
+      <c r="P182" s="108">
+        <v>9999092840.08465</v>
+      </c>
+      <c r="Q182" s="108">
+        <v>5.8256972612948203E-2</v>
+      </c>
+      <c r="R182" s="108">
+        <v>2.6190185532410699</v>
+      </c>
+      <c r="S182" s="108">
+        <v>10</v>
+      </c>
+      <c r="T182" s="108">
+        <v>852693.34051860403</v>
+      </c>
+      <c r="U182" s="108">
+        <v>10</v>
+      </c>
+      <c r="V182" s="108">
+        <v>4165.1409492011899</v>
+      </c>
+      <c r="W182" s="108">
+        <v>4255.4070902058602</v>
+      </c>
+      <c r="X182" s="109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A183" s="105">
+        <v>7</v>
+      </c>
+      <c r="B183" s="14">
+        <v>9</v>
+      </c>
+      <c r="C183" s="14">
+        <v>2.4811914486791999</v>
+      </c>
+      <c r="D183" s="14">
+        <v>2.47605912210732</v>
+      </c>
+      <c r="E183" s="14">
+        <v>2.4793969922099</v>
+      </c>
+      <c r="F183" s="14">
+        <v>2.5662958930350701</v>
+      </c>
+      <c r="G183" s="14">
+        <v>2.4763586502414698</v>
+      </c>
+      <c r="H183" s="14">
+        <v>2.4582353552065599</v>
+      </c>
+      <c r="I183" s="14">
+        <v>2.4582353552087599</v>
+      </c>
+      <c r="J183" s="14"/>
+      <c r="K183" s="14" t="e">
+        <f>Tabelle15[[#This Row],[KL UB]]-Tabelle15[[#This Row],[KL lambda]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L183" s="14" t="e">
+        <f>Tabelle15[[#This Row],[KL lambda]]-Tabelle15[[#This Row],[KL ga la]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M183" s="14"/>
+      <c r="N183" s="14">
+        <v>9</v>
+      </c>
+      <c r="O183" s="14">
+        <v>0.94524858475214701</v>
+      </c>
+      <c r="P183" s="14">
+        <v>3.7888788527130202</v>
+      </c>
+      <c r="Q183" s="14">
+        <v>1.5827200218556499E-2</v>
+      </c>
+      <c r="R183" s="14">
+        <v>2.8296213803627701</v>
+      </c>
+      <c r="S183" s="14">
+        <v>-1.9407024692338499</v>
+      </c>
+      <c r="T183" s="14">
+        <v>1.3868904962991</v>
+      </c>
+      <c r="U183" s="14">
+        <v>10</v>
+      </c>
+      <c r="V183" s="14">
+        <v>1.3868990051994501</v>
+      </c>
+      <c r="W183" s="14">
+        <v>0</v>
+      </c>
+      <c r="X183" s="106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A184" s="107">
+        <v>28</v>
+      </c>
+      <c r="B184" s="108">
+        <v>31</v>
+      </c>
+      <c r="C184" s="108">
+        <v>2.1030784124345301</v>
+      </c>
+      <c r="D184" s="108">
+        <v>2.1030784124517701</v>
+      </c>
+      <c r="E184" s="108">
+        <v>2.10307841245378</v>
+      </c>
+      <c r="F184" s="108">
+        <v>2.1449459854231701</v>
+      </c>
+      <c r="G184" s="108">
+        <v>2.06366210565213</v>
+      </c>
+      <c r="H184" s="108">
+        <v>2.10307850890492</v>
+      </c>
+      <c r="I184" s="108">
+        <v>2.10307841772374</v>
+      </c>
+      <c r="J184" s="108"/>
+      <c r="K184" s="108" t="e">
+        <f>Tabelle15[[#This Row],[KL UB]]-Tabelle15[[#This Row],[KL lambda]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L184" s="108" t="e">
+        <f>Tabelle15[[#This Row],[KL lambda]]-Tabelle15[[#This Row],[KL ga la]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M184" s="108"/>
+      <c r="N184" s="108">
+        <v>31</v>
+      </c>
+      <c r="O184" s="108">
+        <v>9999128288.8068295</v>
+      </c>
+      <c r="P184" s="108">
+        <v>9999135011.1735497</v>
+      </c>
+      <c r="Q184" s="108">
+        <v>6.5038489942102096E-2</v>
+      </c>
+      <c r="R184" s="108">
+        <v>2.2851933133906601</v>
+      </c>
+      <c r="S184" s="108">
+        <v>10</v>
+      </c>
+      <c r="T184" s="108">
+        <v>1786724.42854794</v>
+      </c>
+      <c r="U184" s="108">
+        <v>10</v>
+      </c>
+      <c r="V184" s="108">
+        <v>3678.0237890612798</v>
+      </c>
+      <c r="W184" s="108">
+        <v>3725.56994677068</v>
+      </c>
+      <c r="X184" s="109">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A185" s="105">
+        <v>37</v>
+      </c>
+      <c r="B185" s="14">
+        <v>40</v>
+      </c>
+      <c r="C185" s="14">
+        <v>0.79680988434073696</v>
+      </c>
+      <c r="D185" s="14">
+        <v>0.796809884352639</v>
+      </c>
+      <c r="E185" s="14">
+        <v>0.79680988435316502</v>
+      </c>
+      <c r="F185" s="14">
+        <v>0.83650319394243799</v>
+      </c>
+      <c r="G185" s="14">
+        <v>0.72226957945888504</v>
+      </c>
+      <c r="H185" s="14">
+        <v>0.79681009388757096</v>
+      </c>
+      <c r="I185" s="14">
+        <v>0.79680988496237704</v>
+      </c>
+      <c r="J185" s="14"/>
+      <c r="K185" s="14" t="e">
+        <f>Tabelle15[[#This Row],[KL UB]]-Tabelle15[[#This Row],[KL lambda]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L185" s="14" t="e">
+        <f>Tabelle15[[#This Row],[KL lambda]]-Tabelle15[[#This Row],[KL ga la]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M185" s="14"/>
+      <c r="N185" s="14">
+        <v>40</v>
+      </c>
+      <c r="O185" s="14">
+        <v>9999638603.9760094</v>
+      </c>
+      <c r="P185" s="14">
+        <v>9998706092.6167908</v>
+      </c>
+      <c r="Q185" s="14">
+        <v>5.9758615445600599E-2</v>
+      </c>
+      <c r="R185" s="14">
+        <v>1.4295065376624001</v>
+      </c>
+      <c r="S185" s="14">
+        <v>10</v>
+      </c>
+      <c r="T185" s="14">
+        <v>567967.38749017497</v>
+      </c>
+      <c r="U185" s="14">
+        <v>-9.9999921442335697</v>
+      </c>
+      <c r="V185" s="14">
+        <v>6033.1596553005302</v>
+      </c>
+      <c r="W185" s="14">
+        <v>13522.1662043711</v>
+      </c>
+      <c r="X185" s="106">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A186" s="107">
+        <v>47</v>
+      </c>
+      <c r="B186" s="108">
+        <v>52</v>
+      </c>
+      <c r="C186" s="108">
+        <v>1.1733604908448001</v>
+      </c>
+      <c r="D186" s="108">
+        <v>1.1193993451706099</v>
+      </c>
+      <c r="E186" s="108">
+        <v>1.1194428207360201</v>
+      </c>
+      <c r="F186" s="108">
+        <v>1.19129359195226</v>
+      </c>
+      <c r="G186" s="108">
+        <v>1.1129833183029501</v>
+      </c>
+      <c r="H186" s="108">
+        <v>1.11859952742586</v>
+      </c>
+      <c r="I186" s="108">
+        <v>1.11859952742561</v>
+      </c>
+      <c r="J186" s="108"/>
+      <c r="K186" s="108" t="e">
+        <f>Tabelle15[[#This Row],[KL UB]]-Tabelle15[[#This Row],[KL lambda]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L186" s="108" t="e">
+        <f>Tabelle15[[#This Row],[KL lambda]]-Tabelle15[[#This Row],[KL ga la]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M186" s="108"/>
+      <c r="N186" s="108">
+        <v>52</v>
+      </c>
+      <c r="O186" s="108">
+        <v>0.46053502733466201</v>
+      </c>
+      <c r="P186" s="108">
+        <v>0.44572132256710201</v>
+      </c>
+      <c r="Q186" s="108">
+        <v>4.8586912442333298E-3</v>
+      </c>
+      <c r="R186" s="108">
+        <v>0.22587642498233701</v>
+      </c>
+      <c r="S186" s="108">
+        <v>3.1442947345814001</v>
+      </c>
+      <c r="T186" s="108">
+        <v>0.41047878509984898</v>
+      </c>
+      <c r="U186" s="108">
+        <v>0.57161677438163905</v>
+      </c>
+      <c r="V186" s="108">
+        <v>0.41047742502282097</v>
+      </c>
+      <c r="W186" s="108">
+        <v>0</v>
+      </c>
+      <c r="X186" s="109">
+        <v>0.57161490146539995</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A187" s="105">
+        <v>12</v>
+      </c>
+      <c r="B187" s="14">
+        <v>14</v>
+      </c>
+      <c r="C187" s="14">
+        <v>1.3833659233325599</v>
+      </c>
+      <c r="D187" s="14">
+        <v>1.3742607855939999</v>
+      </c>
+      <c r="E187" s="14">
+        <v>1.37384790903221</v>
+      </c>
+      <c r="F187" s="14">
+        <v>1.3946862772867601</v>
+      </c>
+      <c r="G187" s="14">
+        <v>1.3724006354243401</v>
+      </c>
+      <c r="H187" s="14">
+        <v>1.37425968516992</v>
+      </c>
+      <c r="I187" s="14">
+        <v>1.3514005589711999</v>
+      </c>
+      <c r="J187" s="14"/>
+      <c r="K187" s="14" t="e">
+        <f>Tabelle15[[#This Row],[KL UB]]-Tabelle15[[#This Row],[KL lambda]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L187" s="14" t="e">
+        <f>Tabelle15[[#This Row],[KL lambda]]-Tabelle15[[#This Row],[KL ga la]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M187" s="14"/>
+      <c r="N187" s="14">
+        <v>14</v>
+      </c>
+      <c r="O187" s="14">
+        <v>0.59246064196604697</v>
+      </c>
+      <c r="P187" s="14">
+        <v>0.74558845641499405</v>
+      </c>
+      <c r="Q187" s="14">
+        <v>1.1793509755852701E-2</v>
+      </c>
+      <c r="R187" s="14">
+        <v>0.94345262888560499</v>
+      </c>
+      <c r="S187" s="14">
+        <v>-0.59276175940577602</v>
+      </c>
+      <c r="T187" s="14">
+        <v>0.58717587740688204</v>
+      </c>
+      <c r="U187" s="14">
+        <v>0.97398568135486896</v>
+      </c>
+      <c r="V187" s="14">
+        <v>6.44465364361838E-4</v>
+      </c>
+      <c r="W187" s="14">
+        <v>0.23140662930705799</v>
+      </c>
+      <c r="X187" s="106">
+        <v>1.04966021942022</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q190">
+        <f>ABS(Q160)</f>
+        <v>6.7863092424260099E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A191" s="55"/>
+      <c r="Q191">
+        <f t="shared" ref="Q191:Q218" si="0">ABS(Q161)</f>
+        <v>6.5947451032281307E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q192">
+        <f t="shared" si="0"/>
+        <v>5.4913924483552902E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q193">
+        <f t="shared" si="0"/>
+        <v>1.43632791496951E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q194">
+        <f t="shared" si="0"/>
+        <v>3.7016315022742802E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q195">
+        <f t="shared" si="0"/>
+        <v>2.7654291825579499E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q196">
+        <f t="shared" si="0"/>
+        <v>5.5381297954815796E-4</v>
+      </c>
+    </row>
+    <row r="197" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q197">
+        <f t="shared" si="0"/>
+        <v>1.46397264946494E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q198">
+        <f t="shared" si="0"/>
+        <v>2.4208398831993501E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q199">
+        <f t="shared" si="0"/>
+        <v>5.7942887478852597E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q200">
+        <f t="shared" si="0"/>
+        <v>8.5100085336923701E-4</v>
+      </c>
+    </row>
+    <row r="201" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q201">
+        <f t="shared" si="0"/>
+        <v>1.9145117126543999E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q202">
+        <f t="shared" si="0"/>
+        <v>6.38278005766488E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q203">
+        <f t="shared" si="0"/>
+        <v>1.0037658696171599E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q204">
+        <f t="shared" si="0"/>
+        <v>1.6606325914725901E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q205">
+        <f t="shared" si="0"/>
+        <v>5.2506728191412097E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q206">
+        <f t="shared" si="0"/>
+        <v>6.9935011702930497E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q207">
+        <f t="shared" si="0"/>
+        <v>2.77020334313638E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q208">
+        <f t="shared" si="0"/>
+        <v>6.0049223217162797E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q209">
+        <f t="shared" si="0"/>
+        <v>1.61968035276894E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q210">
+        <f t="shared" si="0"/>
+        <v>4.3888344139676502E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q211">
+        <f t="shared" si="0"/>
+        <v>1.44190749272733E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q212">
+        <f t="shared" si="0"/>
+        <v>5.8256972612948203E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q213">
+        <f>ABS(Q183)</f>
+        <v>1.5827200218556499E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q214">
+        <f t="shared" si="0"/>
+        <v>6.5038489942102096E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q215">
+        <f t="shared" si="0"/>
+        <v>5.9758615445600599E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q216">
+        <f t="shared" si="0"/>
+        <v>4.8586912442333298E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q217">
+        <f t="shared" si="0"/>
+        <v>1.1793509755852701E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q219">
+        <f>MAX(Q190:Q217)</f>
+        <v>6.9935011702930497E-2</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A88:X120">
-    <sortCondition ref="K88:K120"/>
+    <sortCondition ref="Q88:Q120"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -17513,7 +19684,7 @@
         <v>0.80433897221857797</v>
       </c>
       <c r="L90">
-        <f t="shared" ref="L89:L106" si="0">C90-F90</f>
+        <f t="shared" ref="L90:L106" si="0">C90-F90</f>
         <v>-0.37047350305692406</v>
       </c>
       <c r="N90">
@@ -35694,7 +37865,7 @@
         <v>-7.9129278951484139E-7</v>
       </c>
       <c r="K180" s="54">
-        <f t="shared" ref="K179:K195" si="13">F180-H180</f>
+        <f t="shared" ref="K180:K195" si="13">F180-H180</f>
         <v>0.85190184697743998</v>
       </c>
       <c r="L180" s="89">

--- a/RSA_2019_08/X3_Data/x3_simpleRSA_KLandParams_20191221.xlsx
+++ b/RSA_2019_08/X3_Data/x3_simpleRSA_KLandParams_20191221.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="x3KLDivs_simpleRSA_indOpt_1STAR" sheetId="4" r:id="rId1"/>
@@ -1102,72 +1102,6 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1258,6 +1192,72 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1280,10 +1280,10 @@
   <tableColumns count="25">
     <tableColumn id="1" name="Spalte1"/>
     <tableColumn id="2" name="V1"/>
-    <tableColumn id="3" name="KL UB" dataDxfId="1"/>
+    <tableColumn id="3" name="KL UB" dataDxfId="8"/>
     <tableColumn id="4" name="KL gamma"/>
     <tableColumn id="5" name="KL beta"/>
-    <tableColumn id="6" name="KL lambda" dataDxfId="2"/>
+    <tableColumn id="6" name="KL lambda" dataDxfId="7"/>
     <tableColumn id="7" name="KL be la"/>
     <tableColumn id="8" name="KL ga la"/>
     <tableColumn id="9" name="KL ga be la"/>
@@ -1291,7 +1291,7 @@
     <tableColumn id="24" name="KL UB-Lamda">
       <calculatedColumnFormula>Tabelle15[[#This Row],[KL UB]]-Tabelle15[[#This Row],[KL lambda]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="AIC UB-AIC lambda" dataDxfId="0">
+    <tableColumn id="25" name="AIC UB-AIC lambda" dataDxfId="6">
       <calculatedColumnFormula>2*Tabelle15[[#This Row],[KL UB]]-2*Tabelle15[[#This Row],[KL lambda]]-2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="KL L-GL">
@@ -1370,17 +1370,17 @@
     <tableColumn id="7" name="KL be la"/>
     <tableColumn id="8" name="KL ga la"/>
     <tableColumn id="9" name="KL ga be la"/>
-    <tableColumn id="10" name="KL_UB-GA_LA" dataDxfId="8">
+    <tableColumn id="10" name="KL_UB-GA_LA" dataDxfId="5">
       <calculatedColumnFormula>Tabelle14[[#This Row],[KL UB]]-Tabelle14[[#This Row],[KL ga la]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Spalte3" dataDxfId="7">
+    <tableColumn id="11" name="Spalte3" dataDxfId="4">
       <calculatedColumnFormula>Tabelle14[[#This Row],[KL lambda]]-Tabelle14[[#This Row],[KL ga la]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="Spalte4" dataDxfId="6">
+    <tableColumn id="23" name="Spalte4" dataDxfId="3">
       <calculatedColumnFormula>MAX(Tabelle14[[#This Row],[Spalte3]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="Spalte42" dataDxfId="5"/>
-    <tableColumn id="24" name="Spalte5" dataDxfId="4"/>
+    <tableColumn id="25" name="Spalte42" dataDxfId="2"/>
+    <tableColumn id="24" name="Spalte5" dataDxfId="1"/>
     <tableColumn id="12" name="V14"/>
     <tableColumn id="13" name="gamma"/>
     <tableColumn id="14" name="beta"/>
@@ -1413,7 +1413,7 @@
     <tableColumn id="7" name="KL be la"/>
     <tableColumn id="8" name="KL ga la"/>
     <tableColumn id="9" name="KL ga be la"/>
-    <tableColumn id="10" name="KL_UB-3Params" dataDxfId="3">
+    <tableColumn id="10" name="KL_UB-3Params" dataDxfId="0">
       <calculatedColumnFormula>Tabelle13[[#This Row],[KL UB]]-Tabelle13[[#This Row],[KL ga be la]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" name="Spalte3"/>
@@ -1698,8 +1698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y219"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L139" sqref="L139:L148"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14831,7 +14831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A81" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L137" sqref="L137"/>
     </sheetView>
   </sheetViews>
